--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B792DE5-AC48-7246-8D5F-CD2B4A6E9761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CCB84B-964B-DF41-91F2-BFD5F5879DDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="4500" windowWidth="24840" windowHeight="12940" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
-    <sheet name="structures" sheetId="2" r:id="rId2"/>
+    <sheet name="axis" sheetId="3" r:id="rId2"/>
+    <sheet name="AB" sheetId="4" r:id="rId3"/>
+    <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,8 +27,168 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BBF95199-719D-4EFF-9CAC-0AE7D9E53C79}</author>
+    <author>tc={954BEEF1-029F-4B49-9598-7BCB2B8D99C2}</author>
+    <author>tc={E95D16CB-B9FE-4FD3-8E97-8084044FE63A}</author>
+    <author>tc={FFD4E624-BDAA-4E15-BCF5-137D86859ED7}</author>
+    <author>tc={64950143-F985-4890-BE68-D7F105AA86D7}</author>
+    <author>tc={FFADBAE0-0E9E-4C0C-905D-A76BF7A8106A}</author>
+  </authors>
+  <commentList>
+    <comment ref="G86" authorId="0" shapeId="0" xr:uid="{EA8B6FD4-4794-3B40-9C34-F4EFD786758F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Split into left and right</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G89" authorId="1" shapeId="0" xr:uid="{6E42EA85-FC19-894F-BA8F-880757D1A93D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Split into left and right</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G93" authorId="2" shapeId="0" xr:uid="{AA6EF430-6B84-A247-AE27-3533812AB0F4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Split into left and right</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G94" authorId="3" shapeId="0" xr:uid="{B887CCA6-2862-A048-93CD-B270C6E218AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Split into left and right</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G104" authorId="4" shapeId="0" xr:uid="{C761E353-4C32-F241-9116-90BAFC57EA14}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Split into left and right</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C128" authorId="5" shapeId="0" xr:uid="{495C85D6-13CD-1E42-B333-5F23E681DB78}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Should this be internal or external nares?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>FuTRES</author>
+  </authors>
+  <commentList>
+    <comment ref="A64" authorId="0" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FuTRES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Check and compare these</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="360">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -542,13 +704,577 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>fig number</t>
+  </si>
+  <si>
+    <t>S.0</t>
+  </si>
+  <si>
+    <t>S.1</t>
+  </si>
+  <si>
+    <t>B.3</t>
+  </si>
+  <si>
+    <t>B.5</t>
+  </si>
+  <si>
+    <t>S.3. C.WN</t>
+  </si>
+  <si>
+    <t>S.5; B.6</t>
+  </si>
+  <si>
+    <t>S.6; B.7; C.ICW</t>
+  </si>
+  <si>
+    <t>S.7; B.8</t>
+  </si>
+  <si>
+    <t>C.ITW</t>
+  </si>
+  <si>
+    <t>S.8; B9</t>
+  </si>
+  <si>
+    <t>C.MW</t>
+  </si>
+  <si>
+    <t>S.9; B10</t>
+  </si>
+  <si>
+    <t>C.PL; S.10; B11</t>
+  </si>
+  <si>
+    <t>C.LUTR; S.11; B.12</t>
+  </si>
+  <si>
+    <t>S.12</t>
+  </si>
+  <si>
+    <t>B.14</t>
+  </si>
+  <si>
+    <t>S.14; B.15</t>
+  </si>
+  <si>
+    <t>C.WBO</t>
+  </si>
+  <si>
+    <t>S.17; B.20</t>
+  </si>
+  <si>
+    <t>C.PW23</t>
+  </si>
+  <si>
+    <t>C.PW34</t>
+  </si>
+  <si>
+    <t>C.PW45</t>
+  </si>
+  <si>
+    <t>S.19</t>
+  </si>
+  <si>
+    <t>C.PD</t>
+  </si>
+  <si>
+    <t>C.WAB</t>
+  </si>
+  <si>
+    <t>C.OCH</t>
+  </si>
+  <si>
+    <t>C.MB</t>
+  </si>
+  <si>
+    <t>Siversten (1954)</t>
+  </si>
+  <si>
+    <t>Brunner (2004)</t>
+  </si>
+  <si>
+    <t>Siversten (1954); Churchill and Boessenecker (2016)</t>
+  </si>
+  <si>
+    <t>Siversten (1954); Brunner (2004)</t>
+  </si>
+  <si>
+    <t>Churchill and Boessenecker (2016)</t>
+  </si>
+  <si>
+    <t>Churchill and Boessenecker (2016); Siversten (1954); Brunner (2004)</t>
+  </si>
+  <si>
+    <t>Condylobasal length</t>
+  </si>
+  <si>
+    <t>Gnathion--middle of occipital crest</t>
+  </si>
+  <si>
+    <t>Gnathion--posterior end of nasals</t>
+  </si>
+  <si>
+    <t>Greatest length of nasals</t>
+  </si>
+  <si>
+    <t>Width of anterior nares at widest point</t>
+  </si>
+  <si>
+    <t>Width at preorbital processes</t>
+  </si>
+  <si>
+    <t>Width at narrowest point between preorbital and postorbital processes</t>
+  </si>
+  <si>
+    <t>Width at postorbital processes</t>
+  </si>
+  <si>
+    <t>Width at narrowest portion of intertemporal constriction, posterior to postorbital processes and just anterior to braincase</t>
+  </si>
+  <si>
+    <t>Braincase width</t>
+  </si>
+  <si>
+    <t>Bimastoid width</t>
+  </si>
+  <si>
+    <t>Occipital crest to left mastoid</t>
+  </si>
+  <si>
+    <t>Occipital crest to right mastoid</t>
+  </si>
+  <si>
+    <t>Palatal length</t>
+  </si>
+  <si>
+    <t>Upper left tooth row</t>
+  </si>
+  <si>
+    <t>Upper right tooth row</t>
+  </si>
+  <si>
+    <t>Width of skull at canines</t>
+  </si>
+  <si>
+    <t>Gnathion--posterior end of maxilla</t>
+  </si>
+  <si>
+    <t>Width of left zygomatic root of maxilla</t>
+  </si>
+  <si>
+    <t>Width of right zygomatic root of maxilla</t>
+  </si>
+  <si>
+    <t>Width of the basioccipital</t>
+  </si>
+  <si>
+    <t>Zygomatic width</t>
+  </si>
+  <si>
+    <t>Transverse width of the palate between P2 and P3</t>
+  </si>
+  <si>
+    <t>Transverse width of the palate between P3 and P4</t>
+  </si>
+  <si>
+    <t>Transverse width of the palate between P4 and M1</t>
+  </si>
+  <si>
+    <t>Auditory width</t>
+  </si>
+  <si>
+    <t>Depth of palate</t>
+  </si>
+  <si>
+    <t>Basisphenoid width</t>
+  </si>
+  <si>
+    <t>Occipital shield height</t>
+  </si>
+  <si>
+    <t>Left mastoid-paraoccipital measurement</t>
+  </si>
+  <si>
+    <t>Right mastoid-paraoccipital measurement</t>
+  </si>
+  <si>
+    <t>Rostrum length</t>
+  </si>
+  <si>
+    <t>Left upper tooth row length</t>
+  </si>
+  <si>
+    <t>Right upper tooth row length</t>
+  </si>
+  <si>
+    <t>Rostrum width at base</t>
+  </si>
+  <si>
+    <t>Rostrum width at mid-length</t>
+  </si>
+  <si>
+    <t>Premaxillary width at mid-length of rostrum</t>
+  </si>
+  <si>
+    <t>Dorsal maximum premaxillary width</t>
+  </si>
+  <si>
+    <t>Left nasal length</t>
+  </si>
+  <si>
+    <t>Right nasal length</t>
+  </si>
+  <si>
+    <t>Width of nasals</t>
+  </si>
+  <si>
+    <t>Length of facial region (ventral)</t>
+  </si>
+  <si>
+    <t>Length of prenarial region (dorsal)</t>
+  </si>
+  <si>
+    <t>Antorbital notches to anterior border of nasals</t>
+  </si>
+  <si>
+    <t>Antorbital notches to internal nares</t>
+  </si>
+  <si>
+    <t>Outer braincase length (ventral)</t>
+  </si>
+  <si>
+    <t>Orbital width</t>
+  </si>
+  <si>
+    <t>Cranial width at postorbital processes</t>
+  </si>
+  <si>
+    <t>Right orbit height</t>
+  </si>
+  <si>
+    <t>Left orbit height</t>
+  </si>
+  <si>
+    <t>Right orbit width</t>
+  </si>
+  <si>
+    <t>Left orbit width</t>
+  </si>
+  <si>
+    <t>Right orbit length</t>
+  </si>
+  <si>
+    <t>Left orbit length</t>
+  </si>
+  <si>
+    <t>Palatine length</t>
+  </si>
+  <si>
+    <t>Nares width</t>
+  </si>
+  <si>
+    <t>Left frontal width</t>
+  </si>
+  <si>
+    <t>Right frontal width</t>
+  </si>
+  <si>
+    <t>Width of the intertemporal constriction</t>
+  </si>
+  <si>
+    <t>length of anterior symphysis to articular of dentary</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>mandibular symphysis to mandibular angle length</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('anteriormost part of' some 'mandibular symphysis')</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('posteriormost part of' some 'mandible angular process')</t>
+  </si>
+  <si>
+    <t>basilar length</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('part of' some 'skull') and ('anteriormost part of' some 'alveolar ridge')</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('anteriormost part of' some 'foramen magnum')</t>
+  </si>
+  <si>
+    <t>Anteriormost extent of rostrum</t>
+  </si>
+  <si>
+    <t>Posterior margin of left occipital condyle</t>
+  </si>
+  <si>
+    <t>Midline extent of nuchal/occipital/lambdoidal crest</t>
+  </si>
+  <si>
+    <t>Midline of level of posterior extent of nasals</t>
+  </si>
+  <si>
+    <t>Midline of level of anteriormost extent of nasals</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of left preorbital process</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of right preorbital process</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of left postorbital process</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of right postorbital process</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of braincase at left coronal suture</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of braincase at right coronal suture</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of left mastoid</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of right mastoid</t>
+  </si>
+  <si>
+    <t>Midpoint of occipital/nuchal/lambdoidal crest</t>
+  </si>
+  <si>
+    <t>Midline of level of posteriormost border of I1 alveoli</t>
+  </si>
+  <si>
+    <t>Palatal notch</t>
+  </si>
+  <si>
+    <t>Posteriormost extent of left canine alveolus</t>
+  </si>
+  <si>
+    <t>Posterior-most extent of left posterior-most alveolus</t>
+  </si>
+  <si>
+    <t>Posteriormost extent of right canine alveolus</t>
+  </si>
+  <si>
+    <t>Posterior-most extent of right posterior-most alveolus</t>
+  </si>
+  <si>
+    <t>Left lateral-most extent of rostrum at level of posteriormost extent of left canine alveolus</t>
+  </si>
+  <si>
+    <t>Right lateral-most extent of rostrum at level of posteriormost extent of right canine alveolus</t>
+  </si>
+  <si>
+    <t>Midline of level of posterior extent of maxillae</t>
+  </si>
+  <si>
+    <t>Anteroventral extent of left infraorbital foramen</t>
+  </si>
+  <si>
+    <t>Anteroventral extent of left orbit</t>
+  </si>
+  <si>
+    <t>Anteroventral extent of right infraorbital foramen</t>
+  </si>
+  <si>
+    <t>Anteroventral extent of right orbit</t>
+  </si>
+  <si>
+    <t>Medial wall of left posterior lacerate foramen</t>
+  </si>
+  <si>
+    <t>Medial wall of right posterior lacerate foramen</t>
+  </si>
+  <si>
+    <t>Posteroventral extent of left jugal</t>
+  </si>
+  <si>
+    <t>Posteroventral extent of right jugal</t>
+  </si>
+  <si>
+    <t>Midpoint of the width of the alveoli for left P2 and P3</t>
+  </si>
+  <si>
+    <t>Midpoint of the width of the alveoli for right P2 and P3</t>
+  </si>
+  <si>
+    <t>Midpoint of the width of the alveoli for left P3 and P4</t>
+  </si>
+  <si>
+    <t>Midpoint of the width of the alveoli for right P3 and P4</t>
+  </si>
+  <si>
+    <t>Midpoint of the width of the alveoli for left P4 and M1</t>
+  </si>
+  <si>
+    <t>Midpoint of the width of the alveoli for right P4 and M1</t>
+  </si>
+  <si>
+    <t>Lateral extent of right auditory meatus</t>
+  </si>
+  <si>
+    <t>Lateral extent of left auditory meatus</t>
+  </si>
+  <si>
+    <t>Midpoint of imaginary line running from between right P3 and P4 and left P3 and P4</t>
+  </si>
+  <si>
+    <t>Midpoint of the width of the palate directly dorsal to midpoint of imaginary line</t>
+  </si>
+  <si>
+    <t>Left eustachian/auditory tube</t>
+  </si>
+  <si>
+    <t>Right eustachian/auditory tube</t>
+  </si>
+  <si>
+    <t>Dorsal intercondylar notch</t>
+  </si>
+  <si>
+    <t>Junction of the sagittal and lambdoidal/nuchal crests</t>
+  </si>
+  <si>
+    <t>Anterior surface of the lateral-most portion of the left mastoid process</t>
+  </si>
+  <si>
+    <t>Posterior surface of the left paraoccipital</t>
+  </si>
+  <si>
+    <t>Anterior surface of the lateral-most portion of the right mastoid process</t>
+  </si>
+  <si>
+    <t>Posterior surface of the right paraoccipital</t>
+  </si>
+  <si>
+    <t>Anterior-most extent of rostrum</t>
+  </si>
+  <si>
+    <t>antorbital notches</t>
+  </si>
+  <si>
+    <t>Anterior-most extent of left anterior-most tooth alveolus</t>
+  </si>
+  <si>
+    <t>Posterior-most extent of left posterior-most tooth alveolus</t>
+  </si>
+  <si>
+    <t>Anterior-most extent of right anterior-most tooth alveolus</t>
+  </si>
+  <si>
+    <t>Posterior-most extent of right posterior-most tooth alveolus</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of right antorbital notch</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of left antorbital notch</t>
+  </si>
+  <si>
+    <t>Midpoint between right antorbital notch and anterior-most extent of rostrum</t>
+  </si>
+  <si>
+    <t>Midpoint between left antorbital notch and anterior-most extent of rostrum</t>
+  </si>
+  <si>
+    <t>Right lateral-most extent of dorsal premaxilla at mid-length of rostrum</t>
+  </si>
+  <si>
+    <t>Left lateral-most extent of dorsal premaxilla at mid-length of rostrum</t>
+  </si>
+  <si>
+    <t>Postero-lateral most extent of left nasal</t>
+  </si>
+  <si>
+    <t>Antero-lateral most extent of left nasal</t>
+  </si>
+  <si>
+    <t>Postero-lateral most extent of right nasal</t>
+  </si>
+  <si>
+    <t>Antero-lateral most extent of right nasal</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of left nasal</t>
+  </si>
+  <si>
+    <t>Lateral-most extent of right nasal</t>
+  </si>
+  <si>
+    <t>Anterior-most extent of internal nares</t>
+  </si>
+  <si>
+    <t>Anterior-most end of the premaxillae</t>
+  </si>
+  <si>
+    <t>Anterior-most extent of external nares</t>
+  </si>
+  <si>
+    <t>Midpoint between antorbital notches</t>
+  </si>
+  <si>
+    <t>Anteromedial extent of nasals</t>
+  </si>
+  <si>
+    <t>Anterior-most border of internal nares</t>
+  </si>
+  <si>
+    <t>Posterior-most border of left internal nares</t>
+  </si>
+  <si>
+    <t>Posterior-most extent of left occipital condyle</t>
+  </si>
+  <si>
+    <t>Right lateral midpoint of orbital length</t>
+  </si>
+  <si>
+    <t>Left lateral midpoint of orbital length</t>
+  </si>
+  <si>
+    <t>Right postorbital process</t>
+  </si>
+  <si>
+    <t>Left postorbital process</t>
+  </si>
+  <si>
+    <t>Anterior-most extent of palatine at midline</t>
+  </si>
+  <si>
+    <t>Posterior-most extent of palatine at midline</t>
+  </si>
+  <si>
+    <t>Right lateral-most extent of nares</t>
+  </si>
+  <si>
+    <t>Left lateral-most extent of nares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,13 +1319,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -615,7 +1404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,6 +1412,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -937,17 +1738,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
-  <dimension ref="A1:O106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
+  <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,25 +1765,31 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>170</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>171</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1000,8 +1807,10 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1019,8 +1828,10 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1038,8 +1849,10 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1057,8 +1870,10 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1076,8 +1891,10 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1095,8 +1912,10 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1114,8 +1933,10 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1133,8 +1954,10 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1152,8 +1975,10 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1171,8 +1996,10 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1190,8 +2017,10 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1209,8 +2038,10 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1228,8 +2059,10 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1247,8 +2080,10 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1266,8 +2101,10 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1285,8 +2122,10 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1304,8 +2143,10 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1323,8 +2164,10 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1342,8 +2185,10 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1361,31 +2206,39 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="I22" s="3" t="s">
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
@@ -1393,59 +2246,61 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="3" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="K23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1"/>
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="I25" s="3" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="K25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="3">
+      <c r="L25" s="3">
         <v>10</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
         <v>124</v>
       </c>
@@ -1453,19 +2308,19 @@
         <v>35</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
@@ -1473,21 +2328,23 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27" s="3"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="3" t="s">
         <v>130</v>
       </c>
@@ -1496,19 +2353,19 @@
         <v>39</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -1517,255 +2374,255 @@
       <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>35</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="N29" s="3"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J30" s="3">
+      <c r="L30" s="3">
         <v>36</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="N30" s="3"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="N31" s="3"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="H32" s="1"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>12</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:17">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>17</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J36" s="3">
+      <c r="L36" s="3">
         <v>13</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:17">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="3">
+      <c r="L37" s="3">
         <v>18</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1773,483 +2630,485 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="N42" s="3"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="3"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:17">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J47" s="1">
+      <c r="L47" s="1">
         <v>7</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="M51" s="3"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J53" s="1">
+      <c r="L53" s="1">
         <v>27</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:17">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J54" s="1">
+      <c r="L54" s="1">
         <v>28</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L54" s="3"/>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="N54" s="3"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J55" s="1">
+      <c r="L55" s="1">
         <v>29</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L55" s="3"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="N55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J56" s="1">
+      <c r="L56" s="1">
         <v>14</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="M56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L56" s="3"/>
-      <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="N56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J57" s="1">
+      <c r="L57" s="1">
         <v>15</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="N57" s="3"/>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J58" s="1">
+      <c r="L58" s="1">
         <v>16</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59" s="1"/>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M60" s="1"/>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="O60" s="1"/>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="I61" s="3" t="s">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="K61" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L62" s="1"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="N62" s="1"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J64" s="1">
+      <c r="L64" s="1">
         <v>37</v>
       </c>
-      <c r="K64" s="1"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="M64" s="1"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
@@ -2258,40 +3117,42 @@
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L65" s="3"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="N65" s="3"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="M66" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2299,18 +3160,20 @@
         <v>90</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="3"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2318,18 +3181,20 @@
         <v>91</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2337,17 +3202,19 @@
         <v>92</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:17">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2355,17 +3222,19 @@
         <v>93</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:17">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2373,17 +3242,19 @@
         <v>94</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
@@ -2393,21 +3264,23 @@
         <v>96</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1">
         <v>20</v>
       </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
@@ -2417,21 +3290,23 @@
         <v>97</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1">
         <v>20</v>
       </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
@@ -2441,21 +3316,23 @@
         <v>99</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1">
         <v>23</v>
       </c>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
@@ -2465,131 +3342,358 @@
         <v>100</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1">
         <v>23</v>
       </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="C76" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="C77" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" t="s">
+        <v>202</v>
+      </c>
+      <c r="G77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="C78" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" t="s">
+        <v>202</v>
+      </c>
+      <c r="G78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="C79" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="C80" t="s">
+        <v>212</v>
+      </c>
+      <c r="F80" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="C81" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" t="s">
+        <v>204</v>
+      </c>
+      <c r="G81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="C82" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" t="s">
+        <v>204</v>
+      </c>
+      <c r="G82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="C83" t="s">
+        <v>215</v>
+      </c>
+      <c r="F83" t="s">
+        <v>205</v>
+      </c>
+      <c r="G83" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="C84" t="s">
+        <v>216</v>
+      </c>
+      <c r="F84" t="s">
+        <v>204</v>
+      </c>
+      <c r="G84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="C85" t="s">
+        <v>217</v>
+      </c>
+      <c r="F85" t="s">
+        <v>205</v>
+      </c>
+      <c r="G85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="C86" t="s">
+        <v>218</v>
+      </c>
+      <c r="F86" t="s">
+        <v>204</v>
+      </c>
+      <c r="G86" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="C87" t="s">
+        <v>219</v>
+      </c>
+      <c r="F87" t="s">
+        <v>204</v>
+      </c>
+      <c r="G87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="C88" t="s">
+        <v>220</v>
+      </c>
+      <c r="F88" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="C89" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" t="s">
+        <v>206</v>
+      </c>
+      <c r="G89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="C90" t="s">
+        <v>222</v>
+      </c>
+      <c r="F90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="C91" t="s">
+        <v>223</v>
+      </c>
+      <c r="F91" t="s">
+        <v>201</v>
+      </c>
+      <c r="G91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="C92" t="s">
+        <v>224</v>
+      </c>
+      <c r="F92" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="C93" t="s">
+        <v>225</v>
+      </c>
+      <c r="F93" t="s">
+        <v>204</v>
+      </c>
+      <c r="G93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="F94" t="s">
+        <v>204</v>
+      </c>
+      <c r="G94" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="C95" t="s">
+        <v>227</v>
+      </c>
+      <c r="F95" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="3"/>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="C96" t="s">
+        <v>228</v>
+      </c>
+      <c r="F96" t="s">
+        <v>204</v>
+      </c>
+      <c r="G96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="C97" t="s">
+        <v>229</v>
+      </c>
+      <c r="F97" t="s">
+        <v>205</v>
+      </c>
+      <c r="G97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="C98" t="s">
+        <v>230</v>
+      </c>
+      <c r="F98" t="s">
+        <v>205</v>
+      </c>
+      <c r="G98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" t="s">
+        <v>231</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="1"/>
+      <c r="F99" t="s">
+        <v>205</v>
+      </c>
+      <c r="G99" t="s">
+        <v>195</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="C100" t="s">
+        <v>232</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="F100" t="s">
+        <v>201</v>
+      </c>
+      <c r="G100" t="s">
+        <v>196</v>
+      </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -2598,15 +3702,23 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" t="s">
+        <v>233</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="F101" t="s">
+        <v>205</v>
+      </c>
+      <c r="G101" t="s">
+        <v>197</v>
+      </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -2615,54 +3727,859 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="3"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="C102" t="s">
+        <v>234</v>
+      </c>
+      <c r="F102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" t="s">
+        <v>198</v>
+      </c>
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="C103" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" t="s">
+        <v>205</v>
+      </c>
+      <c r="G103" t="s">
+        <v>199</v>
+      </c>
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="C104" t="s">
+        <v>236</v>
+      </c>
+      <c r="F104" t="s">
+        <v>205</v>
+      </c>
+      <c r="G104" t="s">
+        <v>200</v>
+      </c>
+      <c r="P104" s="1"/>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="3"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="3"/>
-      <c r="N106" s="3"/>
+      <c r="C105" t="s">
+        <v>237</v>
+      </c>
+      <c r="F105" t="s">
+        <v>205</v>
+      </c>
+      <c r="G105" t="s">
+        <v>200</v>
+      </c>
+      <c r="P105" s="3"/>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="C106" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="C107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="C108" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="C109" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="C110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="C111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="C112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="9" t="s">
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DECECE6-49BF-9F4F-B264-E8F452349B07}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>350</v>
+      </c>
+      <c r="C51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
+        <v>354</v>
+      </c>
+      <c r="C53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
   <dimension ref="A1:O20"/>
   <sheetViews>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CCB84B-964B-DF41-91F2-BFD5F5879DDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18678180-C91C-914D-A4FC-A8D8A547FD3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -128,15 +128,61 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Should this be internal or external nares?</t>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Should this be internal or external nares?</t>
         </r>
       </text>
     </comment>
@@ -150,7 +196,7 @@
     <author>FuTRES</author>
   </authors>
   <commentList>
-    <comment ref="A64" authorId="0" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
+    <comment ref="A63" authorId="0" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
       <text>
         <r>
           <rPr>
@@ -188,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="364">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1268,6 +1314,18 @@
   </si>
   <si>
     <t>Left lateral-most extent of nares</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>Ray: #39</t>
+  </si>
+  <si>
+    <t>line from infraorbital foramen to first molar mesostyle is a proxy for crown height</t>
   </si>
 </sst>
 </file>
@@ -1741,9 +1799,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3901,24 +3959,32 @@
         <v>262</v>
       </c>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:9">
       <c r="C129" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:9">
       <c r="C130" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:9">
       <c r="C131" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
-      <c r="C133" s="9" t="s">
+    <row r="132" spans="3:9">
+      <c r="C132" s="9" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9">
+      <c r="C133" t="s">
+        <v>363</v>
+      </c>
+      <c r="I133" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3929,22 +3995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DECECE6-49BF-9F4F-B264-E8F452349B07}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
-  <dimension ref="A1:E64"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3954,6 +4008,38 @@
         <v>267</v>
       </c>
       <c r="B1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
         <v>268</v>
       </c>
       <c r="C1" t="s">
@@ -4312,129 +4398,137 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="13"/>
+      <c r="A35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="14" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s">
         <v>326</v>
       </c>
-      <c r="C36" t="s">
-        <v>278</v>
+      <c r="C36" s="15" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s">
-        <v>326</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="C37" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" t="s">
-        <v>332</v>
-      </c>
-      <c r="C40" t="s">
-        <v>333</v>
+        <v>242</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>334</v>
+        <v>243</v>
+      </c>
+      <c r="B41" t="s">
+        <v>336</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" t="s">
-        <v>336</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="B43" t="s">
+        <v>338</v>
+      </c>
+      <c r="C43" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C45" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B47" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C47" t="s">
         <v>345</v>
@@ -4442,134 +4536,123 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" t="s">
-        <v>346</v>
+        <v>250</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="C48" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>347</v>
       </c>
       <c r="C49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>347</v>
+        <v>252</v>
+      </c>
+      <c r="B50" t="s">
+        <v>350</v>
       </c>
       <c r="C50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
+      </c>
+      <c r="C52" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B53" t="s">
-        <v>354</v>
-      </c>
-      <c r="C53" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="B59" t="s">
+        <v>356</v>
+      </c>
+      <c r="C59" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60" t="s">
-        <v>356</v>
-      </c>
-      <c r="C60" t="s">
-        <v>357</v>
+      <c r="A60" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>359</v>
+      <c r="A61" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="14" t="s">
         <v>265</v>
       </c>
     </row>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18678180-C91C-914D-A4FC-A8D8A547FD3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B1903A-5958-4763-9C00-EA52AB5C8626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -30,173 +30,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BBF95199-719D-4EFF-9CAC-0AE7D9E53C79}</author>
-    <author>tc={954BEEF1-029F-4B49-9598-7BCB2B8D99C2}</author>
-    <author>tc={E95D16CB-B9FE-4FD3-8E97-8084044FE63A}</author>
-    <author>tc={FFD4E624-BDAA-4E15-BCF5-137D86859ED7}</author>
-    <author>tc={64950143-F985-4890-BE68-D7F105AA86D7}</author>
-    <author>tc={FFADBAE0-0E9E-4C0C-905D-A76BF7A8106A}</author>
-  </authors>
-  <commentList>
-    <comment ref="G86" authorId="0" shapeId="0" xr:uid="{EA8B6FD4-4794-3B40-9C34-F4EFD786758F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Split into left and right</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G89" authorId="1" shapeId="0" xr:uid="{6E42EA85-FC19-894F-BA8F-880757D1A93D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Split into left and right</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G93" authorId="2" shapeId="0" xr:uid="{AA6EF430-6B84-A247-AE27-3533812AB0F4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Split into left and right</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G94" authorId="3" shapeId="0" xr:uid="{B887CCA6-2862-A048-93CD-B270C6E218AD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Split into left and right</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G104" authorId="4" shapeId="0" xr:uid="{C761E353-4C32-F241-9116-90BAFC57EA14}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Split into left and right</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C128" authorId="5" shapeId="0" xr:uid="{495C85D6-13CD-1E42-B333-5F23E681DB78}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    Should this be internal or external nares?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>FuTRES</author>
   </authors>
   <commentList>
-    <comment ref="A63" authorId="0" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
+    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
       <text>
         <r>
           <rPr>
@@ -234,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="373">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1326,6 +1163,33 @@
   </si>
   <si>
     <t>line from infraorbital foramen to first molar mesostyle is a proxy for crown height</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('posteriormost part of' some 'occipital condyle')</t>
+  </si>
+  <si>
+    <t>anterior-posterior</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>right side' and (`part of' some 'orbit of skull')</t>
+  </si>
+  <si>
+    <t>left side' and ('part of' some 'orbit of skull')</t>
+  </si>
+  <si>
+    <t>right side' and ('part of' some 'orbit of skull')</t>
+  </si>
+  <si>
+    <t>left side' and ('part of' some 'tetrapod frontal bone')</t>
+  </si>
+  <si>
+    <t>right side' and ('part of' some 'tetrapod frontal bone')</t>
+  </si>
+  <si>
+    <t>upper-lower</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1475,13 +1339,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1796,15 +1662,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -3989,19 +3855,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DECECE6-49BF-9F4F-B264-E8F452349B07}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -4018,6 +3886,94 @@
       </c>
       <c r="E1" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4027,13 +3983,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -4053,40 +4009,40 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>277</v>
       </c>
-      <c r="C4" t="s">
-        <v>278</v>
+      <c r="C4" s="11" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>208</v>
       </c>
       <c r="B5" t="s">
@@ -4097,7 +4053,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>209</v>
       </c>
       <c r="B6" t="s">
@@ -4108,7 +4064,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>210</v>
       </c>
       <c r="B7" t="s">
@@ -4119,12 +4075,12 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>212</v>
       </c>
       <c r="B9" t="s">
@@ -4135,12 +4091,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>214</v>
       </c>
       <c r="B11" t="s">
@@ -4151,12 +4107,12 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>216</v>
       </c>
       <c r="B13" t="s">
@@ -4167,7 +4123,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>217</v>
       </c>
       <c r="B14" t="s">
@@ -4178,7 +4134,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>218</v>
       </c>
       <c r="B15" t="s">
@@ -4189,7 +4145,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>219</v>
       </c>
       <c r="B16" t="s">
@@ -4200,7 +4156,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>220</v>
       </c>
       <c r="B17" t="s">
@@ -4211,7 +4167,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>221</v>
       </c>
       <c r="B18" t="s">
@@ -4222,7 +4178,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>222</v>
       </c>
       <c r="B19" t="s">
@@ -4233,7 +4189,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>223</v>
       </c>
       <c r="B20" t="s">
@@ -4244,7 +4200,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>224</v>
       </c>
       <c r="B21" t="s">
@@ -4255,7 +4211,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>225</v>
       </c>
       <c r="B22" t="s">
@@ -4266,7 +4222,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>226</v>
       </c>
       <c r="B23" t="s">
@@ -4277,7 +4233,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>227</v>
       </c>
       <c r="B24" t="s">
@@ -4288,7 +4244,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>228</v>
       </c>
       <c r="B25" t="s">
@@ -4299,7 +4255,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>229</v>
       </c>
       <c r="B26" t="s">
@@ -4310,7 +4266,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>230</v>
       </c>
       <c r="B27" t="s">
@@ -4321,7 +4277,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>231</v>
       </c>
       <c r="B28" t="s">
@@ -4332,7 +4288,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>232</v>
       </c>
       <c r="B29" t="s">
@@ -4343,7 +4299,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>233</v>
       </c>
       <c r="B30" t="s">
@@ -4354,7 +4310,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>234</v>
       </c>
       <c r="B31" t="s">
@@ -4365,7 +4321,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>235</v>
       </c>
       <c r="B32" t="s">
@@ -4376,7 +4332,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>236</v>
       </c>
       <c r="B33" t="s">
@@ -4387,7 +4343,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>237</v>
       </c>
       <c r="B34" t="s">
@@ -4398,7 +4354,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>207</v>
       </c>
       <c r="B35" t="s">
@@ -4409,18 +4365,18 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>238</v>
       </c>
       <c r="B36" t="s">
         <v>326</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>239</v>
       </c>
       <c r="B37" t="s">
@@ -4431,7 +4387,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B38" t="s">
@@ -4442,7 +4398,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B39" t="s">
@@ -4453,34 +4409,34 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B41" t="s">
         <v>336</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>245</v>
       </c>
       <c r="B43" t="s">
@@ -4491,7 +4447,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>246</v>
       </c>
       <c r="B44" t="s">
@@ -4502,7 +4458,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B45" t="s">
@@ -4513,7 +4469,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>248</v>
       </c>
       <c r="B46" t="s">
@@ -4524,7 +4480,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>249</v>
       </c>
       <c r="B47" t="s">
@@ -4535,10 +4491,10 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>347</v>
       </c>
       <c r="C48" t="s">
@@ -4546,10 +4502,10 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>347</v>
       </c>
       <c r="C49" t="s">
@@ -4557,7 +4513,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>252</v>
       </c>
       <c r="B50" t="s">
@@ -4568,18 +4524,18 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>253</v>
       </c>
       <c r="B51" t="s">
         <v>352</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>254</v>
       </c>
       <c r="B52" t="s">
@@ -4590,69 +4546,29 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="14" t="s">
-        <v>255</v>
+      <c r="A53" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" t="s">
+        <v>356</v>
+      </c>
+      <c r="C53" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="14" t="s">
-        <v>256</v>
+      <c r="A54" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" t="s">
-        <v>356</v>
-      </c>
-      <c r="C59" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4670,7 +4586,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B1903A-5958-4763-9C00-EA52AB5C8626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E9C037-2897-4AA7-9FB8-A79B895318B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="372">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1123,36 +1123,12 @@
     <t>Anterior-most border of internal nares</t>
   </si>
   <si>
-    <t>Posterior-most border of left internal nares</t>
-  </si>
-  <si>
-    <t>Posterior-most extent of left occipital condyle</t>
-  </si>
-  <si>
     <t>Right lateral midpoint of orbital length</t>
   </si>
   <si>
     <t>Left lateral midpoint of orbital length</t>
   </si>
   <si>
-    <t>Right postorbital process</t>
-  </si>
-  <si>
-    <t>Left postorbital process</t>
-  </si>
-  <si>
-    <t>Anterior-most extent of palatine at midline</t>
-  </si>
-  <si>
-    <t>Posterior-most extent of palatine at midline</t>
-  </si>
-  <si>
-    <t>Right lateral-most extent of nares</t>
-  </si>
-  <si>
-    <t>Left lateral-most extent of nares</t>
-  </si>
-  <si>
     <t>axis</t>
   </si>
   <si>
@@ -1190,6 +1166,27 @@
   </si>
   <si>
     <t>upper-lower</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('lateralmost part of' some 'postorbital process')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('lateralmost part of' some 'postorbital process')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'medial side' and ('anteriormost part of' some 'palatine bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'medial side' and ('posteriormost part of' some 'palatine bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('lateralmost part of' some 'external naris')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('lateralmost part of' some 'external naris')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('posteriormost part of' some 'internal naris')</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1266,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1306,12 +1303,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1326,7 +1317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1344,7 +1335,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1666,8 +1656,8 @@
   <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3847,10 +3837,10 @@
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="I133" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3853,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3876,10 +3866,10 @@
         <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>101</v>
@@ -3889,91 +3879,91 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3983,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4009,7 +3999,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>271</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -4020,7 +4010,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>274</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -4038,7 +4028,7 @@
         <v>277</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4513,14 +4503,14 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B50" t="s">
-        <v>350</v>
-      </c>
-      <c r="C50" t="s">
-        <v>351</v>
+      <c r="B50" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4528,49 +4518,57 @@
         <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B52" t="s">
-        <v>354</v>
-      </c>
-      <c r="C52" t="s">
-        <v>355</v>
+      <c r="B52" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B53" t="s">
-        <v>356</v>
-      </c>
-      <c r="C53" t="s">
-        <v>357</v>
+      <c r="B53" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>359</v>
+      <c r="B54" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="13" t="s">
         <v>265</v>
       </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E9C037-2897-4AA7-9FB8-A79B895318B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84915BB0-B610-4E60-9CE3-EEEE8BD63D78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
@@ -30,10 +30,37 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={1E6A4276-088D-4855-B32A-DC10C0B66366}</author>
+    <author>tc={347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}</author>
+    <author>tc={A8EE68F2-714F-4653-9C5C-C7347112CF21}</author>
     <author>FuTRES</author>
   </authors>
   <commentList>
-    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{1E6A4276-088D-4855-B32A-DC10C0B66366}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    'anatomical point' and 'left side' and ('posteriormost part of' some 'alveolar ridge')</t>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="1" shapeId="0" xr:uid="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
+      </text>
+    </comment>
+    <comment ref="C43" authorId="2" shapeId="0" xr:uid="{A8EE68F2-714F-4653-9C5C-C7347112CF21}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    'anatomical point' and 'left side' and ('anteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="3" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
       <text>
         <r>
           <rPr>
@@ -71,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="374">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -925,24 +952,6 @@
     <t>Lateral-most extent of right preorbital process</t>
   </si>
   <si>
-    <t>Lateral-most extent of left postorbital process</t>
-  </si>
-  <si>
-    <t>Lateral-most extent of right postorbital process</t>
-  </si>
-  <si>
-    <t>Lateral-most extent of braincase at left coronal suture</t>
-  </si>
-  <si>
-    <t>Lateral-most extent of braincase at right coronal suture</t>
-  </si>
-  <si>
-    <t>Lateral-most extent of left mastoid</t>
-  </si>
-  <si>
-    <t>Lateral-most extent of right mastoid</t>
-  </si>
-  <si>
     <t>Midpoint of occipital/nuchal/lambdoidal crest</t>
   </si>
   <si>
@@ -952,9 +961,6 @@
     <t>Palatal notch</t>
   </si>
   <si>
-    <t>Posteriormost extent of left canine alveolus</t>
-  </si>
-  <si>
     <t>Posterior-most extent of left posterior-most alveolus</t>
   </si>
   <si>
@@ -991,12 +997,6 @@
     <t>Medial wall of right posterior lacerate foramen</t>
   </si>
   <si>
-    <t>Posteroventral extent of left jugal</t>
-  </si>
-  <si>
-    <t>Posteroventral extent of right jugal</t>
-  </si>
-  <si>
     <t>Midpoint of the width of the alveoli for left P2 and P3</t>
   </si>
   <si>
@@ -1015,12 +1015,6 @@
     <t>Midpoint of the width of the alveoli for right P4 and M1</t>
   </si>
   <si>
-    <t>Lateral extent of right auditory meatus</t>
-  </si>
-  <si>
-    <t>Lateral extent of left auditory meatus</t>
-  </si>
-  <si>
     <t>Midpoint of imaginary line running from between right P3 and P4 and left P3 and P4</t>
   </si>
   <si>
@@ -1099,12 +1093,6 @@
     <t>Antero-lateral most extent of right nasal</t>
   </si>
   <si>
-    <t>Lateral-most extent of left nasal</t>
-  </si>
-  <si>
-    <t>Lateral-most extent of right nasal</t>
-  </si>
-  <si>
     <t>Anterior-most extent of internal nares</t>
   </si>
   <si>
@@ -1187,13 +1175,58 @@
   </si>
   <si>
     <t>anatomical point' and 'left side' and ('posteriormost part of' some 'internal naris')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'ventral side' and 'left side' and ('posteriormost part of' some 'jugal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'ventral side' and 'right side' and ('posteriormost part of' some 'jugal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' ('lateralmost part of' some internal acoustic meatus')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' ('lateralmost part of' some internal acoustic meatus')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and 'dorsal side' and ('lateralmost part of' some 'premaxilla')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and 'dorsal side' and ('lateralmost part of' some 'premaxilla')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('posteriormost part of' some 'tooth socket' and 'upper canine 1')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('lateralmost part of' some 'anterior naris')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('lateralmost part of' some 'anterior naris')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('lateralmost part of' some 'coronal suture')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('lateralmost part of' some 'coronal suture')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('lateralmost part of' some 'mastoid process of temporal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('lateralmost part of' some 'mastoid process of temporal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('lateralmost part of' some 'nasal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('lateralmost part of' some 'nasal bone')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1265,6 +1298,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1293,13 +1332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,14 +1369,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1354,6 +1393,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Amanda Peng" id="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" userId="Amanda Peng" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1651,13 +1696,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C18" dT="2021-05-21T20:06:58.81" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{1E6A4276-088D-4855-B32A-DC10C0B66366}">
+    <text>'anatomical point' and 'left side' and ('posteriormost part of' some 'alveolar ridge')</text>
+  </threadedComment>
+  <threadedComment ref="B43" dT="2021-05-21T20:53:29.44" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
+    <text>'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</text>
+  </threadedComment>
+  <threadedComment ref="C43" dT="2021-05-21T20:53:41.61" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{A8EE68F2-714F-4653-9C5C-C7347112CF21}">
+    <text>'anatomical point' and 'left side' and ('anteriormost part of' and 'lateralmost part of' some 'nasal bone')</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3837,10 +3896,10 @@
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="I133" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3866,10 +3925,10 @@
         <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D1" t="s">
         <v>101</v>
@@ -3879,91 +3938,91 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>359</v>
+        <v>351</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>360</v>
+        <v>351</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>361</v>
+        <v>345</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>360</v>
+        <v>345</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>359</v>
+        <v>344</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>360</v>
+        <v>344</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>362</v>
+        <v>345</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>363</v>
+        <v>345</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3973,15 +4032,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>267</v>
       </c>
@@ -3998,41 +4057,41 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" ht="17" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="11" t="s">
         <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11" t="s">
         <v>208</v>
       </c>
       <c r="B5" t="s">
@@ -4042,8 +4101,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
         <v>209</v>
       </c>
       <c r="B6" t="s">
@@ -4053,8 +4112,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="11" t="s">
         <v>210</v>
       </c>
       <c r="B7" t="s">
@@ -4064,13 +4123,19 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="15" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B9" t="s">
@@ -4080,495 +4145,508 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C17" t="s">
         <v>286</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
         <v>288</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
         <v>290</v>
       </c>
-      <c r="C15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C20" t="s">
         <v>291</v>
       </c>
-      <c r="C17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" t="s">
-        <v>297</v>
-      </c>
-      <c r="C20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11" t="s">
         <v>224</v>
       </c>
       <c r="B21" t="s">
         <v>277</v>
       </c>
       <c r="C21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C26" t="s">
         <v>300</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C27" t="s">
         <v>302</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C28" t="s">
         <v>304</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C30" t="s">
         <v>306</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C31" t="s">
         <v>308</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C32" t="s">
         <v>310</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C33" t="s">
         <v>312</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C34" t="s">
         <v>314</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" t="s">
-        <v>316</v>
-      </c>
-      <c r="C30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C32" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B33" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B35" t="s">
-        <v>326</v>
       </c>
       <c r="C35" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="12" t="s">
         <v>238</v>
       </c>
       <c r="B36" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>319</v>
+      </c>
+      <c r="C38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C36" s="14" t="s">
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C43" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C44" t="s">
         <v>330</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C46" t="s">
         <v>332</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="14" t="s">
+      <c r="C47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C48" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C49" t="s">
         <v>336</v>
       </c>
-      <c r="C41" s="14" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C51" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C43" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B44" t="s">
-        <v>340</v>
-      </c>
-      <c r="C44" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C45" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" t="s">
-        <v>344</v>
-      </c>
-      <c r="C46" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" t="s">
-        <v>346</v>
-      </c>
-      <c r="C47" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C48" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C49" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C50" s="11" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>370</v>
+      <c r="C54" s="10" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84915BB0-B610-4E60-9CE3-EEEE8BD63D78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D8645-05AD-42D8-B3C1-2F9971D9BF21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -30,21 +30,32 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1E6A4276-088D-4855-B32A-DC10C0B66366}</author>
+    <author>tc={C6D674AA-10AC-4CF3-8DEC-641DB61E7179}</author>
+    <author>tc={F1BD5B78-17AC-4443-B2FA-D08EDB39FDF9}</author>
     <author>tc={347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}</author>
     <author>tc={A8EE68F2-714F-4653-9C5C-C7347112CF21}</author>
     <author>FuTRES</author>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{1E6A4276-088D-4855-B32A-DC10C0B66366}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{C6D674AA-10AC-4CF3-8DEC-641DB61E7179}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    'anatomical point' and 'left side' and ('posteriormost part of' some 'alveolar ridge')</t>
+    'anatomical point' and ('anteriormost part of' some 'premaxilla')
+Reply:
+    use rostrum</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="1" shapeId="0" xr:uid="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
+    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{F1BD5B78-17AC-4443-B2FA-D08EDB39FDF9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    'anatomical point' and 'left side' and ('antero-ventral margin' some 'infra-orbital foramen of maxilla')</t>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="2" shapeId="0" xr:uid="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +63,7 @@
     'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
       </text>
     </comment>
-    <comment ref="C43" authorId="2" shapeId="0" xr:uid="{A8EE68F2-714F-4653-9C5C-C7347112CF21}">
+    <comment ref="C43" authorId="3" shapeId="0" xr:uid="{A8EE68F2-714F-4653-9C5C-C7347112CF21}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +71,7 @@
     'anatomical point' and 'left side' and ('anteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
       </text>
     </comment>
-    <comment ref="A55" authorId="3" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
+    <comment ref="A55" authorId="4" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
       <text>
         <r>
           <rPr>
@@ -98,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="380">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -961,15 +972,6 @@
     <t>Palatal notch</t>
   </si>
   <si>
-    <t>Posterior-most extent of left posterior-most alveolus</t>
-  </si>
-  <si>
-    <t>Posteriormost extent of right canine alveolus</t>
-  </si>
-  <si>
-    <t>Posterior-most extent of right posterior-most alveolus</t>
-  </si>
-  <si>
     <t>Left lateral-most extent of rostrum at level of posteriormost extent of left canine alveolus</t>
   </si>
   <si>
@@ -991,12 +993,6 @@
     <t>Anteroventral extent of right orbit</t>
   </si>
   <si>
-    <t>Medial wall of left posterior lacerate foramen</t>
-  </si>
-  <si>
-    <t>Medial wall of right posterior lacerate foramen</t>
-  </si>
-  <si>
     <t>Midpoint of the width of the alveoli for left P2 and P3</t>
   </si>
   <si>
@@ -1195,9 +1191,6 @@
     <t>anatomical point' and 'right side' and 'dorsal side' and ('lateralmost part of' some 'premaxilla')</t>
   </si>
   <si>
-    <t>anatomical point' and 'left side' and ('posteriormost part of' some 'tooth socket' and 'upper canine 1')</t>
-  </si>
-  <si>
     <t>anatomical point' and 'left side' and ('lateralmost part of' some 'anterior naris')</t>
   </si>
   <si>
@@ -1220,13 +1213,49 @@
   </si>
   <si>
     <t>anatomical point' and 'right side' and ('lateralmost part of' some 'nasal bone')</t>
+  </si>
+  <si>
+    <t>Upper left canine to posterior-most alveolus</t>
+  </si>
+  <si>
+    <t>Upper right canine to posterior-most alveolus</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('medialmost part of' some 'jugular foramen')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('medialmost part of' some 'jugular foramen')</t>
+  </si>
+  <si>
+    <t>preorbital process</t>
+  </si>
+  <si>
+    <t>Can this be defined using logic?</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('posteriormost part of' some 'tooth socket' ('part of' some 'upper canine 1')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('posteriormost part of' some 'tooth socket' ('part of' some 'upper tooth row')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('posteriormost part of' some 'tooth socket' ('part of' some 'upper canine 1')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('posteriormost part of' some 'tooth socket' ('part of' some 'upper tooth row')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('anteriormost part of' some 'tooth socket' ('part of' some 'upper tooth row')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('anteriormost part of' some 'tooth socket' ('part of' some 'upper tooth row')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1303,6 +1332,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1698,8 +1733,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C18" dT="2021-05-21T20:06:58.81" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{1E6A4276-088D-4855-B32A-DC10C0B66366}">
-    <text>'anatomical point' and 'left side' and ('posteriormost part of' some 'alveolar ridge')</text>
+  <threadedComment ref="B4" dT="2021-05-24T16:49:34.22" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{C6D674AA-10AC-4CF3-8DEC-641DB61E7179}">
+    <text>'anatomical point' and ('anteriormost part of' some 'premaxilla')</text>
+  </threadedComment>
+  <threadedComment ref="B4" dT="2021-05-24T18:12:27.60" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{9F3B3E3D-13B8-4379-8281-5AF4D863E9E6}" parentId="{C6D674AA-10AC-4CF3-8DEC-641DB61E7179}">
+    <text>use rostrum</text>
+  </threadedComment>
+  <threadedComment ref="B22" dT="2021-05-24T17:18:28.37" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{F1BD5B78-17AC-4443-B2FA-D08EDB39FDF9}">
+    <text>'anatomical point' and 'left side' and ('antero-ventral margin' some 'infra-orbital foramen of maxilla')</text>
   </threadedComment>
   <threadedComment ref="B43" dT="2021-05-21T20:53:29.44" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
     <text>'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</text>
@@ -1715,7 +1756,7 @@
   <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -3896,10 +3937,10 @@
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I133" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3909,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DECECE6-49BF-9F4F-B264-E8F452349B07}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3920,15 +3961,15 @@
     <col min="1" max="1" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D1" t="s">
         <v>101</v>
@@ -3937,93 +3978,100 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
         <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
         <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
         <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
         <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
         <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
         <v>264</v>
       </c>
       <c r="B9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>350</v>
-      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4034,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4080,14 +4128,14 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>277</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4128,10 +4176,10 @@
         <v>211</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4155,10 +4203,10 @@
         <v>214</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G11" s="10"/>
     </row>
@@ -4172,10 +4220,10 @@
         <v>216</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4183,10 +4231,10 @@
         <v>217</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4197,7 +4245,7 @@
         <v>284</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4208,7 +4256,7 @@
         <v>284</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4223,37 +4271,36 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="17" t="s">
-        <v>221</v>
+      <c r="A18" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G18" s="10"/>
+        <v>374</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" t="s">
-        <v>289</v>
+      <c r="A19" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C20" t="s">
-        <v>291</v>
+      <c r="B20" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4264,40 +4311,41 @@
         <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B22" t="s">
-        <v>293</v>
+      <c r="B22" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="C22" t="s">
-        <v>294</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
         <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24" t="s">
-        <v>298</v>
+      <c r="B24" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4305,10 +4353,10 @@
         <v>228</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -4318,10 +4366,10 @@
         <v>229</v>
       </c>
       <c r="B26" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4329,10 +4377,10 @@
         <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4340,10 +4388,10 @@
         <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4351,10 +4399,10 @@
         <v>232</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4362,10 +4410,10 @@
         <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4373,10 +4421,10 @@
         <v>234</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C31" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4384,10 +4432,10 @@
         <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4395,10 +4443,10 @@
         <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C33" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4406,10 +4454,10 @@
         <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C34" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4417,7 +4465,7 @@
         <v>207</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C35" t="s">
         <v>278</v>
@@ -4428,10 +4476,10 @@
         <v>238</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4439,10 +4487,10 @@
         <v>239</v>
       </c>
       <c r="B37" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C37" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4450,10 +4498,10 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C38" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4461,10 +4509,10 @@
         <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C39" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4472,10 +4520,10 @@
         <v>242</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4483,10 +4531,10 @@
         <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4494,10 +4542,10 @@
         <v>244</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F42" s="10"/>
     </row>
@@ -4506,10 +4554,10 @@
         <v>245</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -4519,10 +4567,10 @@
         <v>246</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C44" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4530,10 +4578,10 @@
         <v>247</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4541,10 +4589,10 @@
         <v>248</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4552,10 +4600,10 @@
         <v>249</v>
       </c>
       <c r="B47" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C47" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4563,10 +4611,10 @@
         <v>250</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C48" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4574,10 +4622,10 @@
         <v>251</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C49" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4585,10 +4633,10 @@
         <v>252</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4596,10 +4644,10 @@
         <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4607,10 +4655,10 @@
         <v>254</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4618,10 +4666,10 @@
         <v>261</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4629,10 +4677,10 @@
         <v>262</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4640,9 +4688,27 @@
         <v>265</v>
       </c>
     </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
     <row r="57" spans="1:3">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+      <c r="A57" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" s="10"/>
@@ -4650,16 +4716,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4824,24 +4891,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:12">
       <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:12">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:12">
       <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:12">
       <c r="C20" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L21" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D8645-05AD-42D8-B3C1-2F9971D9BF21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97440D1E-5107-48D8-BCB6-A7A836887D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -30,32 +30,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C6D674AA-10AC-4CF3-8DEC-641DB61E7179}</author>
-    <author>tc={F1BD5B78-17AC-4443-B2FA-D08EDB39FDF9}</author>
     <author>tc={347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}</author>
     <author>tc={A8EE68F2-714F-4653-9C5C-C7347112CF21}</author>
     <author>FuTRES</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{C6D674AA-10AC-4CF3-8DEC-641DB61E7179}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    'anatomical point' and ('anteriormost part of' some 'premaxilla')
-Reply:
-    use rostrum</t>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{F1BD5B78-17AC-4443-B2FA-D08EDB39FDF9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    'anatomical point' and 'left side' and ('antero-ventral margin' some 'infra-orbital foramen of maxilla')</t>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="2" shapeId="0" xr:uid="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +43,7 @@
     'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
       </text>
     </comment>
-    <comment ref="C43" authorId="3" shapeId="0" xr:uid="{A8EE68F2-714F-4653-9C5C-C7347112CF21}">
+    <comment ref="C43" authorId="1" shapeId="0" xr:uid="{A8EE68F2-714F-4653-9C5C-C7347112CF21}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +51,7 @@
     'anatomical point' and 'left side' and ('anteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
       </text>
     </comment>
-    <comment ref="A55" authorId="4" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
+    <comment ref="A55" authorId="2" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
       <text>
         <r>
           <rPr>
@@ -109,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="379">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -942,9 +922,6 @@
     <t>anatomical point' and ('anteriormost part of' some 'foramen magnum')</t>
   </si>
   <si>
-    <t>Anteriormost extent of rostrum</t>
-  </si>
-  <si>
     <t>Posterior margin of left occipital condyle</t>
   </si>
   <si>
@@ -981,18 +958,6 @@
     <t>Midline of level of posterior extent of maxillae</t>
   </si>
   <si>
-    <t>Anteroventral extent of left infraorbital foramen</t>
-  </si>
-  <si>
-    <t>Anteroventral extent of left orbit</t>
-  </si>
-  <si>
-    <t>Anteroventral extent of right infraorbital foramen</t>
-  </si>
-  <si>
-    <t>Anteroventral extent of right orbit</t>
-  </si>
-  <si>
     <t>Midpoint of the width of the alveoli for left P2 and P3</t>
   </si>
   <si>
@@ -1017,12 +982,6 @@
     <t>Midpoint of the width of the palate directly dorsal to midpoint of imaginary line</t>
   </si>
   <si>
-    <t>Left eustachian/auditory tube</t>
-  </si>
-  <si>
-    <t>Right eustachian/auditory tube</t>
-  </si>
-  <si>
     <t>Dorsal intercondylar notch</t>
   </si>
   <si>
@@ -1041,9 +1000,6 @@
     <t>Posterior surface of the right paraoccipital</t>
   </si>
   <si>
-    <t>Anterior-most extent of rostrum</t>
-  </si>
-  <si>
     <t>antorbital notches</t>
   </si>
   <si>
@@ -1249,13 +1205,34 @@
   </si>
   <si>
     <t>anatomical point' and 'right side' and ('anteriormost part of' some 'tooth socket' ('part of' some 'upper tooth row')</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('anteriormost part of' some 'rostrum')</t>
+  </si>
+  <si>
+    <t>'anatomical point' and 'left side' and ('antero-ventral margin' some 'infra-orbital foramen of maxilla')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('antero-ventral margin' some 'orbit of skull')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('antero-ventral margin' some 'infra-orbital foramen of maxilla')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('antero-ventral margin' some 'orbit of skull')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('lateralmost part of' some 'bony part of pharyngotympanic tube')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('lateralmost part of' some 'bony part of pharyngotympanic tube')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1327,18 +1304,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1391,7 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1412,6 +1377,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1733,15 +1705,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B4" dT="2021-05-24T16:49:34.22" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{C6D674AA-10AC-4CF3-8DEC-641DB61E7179}">
-    <text>'anatomical point' and ('anteriormost part of' some 'premaxilla')</text>
-  </threadedComment>
-  <threadedComment ref="B4" dT="2021-05-24T18:12:27.60" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{9F3B3E3D-13B8-4379-8281-5AF4D863E9E6}" parentId="{C6D674AA-10AC-4CF3-8DEC-641DB61E7179}">
-    <text>use rostrum</text>
-  </threadedComment>
-  <threadedComment ref="B22" dT="2021-05-24T17:18:28.37" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{F1BD5B78-17AC-4443-B2FA-D08EDB39FDF9}">
-    <text>'anatomical point' and 'left side' and ('antero-ventral margin' some 'infra-orbital foramen of maxilla')</text>
-  </threadedComment>
   <threadedComment ref="B43" dT="2021-05-21T20:53:29.44" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
     <text>'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</text>
   </threadedComment>
@@ -3937,10 +3900,10 @@
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I133" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3966,10 +3929,10 @@
         <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D1" t="s">
         <v>101</v>
@@ -3983,10 +3946,10 @@
         <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3994,10 +3957,10 @@
         <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4005,10 +3968,10 @@
         <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4016,10 +3979,10 @@
         <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4027,10 +3990,10 @@
         <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4038,10 +4001,10 @@
         <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4049,10 +4012,10 @@
         <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4060,10 +4023,10 @@
         <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4082,8 +4045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4128,36 +4091,36 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B4" t="s">
-        <v>277</v>
+      <c r="B4" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B5" t="s">
-        <v>277</v>
+      <c r="B5" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B6" t="s">
-        <v>277</v>
+      <c r="B6" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4165,10 +4128,10 @@
         <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4176,10 +4139,10 @@
         <v>211</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4187,10 +4150,10 @@
         <v>212</v>
       </c>
       <c r="B9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" t="s">
         <v>282</v>
-      </c>
-      <c r="C9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4203,10 +4166,10 @@
         <v>214</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G11" s="10"/>
     </row>
@@ -4220,10 +4183,10 @@
         <v>216</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4231,10 +4194,10 @@
         <v>217</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4242,10 +4205,10 @@
         <v>218</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4253,10 +4216,10 @@
         <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4264,32 +4227,32 @@
         <v>220</v>
       </c>
       <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
         <v>285</v>
-      </c>
-      <c r="C17" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="15" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4297,44 +4260,44 @@
         <v>223</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B21" t="s">
-        <v>277</v>
+      <c r="B21" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="C21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" t="s">
-        <v>291</v>
+      <c r="B22" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B23" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" t="s">
-        <v>293</v>
+      <c r="B23" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4342,10 +4305,10 @@
         <v>227</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4353,10 +4316,10 @@
         <v>228</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -4366,10 +4329,10 @@
         <v>229</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C26" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4377,10 +4340,10 @@
         <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C27" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4388,10 +4351,10 @@
         <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4399,10 +4362,10 @@
         <v>232</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4410,21 +4373,21 @@
         <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B31" t="s">
-        <v>302</v>
-      </c>
-      <c r="C31" t="s">
-        <v>303</v>
+      <c r="B31" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4432,10 +4395,10 @@
         <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4443,10 +4406,10 @@
         <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4454,32 +4417,32 @@
         <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B35" t="s">
-        <v>310</v>
+      <c r="B35" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="C35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B36" t="s">
-        <v>310</v>
+      <c r="B36" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4487,10 +4450,10 @@
         <v>239</v>
       </c>
       <c r="B37" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4498,10 +4461,10 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C38" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4509,10 +4472,10 @@
         <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4520,10 +4483,10 @@
         <v>242</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4531,10 +4494,10 @@
         <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4542,10 +4505,10 @@
         <v>244</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F42" s="10"/>
     </row>
@@ -4554,10 +4517,10 @@
         <v>245</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -4567,10 +4530,10 @@
         <v>246</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4578,10 +4541,10 @@
         <v>247</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4589,10 +4552,10 @@
         <v>248</v>
       </c>
       <c r="B46" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C46" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4600,10 +4563,10 @@
         <v>249</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C47" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4611,10 +4574,10 @@
         <v>250</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C48" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4622,10 +4585,10 @@
         <v>251</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C49" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4633,10 +4596,10 @@
         <v>252</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4644,10 +4607,10 @@
         <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4655,10 +4618,10 @@
         <v>254</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4666,10 +4629,10 @@
         <v>261</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4677,10 +4640,10 @@
         <v>262</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4693,10 +4656,10 @@
         <v>221</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4704,10 +4667,10 @@
         <v>222</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4913,10 +4876,10 @@
     </row>
     <row r="21" spans="3:12">
       <c r="C21" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L21" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97440D1E-5107-48D8-BCB6-A7A836887D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDEAAA4-8C39-F347-9F2A-1964C31917B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,128 @@
   <commentList>
     <comment ref="B43" authorId="0" shapeId="0" xr:uid="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
+        </r>
       </text>
     </comment>
     <comment ref="C43" authorId="1" shapeId="0" xr:uid="{A8EE68F2-714F-4653-9C5C-C7347112CF21}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    'anatomical point' and 'left side' and ('anteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    'anatomical point' and 'left side' and ('anteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
+        </r>
       </text>
     </comment>
     <comment ref="A55" authorId="2" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
@@ -89,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="365">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -175,9 +285,6 @@
     <t>Mandibular Width at M2</t>
   </si>
   <si>
-    <t>occipital condyles</t>
-  </si>
-  <si>
     <t>condylobasal skull length</t>
   </si>
   <si>
@@ -193,9 +300,6 @@
     <t>rostrum width at mid-length</t>
   </si>
   <si>
-    <t>premaxilla</t>
-  </si>
-  <si>
     <t>premaxillary width at mid-length</t>
   </si>
   <si>
@@ -253,15 +357,9 @@
     <t>width of the skull at the center of the orbits</t>
   </si>
   <si>
-    <t>palatine bone</t>
-  </si>
-  <si>
     <t>palatine length</t>
   </si>
   <si>
-    <t>pair of nares</t>
-  </si>
-  <si>
     <t>pair of nares width</t>
   </si>
   <si>
@@ -271,9 +369,6 @@
     <t>right frontal width</t>
   </si>
   <si>
-    <t>intertemporal constriction</t>
-  </si>
-  <si>
     <t>breadth of the intertemporal constriction</t>
   </si>
   <si>
@@ -283,21 +378,9 @@
     <t>skull width at parietal</t>
   </si>
   <si>
-    <t>skull</t>
-  </si>
-  <si>
-    <t>supraoccipital bone</t>
-  </si>
-  <si>
-    <t>apex of supraoccipital bone</t>
-  </si>
-  <si>
     <t>inter-nasal suture to apex of supraoccipital</t>
   </si>
   <si>
-    <t>zygomatic arch</t>
-  </si>
-  <si>
     <t>left zygomatic arch</t>
   </si>
   <si>
@@ -307,15 +390,9 @@
     <t>skull width at zygomatic arches</t>
   </si>
   <si>
-    <t>intercondylar notch</t>
-  </si>
-  <si>
     <t>length from the apex of the supraoccipital bone to the dorsal intercondylar notch</t>
   </si>
   <si>
-    <t>vomer</t>
-  </si>
-  <si>
     <t>basioccipital length</t>
   </si>
   <si>
@@ -457,9 +534,6 @@
     <t>width of the rostrum halfway between the antorbital notches and the anteriormost tip of the premaxillae</t>
   </si>
   <si>
-    <t>One of the bones of the upper jaw situated between and in front of the maxillae[VHOG].</t>
-  </si>
-  <si>
     <t>premaxillary width dorsally at mid-length</t>
   </si>
   <si>
@@ -472,9 +546,6 @@
     <t>maximum premaxillary width dorsally</t>
   </si>
   <si>
-    <t>One of two small oblong bones, varying in size and form in different individuals; they are placed side by side at the middle and upper part of the face, and form, by their junction, 'the bridge' of the nose[WP]. Paired dermal bones, likened to a bone tube, positioned lateral to the supraethmoid. Nasal bones are transversed by the anterior most part of the supraorbital canals and bear one neuromast foramen in zebrafish[ZFA].</t>
-  </si>
-  <si>
     <t>nasal bone and (in_left_side_of some nose)</t>
   </si>
   <si>
@@ -532,18 +603,12 @@
     <t>width of right frontal at apex of the premaxilla</t>
   </si>
   <si>
-    <t>interorbital bone</t>
-  </si>
-  <si>
     <t>maximum breadth of the intertemporal region</t>
   </si>
   <si>
     <t>maximum width of the skull at the parietals</t>
   </si>
   <si>
-    <t>NOTE: Uberon skull includes mandible. Do they mean cranium height?</t>
-  </si>
-  <si>
     <t>maximum height of the skull</t>
   </si>
   <si>
@@ -1226,6 +1291,9 @@
   </si>
   <si>
     <t>anatomical point' and 'right side' and ('lateralmost part of' some 'bony part of pharyngotympanic tube')</t>
+  </si>
+  <si>
+    <t>related syn. beak</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1791,7 @@
       <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -1742,10 +1810,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1757,13 +1825,13 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2190,25 +2258,25 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2219,7 +2287,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2228,7 +2296,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L23" s="3">
         <v>2</v>
@@ -2242,57 +2310,57 @@
     <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L24" s="3">
         <v>9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1"/>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L25" s="3">
         <v>10</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2301,7 +2369,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
@@ -2311,11 +2379,11 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N27" s="3"/>
       <c r="P27" s="1"/>
@@ -2323,11 +2391,11 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1"/>
       <c r="I28" s="1"/>
@@ -2335,7 +2403,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2346,22 +2414,22 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L29" s="3">
         <v>35</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="N29" s="3"/>
       <c r="Q29" s="1"/>
@@ -2370,20 +2438,20 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L30" s="3">
         <v>36</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="N30" s="3"/>
       <c r="Q30" s="1"/>
@@ -2392,18 +2460,18 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="N31" s="3"/>
       <c r="Q31" s="1"/>
@@ -2412,40 +2480,40 @@
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L32" s="3">
         <v>12</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L33" s="3">
         <v>17</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2456,17 +2524,17 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2477,18 +2545,18 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2499,40 +2567,40 @@
       <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L36" s="3">
         <v>13</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L37" s="3">
         <v>18</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2541,18 +2609,18 @@
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2561,18 +2629,18 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -2582,18 +2650,18 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -2610,13 +2678,13 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L41" s="3">
         <v>6</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2626,18 +2694,18 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="N42" s="3"/>
       <c r="P42" s="1"/>
@@ -2647,18 +2715,18 @@
       <c r="A43" s="3"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="N43" s="3"/>
     </row>
@@ -2666,18 +2734,18 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -2686,35 +2754,35 @@
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -2723,20 +2791,20 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L47" s="1">
         <v>7</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -2745,14 +2813,14 @@
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M48" s="1"/>
     </row>
@@ -2760,20 +2828,20 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L49" s="3">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2783,17 +2851,17 @@
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
@@ -2801,14 +2869,14 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="1"/>
@@ -2820,20 +2888,20 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L52" s="3">
         <v>11</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -2843,40 +2911,40 @@
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L53" s="1">
         <v>27</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L54" s="1">
         <v>28</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="N54" s="3"/>
       <c r="Q54" s="3"/>
@@ -2885,20 +2953,20 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L55" s="1">
         <v>29</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N55" s="3"/>
       <c r="Q55" s="3"/>
@@ -2907,20 +2975,20 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L56" s="1">
         <v>14</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="N56" s="3"/>
       <c r="Q56" s="3"/>
@@ -2929,20 +2997,20 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L57" s="1">
         <v>15</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="N57" s="3"/>
       <c r="Q57" s="3"/>
@@ -2951,20 +3019,20 @@
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L58" s="1">
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="N58" s="3"/>
     </row>
@@ -2972,7 +3040,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1"/>
       <c r="H59" s="1"/>
@@ -2990,18 +3058,18 @@
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O60" s="1"/>
       <c r="Q60" s="3"/>
@@ -3010,16 +3078,16 @@
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="K61" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -3028,18 +3096,18 @@
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N62" s="1"/>
       <c r="P62" s="3"/>
@@ -3049,16 +3117,16 @@
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3067,16 +3135,16 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L64" s="1">
         <v>37</v>
@@ -3089,7 +3157,7 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
@@ -3099,11 +3167,11 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="N65" s="3"/>
       <c r="P65" s="1"/>
@@ -3113,17 +3181,17 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -3134,13 +3202,13 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3155,13 +3223,13 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3176,13 +3244,13 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3196,13 +3264,13 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -3216,13 +3284,13 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3235,16 +3303,16 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3261,16 +3329,16 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3287,16 +3355,16 @@
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3313,16 +3381,16 @@
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3339,104 +3407,104 @@
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F76" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G76" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F77" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G77" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F78" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G78" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F79" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G79" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F80" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G80" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F81" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G81" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F82" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G82" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F83" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G83" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="Q83" s="1"/>
     </row>
@@ -3444,39 +3512,39 @@
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F84" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G84" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F85" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G85" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F86" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G86" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="Q86" s="1"/>
     </row>
@@ -3484,167 +3552,167 @@
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F87" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G87" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G88" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G89" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F90" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G90" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F91" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G91" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F92" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G92" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F93" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G93" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F94" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G94" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F95" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G95" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F96" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G96" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="C97" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F97" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G97" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="C98" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F98" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G98" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="1"/>
       <c r="F99" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G99" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -3661,15 +3729,15 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="1"/>
       <c r="F100" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G100" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -3686,15 +3754,15 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G101" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -3711,13 +3779,13 @@
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F102" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G102" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="P102" s="1"/>
     </row>
@@ -3725,13 +3793,13 @@
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F103" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G103" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="P103" s="1"/>
     </row>
@@ -3739,13 +3807,13 @@
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F104" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G104" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="P104" s="1"/>
     </row>
@@ -3753,157 +3821,157 @@
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F105" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G105" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:17">
       <c r="C106" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="C107" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="C108" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="C109" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="C110" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="C111" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="C112" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="8" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="3:9">
       <c r="C129" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="3:9">
       <c r="C130" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="3:9">
       <c r="C131" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="3:9">
       <c r="C132" s="9" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="I133" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3916,117 +3984,117 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:C11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="16" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4045,632 +4113,635 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="15" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="11" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="15" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="15" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="11" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="15" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="15" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="15" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="15" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="15" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="15" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C28" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C30" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="15" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="11" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B37" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="16" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="12" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="12" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C44" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="16" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C46" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C47" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C48" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C49" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="16" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="16" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="16" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="16" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="12" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="15" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="15" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4686,200 +4757,148 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>122</v>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:15">
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="C16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="C21" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="L21" t="s">
-        <v>365</v>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDEAAA4-8C39-F347-9F2A-1964C31917B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673F432-23A6-7C48-9132-797067BAA836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="372">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -372,9 +372,6 @@
     <t>breadth of the intertemporal constriction</t>
   </si>
   <si>
-    <t>parietal</t>
-  </si>
-  <si>
     <t>skull width at parietal</t>
   </si>
   <si>
@@ -519,9 +516,6 @@
     <t>Gol'din (2007)</t>
   </si>
   <si>
-    <t>Rostrum is a common term used in almost any vertebrate with a long snout.</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Rostrum_(anatomy)</t>
   </si>
   <si>
@@ -546,9 +540,6 @@
     <t>maximum premaxillary width dorsally</t>
   </si>
   <si>
-    <t>nasal bone and (in_left_side_of some nose)</t>
-  </si>
-  <si>
     <t>length from inferior-most point of nasal bone to superior-most point of nasal bone.</t>
   </si>
   <si>
@@ -558,9 +549,6 @@
     <t>maximum length of nasal bone on left side</t>
   </si>
   <si>
-    <t>nasal bone and (in_right_side_of some nose)</t>
-  </si>
-  <si>
     <t>maximum length of nasal bone on right nasal</t>
   </si>
   <si>
@@ -1294,6 +1282,40 @@
   </si>
   <si>
     <t>related syn. beak</t>
+  </si>
+  <si>
+    <t>Rostrum is a common term used to describe forward protrusions from an animal's face. In vertebrates, this includes the part of the cranium (skull) in front of the zygomatic arches that also holds the teeth, palat, and nasal cavity. In invertebrates it is the forward extension of the carapace and/or the piercing mouthparts.</t>
+  </si>
+  <si>
+    <t>The preorbital process is a projection of bone close to the nasal bones and anterior to the orbital bone.
+The preorbital process is a projection of bone close to the nasal bones and anterior to the orbital bone.</t>
+  </si>
+  <si>
+    <t>The antorbital notch is a prominence of bone located anteriolaterally of the antorbital fenestra.</t>
+  </si>
+  <si>
+    <t>Nasal bone on the left side of an organism when in anatomical position.</t>
+  </si>
+  <si>
+    <t>Nasal bone on the right side of an organism when in anatomical position.</t>
+  </si>
+  <si>
+    <t>nasal bone and (in_left_side_of some 'multicellular organism')</t>
+  </si>
+  <si>
+    <t>nasal bone and (in_right_side_of some 'multicellular organism')</t>
+  </si>
+  <si>
+    <t>Zygomatic arch on the left side of an organism when in anatomical position.</t>
+  </si>
+  <si>
+    <t>Zygomatic arch on the right side of an organism when in anatomical position.</t>
+  </si>
+  <si>
+    <t>zygomatic arch and (in_left_side_of some 'multicellular organism')</t>
+  </si>
+  <si>
+    <t>zygomatic arch and (in_right_side_of some 'multicellular organism')</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1452,6 +1474,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1810,10 +1833,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1825,13 +1848,13 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2262,21 +2285,21 @@
       </c>
       <c r="D22" s="1"/>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2287,7 +2310,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2296,7 +2319,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L23" s="3">
         <v>2</v>
@@ -2317,13 +2340,13 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L24" s="3">
         <v>9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -2336,18 +2359,18 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L25" s="3">
         <v>10</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>33</v>
@@ -2356,11 +2379,11 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2379,11 +2402,11 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N27" s="3"/>
       <c r="P27" s="1"/>
@@ -2391,7 +2414,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
@@ -2403,7 +2426,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2423,13 +2446,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L29" s="3">
         <v>35</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N29" s="3"/>
       <c r="Q29" s="1"/>
@@ -2445,13 +2468,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L30" s="3">
         <v>36</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N30" s="3"/>
       <c r="Q30" s="1"/>
@@ -2467,11 +2490,11 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N31" s="3"/>
       <c r="Q31" s="1"/>
@@ -2487,13 +2510,13 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L32" s="3">
         <v>12</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2507,13 +2530,13 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L33" s="3">
         <v>17</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2531,10 +2554,10 @@
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2552,11 +2575,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2574,13 +2597,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L36" s="3">
         <v>13</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2594,7 +2617,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L37" s="3">
         <v>18</v>
@@ -2616,11 +2639,11 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2636,11 +2659,11 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -2657,11 +2680,11 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -2678,7 +2701,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L41" s="3">
         <v>6</v>
@@ -2701,11 +2724,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N42" s="3"/>
       <c r="P42" s="1"/>
@@ -2722,11 +2745,11 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N43" s="3"/>
     </row>
@@ -2741,11 +2764,11 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -2761,10 +2784,10 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2778,11 +2801,11 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -2791,20 +2814,20 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L47" s="1">
         <v>7</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -2813,14 +2836,14 @@
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M48" s="1"/>
     </row>
@@ -2828,20 +2851,20 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L49" s="3">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2851,17 +2874,17 @@
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
@@ -2869,14 +2892,14 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="3"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="1"/>
@@ -2888,20 +2911,20 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L52" s="3">
         <v>11</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -2911,40 +2934,40 @@
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L53" s="1">
         <v>27</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L54" s="1">
         <v>28</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N54" s="3"/>
       <c r="Q54" s="3"/>
@@ -2953,20 +2976,20 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L55" s="1">
         <v>29</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N55" s="3"/>
       <c r="Q55" s="3"/>
@@ -2975,20 +2998,20 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L56" s="1">
         <v>14</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N56" s="3"/>
       <c r="Q56" s="3"/>
@@ -2997,20 +3020,20 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L57" s="1">
         <v>15</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N57" s="3"/>
       <c r="Q57" s="3"/>
@@ -3019,20 +3042,20 @@
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L58" s="1">
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N58" s="3"/>
     </row>
@@ -3040,7 +3063,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="1"/>
       <c r="H59" s="1"/>
@@ -3058,18 +3081,18 @@
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O60" s="1"/>
       <c r="Q60" s="3"/>
@@ -3078,16 +3101,16 @@
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="K61" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -3096,18 +3119,18 @@
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N62" s="1"/>
       <c r="P62" s="3"/>
@@ -3117,16 +3140,16 @@
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3135,16 +3158,16 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L64" s="1">
         <v>37</v>
@@ -3157,7 +3180,7 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
@@ -3167,11 +3190,11 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N65" s="3"/>
       <c r="P65" s="1"/>
@@ -3181,17 +3204,17 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -3202,13 +3225,13 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3223,13 +3246,13 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3244,13 +3267,13 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3264,13 +3287,13 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -3284,13 +3307,13 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3303,16 +3326,16 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3329,16 +3352,16 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3355,16 +3378,16 @@
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3381,16 +3404,16 @@
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3407,104 +3430,104 @@
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F76" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G76" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F77" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F78" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G78" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F79" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G79" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F80" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F81" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G81" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F82" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G82" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F83" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G83" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q83" s="1"/>
     </row>
@@ -3512,39 +3535,39 @@
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F84" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F85" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F86" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q86" s="1"/>
     </row>
@@ -3552,167 +3575,167 @@
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F87" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F89" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G89" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F90" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G90" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F91" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G91" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F92" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G92" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F93" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G93" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F94" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G94" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G95" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G96" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="C97" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G97" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="C98" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G98" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="1"/>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G99" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -3729,15 +3752,15 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="1"/>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G100" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -3754,15 +3777,15 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G101" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -3779,13 +3802,13 @@
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G102" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P102" s="1"/>
     </row>
@@ -3793,13 +3816,13 @@
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F103" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G103" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P103" s="1"/>
     </row>
@@ -3807,13 +3830,13 @@
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F104" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G104" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P104" s="1"/>
     </row>
@@ -3821,157 +3844,157 @@
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F105" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G105" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:17">
       <c r="C106" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="C107" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="C108" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="C109" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="C110" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="C111" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="C112" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="3:9">
       <c r="C129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="3:9">
       <c r="C130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="3:9">
       <c r="C131" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="3:9">
       <c r="C132" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I133" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3984,7 +4007,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3994,107 +4017,107 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4124,624 +4147,624 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C32" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C34" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C37" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C38" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4757,79 +4780,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="B2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E3" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="C4" s="3" t="s">
@@ -4838,11 +4864,13 @@
       <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>115</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4852,53 +4880,65 @@
       <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>119</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="C8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="C9" s="3" t="s">
-        <v>349</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:15">
       <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="C11" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:15">
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="C16" s="5"/>
-    </row>
-    <row r="18" spans="12:12">
-      <c r="L18" t="s">
-        <v>350</v>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673F432-23A6-7C48-9132-797067BAA836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371C88F-2EDE-BA44-8A5D-B4BB74A9BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="14320" yWindow="660" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="375">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1316,6 +1316,15 @@
   </si>
   <si>
     <t>zygomatic arch and (in_right_side_of some 'multicellular organism')</t>
+  </si>
+  <si>
+    <t>on fovt-skull, have NOT made pull request</t>
+  </si>
+  <si>
+    <t>on fovt-skull; made taxon constraint; have NOT made pull request</t>
+  </si>
+  <si>
+    <t>asked if needs constraint; on fovt-skull, have NOT made pull request</t>
   </si>
 </sst>
 </file>
@@ -4783,7 +4792,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4836,6 +4845,9 @@
       </c>
     </row>
     <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>373</v>
+      </c>
       <c r="B2" t="s">
         <v>360</v>
       </c>
@@ -4850,6 +4862,9 @@
       </c>
     </row>
     <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>374</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -4858,6 +4873,9 @@
       </c>
     </row>
     <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>372</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
@@ -4874,6 +4892,9 @@
       </c>
     </row>
     <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>372</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
@@ -4890,6 +4911,9 @@
       </c>
     </row>
     <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4901,6 +4925,9 @@
       </c>
     </row>
     <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>372</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
@@ -4913,6 +4940,9 @@
       </c>
     </row>
     <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>374</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>345</v>
       </c>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371C88F-2EDE-BA44-8A5D-B4BB74A9BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5096ABF5-A606-3A49-B815-44BEC6D6A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="660" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="-20" yWindow="580" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -30,138 +30,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}</author>
-    <author>tc={A8EE68F2-714F-4653-9C5C-C7347112CF21}</author>
     <author>FuTRES</author>
   </authors>
   <commentList>
-    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C43" authorId="1" shapeId="0" xr:uid="{A8EE68F2-714F-4653-9C5C-C7347112CF21}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    'anatomical point' and 'left side' and ('anteriormost part of' and 'lateralmost part of' some 'nasal bone')</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A55" authorId="2" shapeId="0" xr:uid="{A338449B-C363-824F-8D1C-73EECF37CB5C}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{3194F404-7C5A-AF43-865B-DD853E0AD308}">
       <text>
         <r>
           <rPr>
@@ -198,8 +70,35 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9CD61875-0363-454F-A529-76F93DDD93EB}</author>
+  </authors>
+  <commentList>
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{C8116C2F-8323-0E48-B331-27048A5F3DB4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not sure if this could just be reformatted as an axis patter (anterior-posterior axis, 'part of' some 'rostrum'). "antorbital notch' needs to be added to uberon.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="387">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -861,12 +760,6 @@
     <t>Rostrum length</t>
   </si>
   <si>
-    <t>Left upper tooth row length</t>
-  </si>
-  <si>
-    <t>Right upper tooth row length</t>
-  </si>
-  <si>
     <t>Rostrum width at base</t>
   </si>
   <si>
@@ -975,9 +868,6 @@
     <t>anatomical point' and ('anteriormost part of' some 'foramen magnum')</t>
   </si>
   <si>
-    <t>Posterior margin of left occipital condyle</t>
-  </si>
-  <si>
     <t>Midline extent of nuchal/occipital/lambdoidal crest</t>
   </si>
   <si>
@@ -987,12 +877,6 @@
     <t>Midline of level of anteriormost extent of nasals</t>
   </si>
   <si>
-    <t>Lateral-most extent of left preorbital process</t>
-  </si>
-  <si>
-    <t>Lateral-most extent of right preorbital process</t>
-  </si>
-  <si>
     <t>Midpoint of occipital/nuchal/lambdoidal crest</t>
   </si>
   <si>
@@ -1035,45 +919,9 @@
     <t>Midpoint of the width of the palate directly dorsal to midpoint of imaginary line</t>
   </si>
   <si>
-    <t>Dorsal intercondylar notch</t>
-  </si>
-  <si>
     <t>Junction of the sagittal and lambdoidal/nuchal crests</t>
   </si>
   <si>
-    <t>Anterior surface of the lateral-most portion of the left mastoid process</t>
-  </si>
-  <si>
-    <t>Posterior surface of the left paraoccipital</t>
-  </si>
-  <si>
-    <t>Anterior surface of the lateral-most portion of the right mastoid process</t>
-  </si>
-  <si>
-    <t>Posterior surface of the right paraoccipital</t>
-  </si>
-  <si>
-    <t>antorbital notches</t>
-  </si>
-  <si>
-    <t>Anterior-most extent of left anterior-most tooth alveolus</t>
-  </si>
-  <si>
-    <t>Posterior-most extent of left posterior-most tooth alveolus</t>
-  </si>
-  <si>
-    <t>Anterior-most extent of right anterior-most tooth alveolus</t>
-  </si>
-  <si>
-    <t>Posterior-most extent of right posterior-most tooth alveolus</t>
-  </si>
-  <si>
-    <t>Lateral-most extent of right antorbital notch</t>
-  </si>
-  <si>
-    <t>Lateral-most extent of left antorbital notch</t>
-  </si>
-  <si>
     <t>Midpoint between right antorbital notch and anterior-most extent of rostrum</t>
   </si>
   <si>
@@ -1084,27 +932,6 @@
   </si>
   <si>
     <t>Left lateral-most extent of dorsal premaxilla at mid-length of rostrum</t>
-  </si>
-  <si>
-    <t>Postero-lateral most extent of left nasal</t>
-  </si>
-  <si>
-    <t>Antero-lateral most extent of left nasal</t>
-  </si>
-  <si>
-    <t>Postero-lateral most extent of right nasal</t>
-  </si>
-  <si>
-    <t>Antero-lateral most extent of right nasal</t>
-  </si>
-  <si>
-    <t>Anterior-most extent of internal nares</t>
-  </si>
-  <si>
-    <t>Anterior-most end of the premaxillae</t>
-  </si>
-  <si>
-    <t>Anterior-most extent of external nares</t>
   </si>
   <si>
     <t>Midpoint between antorbital notches</t>
@@ -1325,6 +1152,114 @@
   </si>
   <si>
     <t>asked if needs constraint; on fovt-skull, have NOT made pull request</t>
+  </si>
+  <si>
+    <t>premaxilla</t>
+  </si>
+  <si>
+    <t>in uberon</t>
+  </si>
+  <si>
+    <t>pair of nares</t>
+  </si>
+  <si>
+    <t>palatine bone</t>
+  </si>
+  <si>
+    <t>interorbital bone</t>
+  </si>
+  <si>
+    <t>parietal</t>
+  </si>
+  <si>
+    <t>tetrapod parietal bone</t>
+  </si>
+  <si>
+    <t>zygomatic arch</t>
+  </si>
+  <si>
+    <t>supraoccipital bone</t>
+  </si>
+  <si>
+    <t>apex of supraoccipital bone</t>
+  </si>
+  <si>
+    <t>intercondylar notch</t>
+  </si>
+  <si>
+    <t>vomer</t>
+  </si>
+  <si>
+    <t>paraoccipital process</t>
+  </si>
+  <si>
+    <t>define another way</t>
+  </si>
+  <si>
+    <t>('part of' some 'intertemporal constriction')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('lateralmost part of' some 'preorbital process')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('lateralmost part of' some 'preorbital process')</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('dorsal margin of' some 'intercondylar notch')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and 'anterior side' and ('lateralmost part of' some 'mastoid process of temporal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('posteriormost part of' some 'paraoccipital process')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and 'anterior side' and ('lateralmost part of' some 'mastoid process of temporal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('posteriormost part of' some 'paraoccipital process')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('posterior margin of' some 'occipital condyle')</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('part of' some 'antorbital notch')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('lateralmost part of' some 'antorbital notch')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('lateralmost part of' some 'antorbital notch')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('postero-lateral margin' some 'nasal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'left side' and ('antero-lateral margin' some 'nasal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('postero-lateral margin' some 'nasal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and 'right side' and ('antero-lateral margin' some 'nasal bone')</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('anteriormost part of' some 'internal naris')</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('anteriormost part of' some 'premaxilla')</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('anteriormost part of' some 'external naris')</t>
+  </si>
+  <si>
+    <t>Upper left tooth row length at alveoli</t>
+  </si>
+  <si>
+    <t>Upper right tooth row length at alveoli</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1404,7 +1339,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1429,18 +1364,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1455,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1471,19 +1394,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1818,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -3870,140 +3789,140 @@
     </row>
     <row r="107" spans="1:17">
       <c r="C107" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="C108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="C109" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="C110" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="C111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="C112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="3:9">
       <c r="C129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="3:9">
       <c r="C130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="3:9">
       <c r="C131" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="3:9">
       <c r="C132" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="I133" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4012,11 +3931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DECECE6-49BF-9F4F-B264-E8F452349B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DECECE6-49BF-9F4F-B264-E8F452349B07}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4026,111 +3945,119 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
         <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="16" t="s">
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="16" t="s">
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="16" t="s">
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="16" t="s">
-        <v>241</v>
-      </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="10"/>
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>365</v>
+      </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
@@ -4138,92 +4065,90 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
         <v>248</v>
-      </c>
-      <c r="B1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" t="s">
-        <v>250</v>
       </c>
       <c r="D1" t="s">
         <v>89</v>
       </c>
       <c r="E1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
+      <c r="A4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>353</v>
+      <c r="B4" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>353</v>
+      <c r="B5" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>353</v>
+      <c r="B6" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4231,32 +4156,32 @@
         <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="15" t="s">
+      <c r="A8" t="s">
         <v>192</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>193</v>
       </c>
-      <c r="B9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" t="s">
-        <v>263</v>
+      <c r="B9" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4265,14 +4190,14 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="15" t="s">
+      <c r="A11" t="s">
         <v>195</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="G11" s="10"/>
     </row>
@@ -4282,36 +4207,36 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="A13" t="s">
         <v>197</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="15" t="s">
+      <c r="A14" t="s">
         <v>198</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>264</v>
+      <c r="B15" t="s">
+        <v>259</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4319,10 +4244,10 @@
         <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4330,99 +4255,99 @@
         <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="15" t="s">
-        <v>341</v>
+      <c r="A18" t="s">
+        <v>317</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="15" t="s">
-        <v>342</v>
+      <c r="A19" t="s">
+        <v>318</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>268</v>
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>353</v>
+      <c r="B21" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="C21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="15" t="s">
+      <c r="A22" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>355</v>
+      <c r="B22" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="15" t="s">
+      <c r="A23" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>357</v>
+      <c r="B23" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="15" t="s">
+      <c r="A24" t="s">
         <v>208</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="15" t="s">
+      <c r="A25" t="s">
         <v>209</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -4432,10 +4357,10 @@
         <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4443,10 +4368,10 @@
         <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4454,21 +4379,21 @@
         <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="15" t="s">
+      <c r="A29" t="s">
         <v>213</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4476,87 +4401,89 @@
         <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="15" t="s">
+      <c r="A31" t="s">
         <v>215</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B32" t="s">
-        <v>278</v>
+      <c r="B32" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="C32" t="s">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11" t="s">
+      <c r="A33" t="s">
         <v>217</v>
       </c>
-      <c r="B33" t="s">
-        <v>280</v>
-      </c>
-      <c r="C33" t="s">
-        <v>281</v>
+      <c r="B33" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11" t="s">
+      <c r="A34" t="s">
         <v>218</v>
       </c>
-      <c r="B34" t="s">
-        <v>282</v>
-      </c>
-      <c r="C34" t="s">
-        <v>283</v>
+      <c r="B34" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C35" t="s">
-        <v>258</v>
-      </c>
+      <c r="B35" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>284</v>
+      <c r="B36" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" t="s">
-        <v>286</v>
+      <c r="B37" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4564,10 +4491,10 @@
         <v>221</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4575,79 +4502,79 @@
         <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>292</v>
-      </c>
+      <c r="B40" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B41" t="s">
-        <v>293</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>294</v>
-      </c>
+      <c r="B41" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>225</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F42" s="10"/>
+        <v>380</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B44" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" t="s">
-        <v>298</v>
+      <c r="B44" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>228</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4655,10 +4582,10 @@
         <v>229</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C46" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4666,119 +4593,97 @@
         <v>230</v>
       </c>
       <c r="B47" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C47" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C48" t="s">
-        <v>303</v>
+      <c r="C48" s="10" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>302</v>
+      <c r="B49" t="s">
+        <v>281</v>
       </c>
       <c r="C49" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>233</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>385</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B51" t="s">
-        <v>305</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="12" t="s">
-        <v>246</v>
+      <c r="B55" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4789,10 +4694,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4846,16 +4751,16 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>105</v>
@@ -4863,18 +4768,18 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>36</v>
@@ -4883,17 +4788,17 @@
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
@@ -4902,73 +4807,146 @@
         <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E8" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="C10" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="C15" s="5"/>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" t="s">
-        <v>346</v>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5096ABF5-A606-3A49-B815-44BEC6D6A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3815B-AC2F-45C0-9419-72EBB9962D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="580" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -63,33 +63,6 @@
             <family val="2"/>
           </rPr>
           <t>Check and compare these</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={9CD61875-0363-454F-A529-76F93DDD93EB}</author>
-  </authors>
-  <commentList>
-    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{C8116C2F-8323-0E48-B331-27048A5F3DB4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Not sure if this could just be reformatted as an axis patter (anterior-posterior axis, 'part of' some 'rostrum'). "antorbital notch' needs to be added to uberon.</t>
         </r>
       </text>
     </comment>
@@ -1339,7 +1312,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1364,6 +1337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1378,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1403,6 +1382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1422,9 +1402,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Amanda Peng" id="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" userId="Amanda Peng" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1722,17 +1700,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B43" dT="2021-05-21T20:53:29.44" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{347C81A4-21AC-4EEA-B6E2-B4A8455C8C45}">
-    <text>'anatomical point' and 'left side' and ('posteriormost part of' and 'lateralmost part of' some 'nasal bone')</text>
-  </threadedComment>
-  <threadedComment ref="C43" dT="2021-05-21T20:53:41.61" personId="{51C475B7-EA5B-45B0-A5F6-77D42C7C2A1F}" id="{A8EE68F2-714F-4653-9C5C-C7347112CF21}">
-    <text>'anatomical point' and 'left side' and ('anteriormost part of' and 'lateralmost part of' some 'nasal bone')</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
   <dimension ref="A1:Q133"/>
@@ -1742,7 +1709,7 @@
       <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -3935,12 +3902,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4070,14 +4037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4284,7 +4251,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="18" t="s">
         <v>204</v>
       </c>
       <c r="B20" t="s">
@@ -4688,7 +4655,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4697,10 +4663,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3815B-AC2F-45C0-9419-72EBB9962D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461A40F-C237-F748-A676-D21947AE444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19400" windowHeight="11600" activeTab="3" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="386">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1122,9 +1122,6 @@
   </si>
   <si>
     <t>on fovt-skull; made taxon constraint; have NOT made pull request</t>
-  </si>
-  <si>
-    <t>asked if needs constraint; on fovt-skull, have NOT made pull request</t>
   </si>
   <si>
     <t>premaxilla</t>
@@ -1709,7 +1706,7 @@
       <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -3905,9 +3902,9 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.3125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4023,7 +4020,7 @@
         <v>289</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -4040,11 +4037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4145,10 +4142,10 @@
         <v>193</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>366</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4390,7 +4387,7 @@
         <v>216</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C32" t="s">
         <v>273</v>
@@ -4402,10 +4399,10 @@
         <v>217</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4413,10 +4410,10 @@
         <v>218</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>371</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4427,7 +4424,7 @@
         <v>329</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F35" s="10"/>
     </row>
@@ -4439,7 +4436,7 @@
         <v>329</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4447,10 +4444,10 @@
         <v>220</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4492,10 +4489,10 @@
         <v>224</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>378</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -4505,10 +4502,10 @@
         <v>225</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4527,10 +4524,10 @@
         <v>227</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4538,10 +4535,10 @@
         <v>228</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4623,7 +4620,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>327</v>
@@ -4634,7 +4631,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>328</v>
@@ -4645,7 +4642,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4662,11 +4659,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -4734,7 +4731,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>30</v>
@@ -4812,7 +4809,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>321</v>
@@ -4823,31 +4820,31 @@
     </row>
     <row r="9" spans="1:15">
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:15">
       <c r="C10" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="C11" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>35</v>
@@ -4855,29 +4852,29 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L17" t="s">
         <v>322</v>
@@ -4885,34 +4882,34 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461A40F-C237-F748-A676-D21947AE444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10F1A94-75A9-9F45-9A50-A4D9B6BD2E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19400" windowHeight="11600" activeTab="3" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="388">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1230,6 +1230,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>taxon restrictions</t>
+  </si>
+  <si>
+    <t>Taxon Restrictions</t>
   </si>
 </sst>
 </file>
@@ -1701,9 +1707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1747,6 +1753,9 @@
       </c>
       <c r="M1" t="s">
         <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4657,15 +4666,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -4711,8 +4720,11 @@
       <c r="O1" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>349</v>
       </c>
@@ -4729,7 +4741,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -4740,7 +4752,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>348</v>
       </c>
@@ -4759,7 +4771,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -4778,7 +4790,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>348</v>
       </c>
@@ -4792,7 +4804,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>348</v>
       </c>
@@ -4807,7 +4819,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -4818,23 +4830,23 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="C9" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="C10" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="C11" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>351</v>
       </c>
@@ -4842,7 +4854,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>351</v>
       </c>
@@ -4850,7 +4862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>351</v>
       </c>
@@ -4858,7 +4870,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>351</v>
       </c>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10F1A94-75A9-9F45-9A50-A4D9B6BD2E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA37DC4-1B25-411F-A39D-05D01822C988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -71,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="546">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -148,15 +157,6 @@
     <t>max width of the mandibluar angle</t>
   </si>
   <si>
-    <t>Depth of Mandible between M1 and M2</t>
-  </si>
-  <si>
-    <t>Depth of Mandible between M2 and M3</t>
-  </si>
-  <si>
-    <t>Mandibular Width at M2</t>
-  </si>
-  <si>
     <t>condylobasal skull length</t>
   </si>
   <si>
@@ -926,9 +926,6 @@
   </si>
   <si>
     <t>structure</t>
-  </si>
-  <si>
-    <t>Ray: #39</t>
   </si>
   <si>
     <t>line from infraorbital foramen to first molar mesostyle is a proxy for crown height</t>
@@ -1229,20 +1226,506 @@
     <t>Upper right tooth row length at alveoli</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>taxon restrictions</t>
   </si>
   <si>
     <t>Taxon Restrictions</t>
+  </si>
+  <si>
+    <t>muzzle breadth (15)</t>
+  </si>
+  <si>
+    <t>frontal breadth (18)</t>
+  </si>
+  <si>
+    <t>basioccipital breadth (21)</t>
+  </si>
+  <si>
+    <t>molar length (8)</t>
+  </si>
+  <si>
+    <t>premolar length (7)</t>
+  </si>
+  <si>
+    <t>Depth of Mandible between m1 and m2</t>
+  </si>
+  <si>
+    <t>Depth of Mandible between m2 and m3</t>
+  </si>
+  <si>
+    <t>Mandibular Width at m2</t>
+  </si>
+  <si>
+    <t>antero-posterior orbital diameter (28)</t>
+  </si>
+  <si>
+    <t>orbital diameter perpedincular to antero-posterior orbital diameter (29)</t>
+  </si>
+  <si>
+    <t>bizygomatic breadth (19)</t>
+  </si>
+  <si>
+    <t>upper cheek teeth length (9)</t>
+  </si>
+  <si>
+    <t>palatal length (2)</t>
+  </si>
+  <si>
+    <t>palatal breadth (13)</t>
+  </si>
+  <si>
+    <t>height of the back of the foramen intra-orbitale above the alveolar border (37)</t>
+  </si>
+  <si>
+    <t>lower cheek teeth length (5)</t>
+  </si>
+  <si>
+    <t>occipital height (22) - not from the base, but middle dorsal border of foramen magnum</t>
+  </si>
+  <si>
+    <t>greatest breadth on the curvature of the premaxillae (46 - horse)</t>
+  </si>
+  <si>
+    <t>greatest breadth of skull (41 - horse)</t>
+  </si>
+  <si>
+    <t>greatest inner length of the orbit (31 - horse)</t>
+  </si>
+  <si>
+    <t>greatest inner height of the orbit (32 - horse)</t>
+  </si>
+  <si>
+    <t>orbital diameter perpendicular to antero-posterior orbital diameter (29)</t>
+  </si>
+  <si>
+    <t>palatal length (18 - horse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von den Driesch and Eisenman not the same measurement, just the name </t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>greatest neurocranium breadth (38 - horse)</t>
+  </si>
+  <si>
+    <t>greatest breadth of "snout" (45 - horse)</t>
+  </si>
+  <si>
+    <t>muzzle length</t>
+  </si>
+  <si>
+    <t>vomerine length</t>
+  </si>
+  <si>
+    <t>post vomerine length</t>
+  </si>
+  <si>
+    <t>post palatal length</t>
+  </si>
+  <si>
+    <t>choanal length</t>
+  </si>
+  <si>
+    <t>choanae minimal breadth</t>
+  </si>
+  <si>
+    <t>choanae maximal breadth</t>
+  </si>
+  <si>
+    <t>premaxillary ridges minimal muzzle breadth</t>
+  </si>
+  <si>
+    <t>fossa temporalis maximum length</t>
+  </si>
+  <si>
+    <t>basion and foramen ethmoidalis length</t>
+  </si>
+  <si>
+    <t>occipital breadth at the supra-occipital crest</t>
+  </si>
+  <si>
+    <t>anterior ocular line length</t>
+  </si>
+  <si>
+    <t>posterior ocular line length</t>
+  </si>
+  <si>
+    <t>facial height</t>
+  </si>
+  <si>
+    <t>cranial height</t>
+  </si>
+  <si>
+    <t>meatus auditivus externus exterior height</t>
+  </si>
+  <si>
+    <t>naso-incisival notch length</t>
+  </si>
+  <si>
+    <t>cheek length</t>
+  </si>
+  <si>
+    <t>orbit and preorbital fossa distance</t>
+  </si>
+  <si>
+    <t>preorbital fossa maximum length</t>
+  </si>
+  <si>
+    <t>preorbital fossa and foramen infra-orbitale distance</t>
+  </si>
+  <si>
+    <t>preorbital fossa height</t>
+  </si>
+  <si>
+    <t>preorbital fossa and facial crest distance</t>
+  </si>
+  <si>
+    <t>back of preorbital fossal height</t>
+  </si>
+  <si>
+    <t>muzzle length (1)</t>
+  </si>
+  <si>
+    <t>vomerine length (3)</t>
+  </si>
+  <si>
+    <t>post-vomerine length (4)</t>
+  </si>
+  <si>
+    <t>post-palatal length (5)</t>
+  </si>
+  <si>
+    <t>basilar length (6)</t>
+  </si>
+  <si>
+    <t>choanal length (10)</t>
+  </si>
+  <si>
+    <t>minimal breadth of the choanae (11)</t>
+  </si>
+  <si>
+    <t>maximal breadth of the choanae (12)</t>
+  </si>
+  <si>
+    <t>minimal muzzle breadth (14)</t>
+  </si>
+  <si>
+    <t>length of the fossa temporalis (16)</t>
+  </si>
+  <si>
+    <t>length between Basion and the Foramen ethmoidalis (17)</t>
+  </si>
+  <si>
+    <t>occipital breadth (20)</t>
+  </si>
+  <si>
+    <t>anterior ocular line (23)</t>
+  </si>
+  <si>
+    <t>posterior ocular line (24)</t>
+  </si>
+  <si>
+    <t>facial height (25)</t>
+  </si>
+  <si>
+    <t>cranial height (26)</t>
+  </si>
+  <si>
+    <t>exterior height of the meatus auditivus externus (27)</t>
+  </si>
+  <si>
+    <t>length of the naso-incisival notch (30)</t>
+  </si>
+  <si>
+    <t>cheeck length (31)</t>
+  </si>
+  <si>
+    <t>distance between the orbit and the preorbital fossa (32)</t>
+  </si>
+  <si>
+    <t>length of the preorbital fossa (33)</t>
+  </si>
+  <si>
+    <t>distance between the back of the preorbital fossa and the foramen infra-orbitale (34)</t>
+  </si>
+  <si>
+    <t>distance between the preorbital fossa and the facial crest (36)</t>
+  </si>
+  <si>
+    <t>height of the back of the preorbital fossa above the alveolar border (38)</t>
+  </si>
+  <si>
+    <t>mandible muzzle length</t>
+  </si>
+  <si>
+    <t>mandible lower premolar length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandible lower molar length </t>
+  </si>
+  <si>
+    <t>mandible height at level of the condyle</t>
+  </si>
+  <si>
+    <t>mandible ascending ramus height</t>
+  </si>
+  <si>
+    <t>mandible height at level of lower m3</t>
+  </si>
+  <si>
+    <t>mandible height at level of lower p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandible angle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandible muzzle breadth </t>
+  </si>
+  <si>
+    <t>mandible symphysis length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandible symphysis minimal breadth </t>
+  </si>
+  <si>
+    <t>height of the preorbital fossa (35)</t>
+  </si>
+  <si>
+    <t>length (1)</t>
+  </si>
+  <si>
+    <t>muzzle length (2)</t>
+  </si>
+  <si>
+    <t>premolar length (3)</t>
+  </si>
+  <si>
+    <t>molar length (4)</t>
+  </si>
+  <si>
+    <t>distance between the back of the alveole of m3 and the posterior edge of the ascending ramus (6)</t>
+  </si>
+  <si>
+    <t>height of the mandible at the condyle (8)</t>
+  </si>
+  <si>
+    <t>height of the ascending ramus (9)</t>
+  </si>
+  <si>
+    <t>height of the jaw posterior to m3 (10)</t>
+  </si>
+  <si>
+    <t>height of the jaw between p4 and m1 (11)</t>
+  </si>
+  <si>
+    <t>height of the jaw in front of p2 (12)</t>
+  </si>
+  <si>
+    <t>mandible height at level of the point in between lower p4 and m1</t>
+  </si>
+  <si>
+    <t>mandible m3 and ascending ramus distance</t>
+  </si>
+  <si>
+    <t>muzzle breadth (7)</t>
+  </si>
+  <si>
+    <t>angle between the alveolar line and the line connecting the back of the m3 and the top of the condyle (15)</t>
+  </si>
+  <si>
+    <t>length of the symphysis (13)</t>
+  </si>
+  <si>
+    <t>minimal breadth of the symphysis (14)</t>
+  </si>
+  <si>
+    <t>facial length (10 - horse)</t>
+  </si>
+  <si>
+    <t>prosthion</t>
+  </si>
+  <si>
+    <t>anterior border of P2</t>
+  </si>
+  <si>
+    <t>a point on the alveolar arch midway between the median upper incisor teeth</t>
+  </si>
+  <si>
+    <t>https://www.merriam-webster.com/medical/prosthion#:~:text=%3A%20a%20point%20on%20the%20alveolar,%E2%80%94%20called%20also%20alveolar%20point</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> point situated between the bases of the I1 (Eisenmann)</t>
+  </si>
+  <si>
+    <t>length of the braincase (14 - horse)</t>
+  </si>
+  <si>
+    <t>basicranial axis (5 - horse)</t>
+  </si>
+  <si>
+    <t>basion - staphylion (17 - horse)</t>
+  </si>
+  <si>
+    <t>basilar length (3a - horse)</t>
+  </si>
+  <si>
+    <t>profile length</t>
+  </si>
+  <si>
+    <t>basal length</t>
+  </si>
+  <si>
+    <t>skull short length</t>
+  </si>
+  <si>
+    <t>total length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basicranial length </t>
+  </si>
+  <si>
+    <t>basifacial length</t>
+  </si>
+  <si>
+    <t>basifacial axis (6 - horse)</t>
+  </si>
+  <si>
+    <t>neurocranium length</t>
+  </si>
+  <si>
+    <t>neurocranium upper length</t>
+  </si>
+  <si>
+    <t>upper neurocranium length (9 - horses)</t>
+  </si>
+  <si>
+    <t>basion (11 - horse)</t>
+  </si>
+  <si>
+    <t>facial short lateral length</t>
+  </si>
+  <si>
+    <t>facial lateral length</t>
+  </si>
+  <si>
+    <t>short lateral facial length (13 - horse)</t>
+  </si>
+  <si>
+    <t>most oral point of the facial crest on one side - prosthion (12 - horse)</t>
+  </si>
+  <si>
+    <t>dental length</t>
+  </si>
+  <si>
+    <t>premaxilla lateral length</t>
+  </si>
+  <si>
+    <t>diastema length</t>
+  </si>
+  <si>
+    <t>length of the diastema (21 - horse)</t>
+  </si>
+  <si>
+    <t>cheektooth row length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length of the cheektooth row </t>
+  </si>
+  <si>
+    <t>frontal minimal breadth</t>
+  </si>
+  <si>
+    <t>supraorbital foramina minimal breadth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orbit minimal breadth </t>
+  </si>
+  <si>
+    <t>facial breadth</t>
+  </si>
+  <si>
+    <t>length of the cheektooth row measured by biting usrface (22a - horse)</t>
+  </si>
+  <si>
+    <t>least breadth between the supraorbital foramina (40 - horse)</t>
+  </si>
+  <si>
+    <t>lest breadth between the orbits (42 - horse)</t>
+  </si>
+  <si>
+    <t>facial minimal breadth</t>
+  </si>
+  <si>
+    <t>facial breadth between the infraorbital foramina (44 - horse)</t>
+  </si>
+  <si>
+    <t>diastema minimal breadth</t>
+  </si>
+  <si>
+    <t>least breadth in the region of the diastema (47 - horse)</t>
+  </si>
+  <si>
+    <t>palatal maximal breadth</t>
+  </si>
+  <si>
+    <t>basion height</t>
+  </si>
+  <si>
+    <t>basion height (50 - horse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greatest mastoid breadth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">greatest breadth of the occipital condyles </t>
+  </si>
+  <si>
+    <t>greatest breadth of foramen magnum</t>
+  </si>
+  <si>
+    <t>greatest breadth at the bases of the paraoccipital processes</t>
+  </si>
+  <si>
+    <t>length of the molar row</t>
+  </si>
+  <si>
+    <t>length of the premolar row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condylobasal length </t>
+  </si>
+  <si>
+    <t>greatest length of the nasals</t>
+  </si>
+  <si>
+    <t>greatest mastoid breadth</t>
+  </si>
+  <si>
+    <t>viscerocranium length</t>
+  </si>
+  <si>
+    <t>lateral facial length</t>
+  </si>
+  <si>
+    <t>short skull length</t>
+  </si>
+  <si>
+    <t>lateral length of the premaxilla</t>
+  </si>
+  <si>
+    <t>least frontal breadth</t>
+  </si>
+  <si>
+    <t>greatest palatal breadth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1314,6 +1797,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1360,7 +1852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1386,6 +1878,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1402,10 +1896,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1705,14 +2195,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -1731,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1746,16 +2236,19 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s">
-        <v>387</v>
+        <v>382</v>
+      </c>
+      <c r="P1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1768,8 +2261,12 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1789,8 +2286,12 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1811,7 +2312,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1831,7 +2334,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1873,7 +2378,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1894,7 +2401,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1915,7 +2424,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1957,8 +2468,12 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2020,8 +2535,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2041,8 +2560,12 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2120,7 +2643,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>388</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2141,7 +2664,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>389</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2162,7 +2685,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>390</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2182,25 +2705,27 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2211,7 +2736,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2220,7 +2745,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L23" s="3">
         <v>2</v>
@@ -2234,57 +2759,57 @@
     <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L24" s="3">
         <v>9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1"/>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L25" s="3">
         <v>10</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2293,21 +2818,23 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N27" s="3"/>
       <c r="P27" s="1"/>
@@ -2315,19 +2842,22 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1"/>
+      <c r="H28" t="s">
+        <v>538</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2338,22 +2868,22 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L29" s="3">
         <v>35</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N29" s="3"/>
       <c r="Q29" s="1"/>
@@ -2362,20 +2892,20 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L30" s="3">
         <v>36</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N30" s="3"/>
       <c r="Q30" s="1"/>
@@ -2384,18 +2914,18 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N31" s="3"/>
       <c r="Q31" s="1"/>
@@ -2404,40 +2934,42 @@
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L32" s="3">
         <v>12</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L33" s="3">
         <v>17</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2448,17 +2980,17 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2469,18 +3001,18 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2491,40 +3023,46 @@
       <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L36" s="3">
         <v>13</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L37" s="3">
         <v>18</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2533,18 +3071,22 @@
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2553,18 +3095,16 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -2574,18 +3114,22 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -2602,13 +3146,13 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L41" s="3">
         <v>6</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2618,18 +3162,18 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N42" s="3"/>
       <c r="P42" s="1"/>
@@ -2639,18 +3183,18 @@
       <c r="A43" s="3"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N43" s="3"/>
     </row>
@@ -2658,18 +3202,18 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -2678,35 +3222,35 @@
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -2715,20 +3259,20 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L47" s="1">
         <v>7</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -2737,14 +3281,14 @@
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M48" s="1"/>
     </row>
@@ -2752,20 +3296,22 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L49" s="3">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2775,17 +3321,17 @@
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
@@ -2793,14 +3339,14 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D51" s="3"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="1"/>
@@ -2812,20 +3358,20 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L52" s="3">
         <v>11</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -2835,40 +3381,40 @@
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L53" s="1">
         <v>27</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L54" s="1">
         <v>28</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N54" s="3"/>
       <c r="Q54" s="3"/>
@@ -2877,20 +3423,20 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L55" s="1">
         <v>29</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N55" s="3"/>
       <c r="Q55" s="3"/>
@@ -2899,20 +3445,20 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L56" s="1">
         <v>14</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N56" s="3"/>
       <c r="Q56" s="3"/>
@@ -2921,20 +3467,20 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L57" s="1">
         <v>15</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N57" s="3"/>
       <c r="Q57" s="3"/>
@@ -2943,20 +3489,20 @@
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L58" s="1">
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N58" s="3"/>
     </row>
@@ -2964,7 +3510,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1"/>
       <c r="H59" s="1"/>
@@ -2982,18 +3528,18 @@
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O60" s="1"/>
       <c r="Q60" s="3"/>
@@ -3002,16 +3548,16 @@
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="K61" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -3020,18 +3566,18 @@
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N62" s="1"/>
       <c r="P62" s="3"/>
@@ -3041,16 +3587,16 @@
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3059,16 +3605,16 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L64" s="1">
         <v>37</v>
@@ -3081,7 +3627,7 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
@@ -3091,11 +3637,11 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N65" s="3"/>
       <c r="P65" s="1"/>
@@ -3105,17 +3651,17 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -3126,13 +3672,13 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3147,13 +3693,13 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3168,15 +3714,17 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I69" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1">
@@ -3188,15 +3736,17 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I70" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1">
@@ -3208,13 +3758,13 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3227,18 +3777,20 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I72" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1">
@@ -3253,18 +3805,20 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I73" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1">
@@ -3279,16 +3833,16 @@
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3305,16 +3859,16 @@
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3331,104 +3885,110 @@
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F76" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G76" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F77" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F81" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F82" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G82" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F83" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q83" s="1"/>
     </row>
@@ -3436,39 +3996,45 @@
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F84" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G84" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="H84" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F85" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G85" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="H85" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F86" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q86" s="1"/>
     </row>
@@ -3476,170 +4042,202 @@
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F88" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G88" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="H88" t="s">
+        <v>405</v>
+      </c>
+      <c r="I88" t="s">
+        <v>395</v>
+      </c>
+      <c r="P88" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F89" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G89" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="H89" t="s">
+        <v>516</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F90" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G90" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="H90" t="s">
+        <v>516</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G93" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G94" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I95" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G96" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="I96" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="C97" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G97" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="C98" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="1"/>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="I99" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -3653,15 +4251,15 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="1"/>
       <c r="F100" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G100" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -3678,15 +4276,15 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G101" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -3703,13 +4301,13 @@
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F102" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G102" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P102" s="1"/>
     </row>
@@ -3717,13 +4315,13 @@
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F103" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G103" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P103" s="1"/>
     </row>
@@ -3731,13 +4329,13 @@
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F104" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G104" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P104" s="1"/>
     </row>
@@ -3745,157 +4343,715 @@
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F105" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G105" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:17">
       <c r="C106" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="H106" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="C107" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="C108" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="C109" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="C110" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="H110" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="C111" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="C112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="3:16">
+      <c r="C113" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="3:16">
+      <c r="C114" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="3:16">
+      <c r="C115" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
-      <c r="C113" t="s">
+    <row r="116" spans="3:16">
+      <c r="C116" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
-      <c r="C114" t="s">
+    <row r="117" spans="3:16">
+      <c r="C117" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="3:3">
-      <c r="C115" t="s">
+    <row r="118" spans="3:16">
+      <c r="C118" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="3:3">
-      <c r="C116" t="s">
+    <row r="119" spans="3:16">
+      <c r="C119" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="117" spans="3:3">
-      <c r="C117" t="s">
+      <c r="H119" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I119" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="120" spans="3:16">
+      <c r="C120" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" t="s">
+      <c r="H120" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I120" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="3:16">
+      <c r="C121" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="119" spans="3:3">
-      <c r="C119" t="s">
+      <c r="H121" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I121" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="3:16">
+      <c r="C122" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="120" spans="3:3">
-      <c r="C120" t="s">
+      <c r="H122" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I122" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="123" spans="3:16">
+      <c r="C123" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="3:3">
-      <c r="C121" t="s">
+    <row r="124" spans="3:16">
+      <c r="C124" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="3:3">
-      <c r="C122" t="s">
+    <row r="125" spans="3:16">
+      <c r="C125" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="123" spans="3:3">
-      <c r="C123" t="s">
+      <c r="H125" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I125" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="126" spans="3:16">
+      <c r="C126" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="124" spans="3:3">
-      <c r="C124" t="s">
+      <c r="H126" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I126" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="127" spans="3:16">
+      <c r="C127" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" t="s">
+      <c r="H127" t="s">
+        <v>405</v>
+      </c>
+      <c r="I127" t="s">
+        <v>395</v>
+      </c>
+      <c r="P127" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="128" spans="3:16">
+      <c r="C128" s="8" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3">
-      <c r="C126" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="129" spans="3:9">
       <c r="C129" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="3:9">
       <c r="C130" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="3:9">
       <c r="C131" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="3:9">
       <c r="C132" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I133" t="s">
-        <v>285</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9">
+      <c r="C134" t="s">
+        <v>410</v>
+      </c>
+      <c r="I134" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9">
+      <c r="C135" t="s">
+        <v>411</v>
+      </c>
+      <c r="I135" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9">
+      <c r="C136" t="s">
+        <v>412</v>
+      </c>
+      <c r="H136" t="s">
+        <v>493</v>
+      </c>
+      <c r="I136" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9">
+      <c r="C137" t="s">
+        <v>413</v>
+      </c>
+      <c r="H137" t="s">
+        <v>494</v>
+      </c>
+      <c r="I137" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9">
+      <c r="C138" t="s">
+        <v>250</v>
+      </c>
+      <c r="H138" t="s">
+        <v>495</v>
+      </c>
+      <c r="I138" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9">
+      <c r="C139" t="s">
+        <v>414</v>
+      </c>
+      <c r="I139" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9">
+      <c r="C140" t="s">
+        <v>415</v>
+      </c>
+      <c r="I140" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9">
+      <c r="C141" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="I141" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9">
+      <c r="C142" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="I142" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9">
+      <c r="C143" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="I143" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9">
+      <c r="C144" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="I144" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9">
+      <c r="C145" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="I145" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9">
+      <c r="C146" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="H146" t="s">
+        <v>541</v>
+      </c>
+      <c r="I146" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9">
+      <c r="C147" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="I147" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9">
+      <c r="C148" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="I148" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9">
+      <c r="C149" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="I149" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9">
+      <c r="C150" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="I150" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9">
+      <c r="C151" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="I151" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9">
+      <c r="C152" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="I152" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9">
+      <c r="C153" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="I153" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9">
+      <c r="C154" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="I154" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9">
+      <c r="C155" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="I155" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9">
+      <c r="C156" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="I156" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9">
+      <c r="C157" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="I157" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9">
+      <c r="C158" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="I158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9">
+      <c r="C159" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I159" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9">
+      <c r="C160" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="I160" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9">
+      <c r="C161" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="I161" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9">
+      <c r="C162" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="I162" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9">
+      <c r="C163" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I163" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9">
+      <c r="C164" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="I164" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9">
+      <c r="C165" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="I165" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9">
+      <c r="C166" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I166" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9">
+      <c r="C167" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="I167" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9">
+      <c r="C168" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="I168" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9">
+      <c r="C169" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="I169" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9">
+      <c r="C170" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="I170" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9">
+      <c r="C171" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="I171" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="172" spans="3:9">
+      <c r="C172" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="I172" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9">
+      <c r="C173" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H173" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9">
+      <c r="C174" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="H174" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="175" spans="3:9">
+      <c r="C175" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="H175" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="176" spans="3:9">
+      <c r="C176" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H176" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8">
+      <c r="C177" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="H177" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8">
+      <c r="C178" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="H178" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8">
+      <c r="C179" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="H179" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8">
+      <c r="H180" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8">
+      <c r="H181" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8">
+      <c r="C182" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="H182" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8">
+      <c r="C183" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="H183" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8">
+      <c r="H184" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8">
+      <c r="C185" t="s">
+        <v>511</v>
+      </c>
+      <c r="H185" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8">
+      <c r="C186" t="s">
+        <v>512</v>
+      </c>
+      <c r="H186" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8">
+      <c r="C187" t="s">
+        <v>513</v>
+      </c>
+      <c r="H187" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8">
+      <c r="C188" t="s">
+        <v>515</v>
+      </c>
+      <c r="H188" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8">
+      <c r="C189" t="s">
+        <v>517</v>
+      </c>
+      <c r="H189" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8">
+      <c r="C190" t="s">
+        <v>518</v>
+      </c>
+      <c r="H190" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8">
+      <c r="C191" t="s">
+        <v>519</v>
+      </c>
+      <c r="H191" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8">
+      <c r="C192" t="s">
+        <v>520</v>
+      </c>
+      <c r="H192" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8">
+      <c r="C193" t="s">
+        <v>524</v>
+      </c>
+      <c r="H193" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8">
+      <c r="C194" t="s">
+        <v>526</v>
+      </c>
+      <c r="H194" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8">
+      <c r="C195" t="s">
+        <v>528</v>
+      </c>
+      <c r="H195" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8">
+      <c r="C196" t="s">
+        <v>529</v>
+      </c>
+      <c r="H196" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -3908,128 +5064,128 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
         <v>246</v>
-      </c>
-      <c r="B1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -4046,615 +5202,623 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F7CC8-7FEA-4649-8303-A7CE04FBC8D5}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
         <v>246</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" s="10" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C46" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C49" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:3">
+      <c r="A55" s="15" t="s">
+        <v>410</v>
+      </c>
       <c r="B55" s="10" t="s">
-        <v>385</v>
+        <v>487</v>
+      </c>
+      <c r="C55" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:3">
+      <c r="A56" s="15"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
     </row>
@@ -4668,260 +5832,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:16">
       <c r="C10" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="C11" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="L17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" t="s">
-        <v>356</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="C21" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E21" t="s">
+        <v>489</v>
+      </c>
+      <c r="M21" t="s">
+        <v>491</v>
+      </c>
+      <c r="N21" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="L17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>363</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4929,5 +6110,6 @@
     <hyperlink ref="N2" r:id="rId1" xr:uid="{53D4BAAD-AC1D-7E40-AA52-3CC69765414C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA37DC4-1B25-411F-A39D-05D01822C988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7351DD1D-AAAF-4B11-BC79-65BCC970F80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="631">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Grst Breadth across the premaxillae/Muzzle Width</t>
-  </si>
-  <si>
-    <t>Occipital/Cranial Height (base of foramen magnum to top of the occipital region)</t>
   </si>
   <si>
     <t>Skull width across mastoids immediately behind external auditory meati</t>
@@ -1673,9 +1670,6 @@
     <t>basion height</t>
   </si>
   <si>
-    <t>basion height (50 - horse)</t>
-  </si>
-  <si>
     <t xml:space="preserve">greatest mastoid breadth </t>
   </si>
   <si>
@@ -1719,6 +1713,267 @@
   </si>
   <si>
     <t>greatest palatal breadth</t>
+  </si>
+  <si>
+    <t>greatest breadth of the premaxilla (greatest breadth across the premaxilla 38 -ovis+capra; 36 - cervus; 28 - camel)</t>
+  </si>
+  <si>
+    <t>height of the horizontal part of the maxilla ( 31 - camel)</t>
+  </si>
+  <si>
+    <t>camel (vdd)</t>
+  </si>
+  <si>
+    <t>lateral neurocranium length (5 - camel)</t>
+  </si>
+  <si>
+    <t>median palatal length (18 - horse)</t>
+  </si>
+  <si>
+    <t>opisthion - ectorbitale (7 - camel)</t>
+  </si>
+  <si>
+    <t>Akrokranion - Infraorbitale of one side (11 - bos)</t>
+  </si>
+  <si>
+    <t>Breadth across the premaxillae on the oral protuberances (37 - bos)</t>
+  </si>
+  <si>
+    <t>bos (vdd)</t>
+  </si>
+  <si>
+    <t>Distance between the horncore tips (42a - bos)</t>
+  </si>
+  <si>
+    <t>From the aboral border of one occipital condyle to the Entorbitale of the same side (13 - bos)</t>
+  </si>
+  <si>
+    <t>From the aboral border of one occipital condyle to the Infraorbitale of the same side (15 - bos)</t>
+  </si>
+  <si>
+    <t>Greatest (oro-aboral) diameter of the horncore base (45 - bos)</t>
+  </si>
+  <si>
+    <t>Greatest breadth across the nasals (36 - bos)</t>
+  </si>
+  <si>
+    <t>Greatest frontal length (9 - bos)</t>
+  </si>
+  <si>
+    <t>Greatest height of the occipital region (40 - bos)</t>
+  </si>
+  <si>
+    <t>Greatest tangential distance between the outer curves of the horncores (43 - bos)</t>
+  </si>
+  <si>
+    <t>Horncore basal circumference (44 - bos)</t>
+  </si>
+  <si>
+    <t>Infraorbitale - Prosthion (16 - bos)</t>
+  </si>
+  <si>
+    <t>Least (dorso-basal) diameter of the horncore base (46 - bos)</t>
+  </si>
+  <si>
+    <t>Least breadth between the bases of the horncores (31 - bos)</t>
+  </si>
+  <si>
+    <t>Least height of the occipital region (41 - bos)</t>
+  </si>
+  <si>
+    <t>Least inner height of the temporal groove (39 - bos)</t>
+  </si>
+  <si>
+    <t>Least occipital breadth (30 - bos)</t>
+  </si>
+  <si>
+    <t>Length of the outer curvature of the horncore (47 bos)</t>
+  </si>
+  <si>
+    <t>Median frontal length (8 - bos)</t>
+  </si>
+  <si>
+    <t>oral palatal length (18 - bos)</t>
+  </si>
+  <si>
+    <t>Premolare - Prosthion (5 - bos)</t>
+  </si>
+  <si>
+    <t>Short upper cranium length (10 - bos)</t>
+  </si>
+  <si>
+    <t>akrokranion - bregma (9 - ovis)</t>
+  </si>
+  <si>
+    <t>frontal length (10 ovis)</t>
+  </si>
+  <si>
+    <t>greatest breadth between the lateral borders of the horncore bases (32 ovis)</t>
+  </si>
+  <si>
+    <t>greatest length of the lacrimal (14 - ovis)</t>
+  </si>
+  <si>
+    <t>least (lateral medial) diameter of the horncore base (42 - ovis)</t>
+  </si>
+  <si>
+    <t>least breadth of parietal (31 ovis)</t>
+  </si>
+  <si>
+    <t>length of the horncore on the front margin (43 - ovis)</t>
+  </si>
+  <si>
+    <t>basion - the highest point of the superior nuchal crest (38 - cervus)</t>
+  </si>
+  <si>
+    <t>cervus (vdd)</t>
+  </si>
+  <si>
+    <t>circumference of the burr (39 - cervus)</t>
+  </si>
+  <si>
+    <t>distal circumference of the burr (41)</t>
+  </si>
+  <si>
+    <t>lambda - nasion (11 - cervus)</t>
+  </si>
+  <si>
+    <t>lambda - prosthion (13 - cervus)</t>
+  </si>
+  <si>
+    <t>lambda - rhinio (12 - cervus)</t>
+  </si>
+  <si>
+    <t>neurocranium capacity (42 - cervus)</t>
+  </si>
+  <si>
+    <t>proximal circumference of the burr (40 - cervus)</t>
+  </si>
+  <si>
+    <t>zygomatic breadth (34 - cervus)</t>
+  </si>
+  <si>
+    <t>entorbitale - infraorbitale (19 - sus)</t>
+  </si>
+  <si>
+    <t>sus (vdd)</t>
+  </si>
+  <si>
+    <t>greatest breadth of the squamous part of the occipital bone (38 -  sus)</t>
+  </si>
+  <si>
+    <t>Greatest frontal breadth (41 - sus; = greatest breadth of skull - 41 horse)</t>
+  </si>
+  <si>
+    <t>height of the lacrimal (22 - sus)</t>
+  </si>
+  <si>
+    <t>basion - highest point of the intercornual ridge in the median plane</t>
+  </si>
+  <si>
+    <t>height of the occipital region</t>
+  </si>
+  <si>
+    <t>height of the occipital triangle (40 - canis; = height of the occipital region 45 - sus)</t>
+  </si>
+  <si>
+    <t>akrokranion - basion</t>
+  </si>
+  <si>
+    <t>least breadth of the squasmous part of the occipital bone (39 - sus)</t>
+  </si>
+  <si>
+    <t>length of the aboral border of the alveolus of M3 - aboral border of the alveolus of C (25 - sus)</t>
+  </si>
+  <si>
+    <t>length of the cheektooth row, M3-P2 (27a - sus)</t>
+  </si>
+  <si>
+    <t>length of the oral border of the alveolus of P1 - aboral border of the alveolus of I3 (26 - sus)</t>
+  </si>
+  <si>
+    <t>length of the premolar row, P2-P4 (29a - sus)</t>
+  </si>
+  <si>
+    <t>opisthokranion - prosthion (sus -2)</t>
+  </si>
+  <si>
+    <t>parietal length (13 - sus)</t>
+  </si>
+  <si>
+    <t>short nasal length (15a - sus)</t>
+  </si>
+  <si>
+    <t>upper length of the lacrimal (21 - sus)</t>
+  </si>
+  <si>
+    <t>breadth at the canine alveoli (36 - canis)</t>
+  </si>
+  <si>
+    <t>breadth dorsal to the external auditory meatus (24 - canis)</t>
+  </si>
+  <si>
+    <t>greatest length of the auditory bula (22 - canis)</t>
+  </si>
+  <si>
+    <t>least breadth of skull (31 - canis)</t>
+  </si>
+  <si>
+    <t>least palatal breadth (35 - canis)</t>
+  </si>
+  <si>
+    <t>length of the carnassial alveolus (19 - canis)</t>
+  </si>
+  <si>
+    <t>length of the horizontal part of the palatine (14 - canis)</t>
+  </si>
+  <si>
+    <t>length of the horizontal part of the palatine corresponding to M13a (14a - canis)</t>
+  </si>
+  <si>
+    <t>basion height (50 - horse; = skull height 38 - canis)</t>
+  </si>
+  <si>
+    <t>skull height without the sagittal crest ( 39 - canis)</t>
+  </si>
+  <si>
+    <t>snout length (12 - canis)</t>
+  </si>
+  <si>
+    <t>greatest diameter of the auditory bulla (16 - felis)</t>
+  </si>
+  <si>
+    <t>felis (vdd)</t>
+  </si>
+  <si>
+    <t>lateral length of snout (10 - felis)</t>
+  </si>
+  <si>
+    <t>least diameter of the auditory bulla (17 - felis)</t>
+  </si>
+  <si>
+    <t>aboral zygomatic breadth (17 - lepus)</t>
+  </si>
+  <si>
+    <t>breadth of skull (15 - lepus)</t>
+  </si>
+  <si>
+    <t>greatest breadth across openings of the external acoustic meatus (13 - lepus)</t>
+  </si>
+  <si>
+    <t>oral zygomatic breadth (16 - lepus)</t>
+  </si>
+  <si>
+    <t>measured across the outer borders of the alveoli</t>
+  </si>
+  <si>
+    <t>palatal minimal breadth</t>
+  </si>
+  <si>
+    <t>measured between the inner borders of the alveoli</t>
+  </si>
+  <si>
+    <t>palatal breadth (19 - lepus)</t>
   </si>
 </sst>
 </file>
@@ -2195,11 +2450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
-  <dimension ref="A1:Q196"/>
+  <dimension ref="A1:Q268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H195" sqref="H195"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G272" sqref="G272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2221,10 +2476,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
         <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>151</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -2236,19 +2491,19 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" t="s">
-        <v>149</v>
-      </c>
       <c r="M1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2262,10 +2517,10 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>401</v>
+        <v>593</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2287,10 +2542,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2306,14 +2561,16 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>596</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" t="s">
+        <v>565</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2329,13 +2586,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2352,7 +2609,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2373,13 +2630,13 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2396,13 +2653,13 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2419,13 +2676,13 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2442,7 +2699,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2463,16 +2720,16 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2488,7 +2745,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2509,7 +2766,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2530,16 +2787,16 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2555,16 +2812,16 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2580,7 +2837,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2601,7 +2858,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2622,7 +2879,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2643,7 +2900,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2664,7 +2921,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2685,7 +2942,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2705,27 +2962,27 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2736,7 +2993,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2745,7 +3002,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>2</v>
@@ -2759,57 +3016,57 @@
     <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1"/>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L25" s="3">
         <v>10</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2818,7 +3075,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
@@ -2826,15 +3083,15 @@
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N27" s="3"/>
       <c r="P27" s="1"/>
@@ -2842,22 +3099,22 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1"/>
       <c r="H28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2868,22 +3125,22 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L29" s="3">
         <v>35</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N29" s="3"/>
       <c r="Q29" s="1"/>
@@ -2892,20 +3149,20 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L30" s="3">
         <v>36</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N30" s="3"/>
       <c r="Q30" s="1"/>
@@ -2914,18 +3171,18 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N31" s="3"/>
       <c r="Q31" s="1"/>
@@ -2934,42 +3191,42 @@
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>12</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>17</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2980,17 +3237,17 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3001,18 +3258,18 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3023,46 +3280,46 @@
       <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L36" s="3">
         <v>13</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L37" s="3">
         <v>18</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -3071,22 +3328,22 @@
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3095,16 +3352,16 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3114,22 +3371,22 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3146,13 +3403,13 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>6</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3162,18 +3419,18 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N42" s="3"/>
       <c r="P42" s="1"/>
@@ -3183,18 +3440,18 @@
       <c r="A43" s="3"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N43" s="3"/>
     </row>
@@ -3202,18 +3459,18 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -3222,35 +3479,35 @@
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -3259,20 +3516,20 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L47" s="1">
         <v>7</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -3281,14 +3538,14 @@
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M48" s="1"/>
     </row>
@@ -3296,22 +3553,22 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -3321,17 +3578,17 @@
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
@@ -3339,14 +3596,14 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="3"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="1"/>
@@ -3358,20 +3615,20 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>11</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -3381,40 +3638,40 @@
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L53" s="1">
         <v>27</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L54" s="1">
         <v>28</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N54" s="3"/>
       <c r="Q54" s="3"/>
@@ -3423,20 +3680,20 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L55" s="1">
         <v>29</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N55" s="3"/>
       <c r="Q55" s="3"/>
@@ -3445,20 +3702,20 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L56" s="1">
         <v>14</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N56" s="3"/>
       <c r="Q56" s="3"/>
@@ -3467,20 +3724,20 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L57" s="1">
         <v>15</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N57" s="3"/>
       <c r="Q57" s="3"/>
@@ -3489,20 +3746,20 @@
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L58" s="1">
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N58" s="3"/>
     </row>
@@ -3510,7 +3767,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D59" s="1"/>
       <c r="H59" s="1"/>
@@ -3528,18 +3785,18 @@
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O60" s="1"/>
       <c r="Q60" s="3"/>
@@ -3548,16 +3805,16 @@
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="K61" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -3566,18 +3823,18 @@
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N62" s="1"/>
       <c r="P62" s="3"/>
@@ -3587,16 +3844,16 @@
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3605,16 +3862,16 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L64" s="1">
         <v>37</v>
@@ -3627,7 +3884,7 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
@@ -3637,11 +3894,11 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N65" s="3"/>
       <c r="P65" s="1"/>
@@ -3651,17 +3908,17 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -3672,13 +3929,13 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3693,13 +3950,13 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3714,16 +3971,16 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3736,16 +3993,16 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3758,13 +4015,13 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3777,19 +4034,19 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -3805,19 +4062,19 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3833,16 +4090,16 @@
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3859,16 +4116,16 @@
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3885,110 +4142,110 @@
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q83" s="1"/>
     </row>
@@ -3996,45 +4253,45 @@
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H84" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H85" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q86" s="1"/>
     </row>
@@ -4042,201 +4299,201 @@
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G88" t="s">
-        <v>164</v>
-      </c>
-      <c r="H88" t="s">
+        <v>163</v>
+      </c>
+      <c r="I88" t="s">
+        <v>394</v>
+      </c>
+      <c r="P88" t="s">
         <v>405</v>
-      </c>
-      <c r="I88" t="s">
-        <v>395</v>
-      </c>
-      <c r="P88" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H89" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H90" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I95" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G96" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="H96" t="s">
+        <v>589</v>
       </c>
       <c r="I96" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="C97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="C98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="1"/>
       <c r="F99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -4251,15 +4508,15 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="1"/>
       <c r="F100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -4276,15 +4533,15 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4301,13 +4558,13 @@
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P102" s="1"/>
     </row>
@@ -4315,13 +4572,13 @@
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P103" s="1"/>
     </row>
@@ -4329,13 +4586,13 @@
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P104" s="1"/>
     </row>
@@ -4343,715 +4600,1192 @@
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:17">
       <c r="C106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H106" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="C107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="C108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="C109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="C110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H110" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="C111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="C112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="3:16">
       <c r="C113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="3:16">
       <c r="C114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="3:16">
       <c r="C115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="3:16">
       <c r="C116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="3:16">
       <c r="C117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="3:16">
       <c r="C118" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="3:16">
       <c r="C119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" spans="3:16">
       <c r="C120" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I120" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="3:16">
       <c r="C121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H121" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I121" t="s">
         <v>403</v>
-      </c>
-      <c r="I121" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="122" spans="3:16">
       <c r="C122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H122" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I122" t="s">
         <v>403</v>
-      </c>
-      <c r="I122" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="123" spans="3:16">
       <c r="C123" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="3:16">
       <c r="C124" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="3:16">
       <c r="C125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I125" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="3:16">
       <c r="C126" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I126" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="3:16">
       <c r="C127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H127" t="s">
+        <v>404</v>
+      </c>
+      <c r="I127" t="s">
+        <v>394</v>
+      </c>
+      <c r="P127" t="s">
         <v>405</v>
-      </c>
-      <c r="I127" t="s">
-        <v>395</v>
-      </c>
-      <c r="P127" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="128" spans="3:16">
       <c r="C128" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="3:9">
       <c r="C129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="3:9">
       <c r="C130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="3:9">
       <c r="C131" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="3:9">
       <c r="C132" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I133" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="3:9">
       <c r="C134" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I134" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="3:9">
       <c r="C135" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I135" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="3:9">
       <c r="C136" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I136" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="3:9">
       <c r="C137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H137" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="3:9">
       <c r="C138" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H138" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I138" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="3:9">
       <c r="C139" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I139" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="3:9">
       <c r="C140" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I140" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141" spans="3:9">
       <c r="C141" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I141" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="3:9">
       <c r="C142" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I142" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="3:9">
       <c r="C143" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I143" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="3:9">
       <c r="C144" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I144" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="3:9">
       <c r="C145" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I145" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="3:9">
       <c r="C146" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H146" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I146" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="3:9">
       <c r="C147" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I147" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="3:9">
       <c r="C148" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I148" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="3:9">
       <c r="C149" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I149" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="3:9">
       <c r="C150" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I150" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="3:9">
       <c r="C151" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I151" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152" spans="3:9">
       <c r="C152" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I152" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="3:9">
       <c r="C153" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I153" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="3:9">
       <c r="C154" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I154" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="3:9">
       <c r="C155" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="3:9">
       <c r="C156" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I156" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="3:9">
       <c r="C157" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I157" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="158" spans="3:9">
       <c r="C158" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I158" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="159" spans="3:9">
       <c r="C159" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I159" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="160" spans="3:9">
       <c r="C160" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I160" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="161" spans="3:9">
       <c r="C161" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I161" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="162" spans="3:9">
       <c r="C162" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I162" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="163" spans="3:9">
       <c r="C163" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I163" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="3:9">
       <c r="C164" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I164" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="165" spans="3:9">
       <c r="C165" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I165" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="166" spans="3:9">
       <c r="C166" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I166" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="3:9">
       <c r="C167" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I167" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="168" spans="3:9">
       <c r="C168" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I168" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="169" spans="3:9">
       <c r="C169" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I169" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="170" spans="3:9">
       <c r="C170" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I170" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="3:9">
       <c r="C171" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I171" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="172" spans="3:9">
       <c r="C172" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I172" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="3:9">
       <c r="C173" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H173" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="174" spans="3:9">
       <c r="C174" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H174" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="175" spans="3:9">
       <c r="C175" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H175" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="176" spans="3:9">
       <c r="C176" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H176" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="177" spans="3:8">
       <c r="C177" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H177" t="s">
         <v>501</v>
-      </c>
-      <c r="H177" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="178" spans="3:8">
       <c r="C178" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H178" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="3:8">
       <c r="C179" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="H179" t="s">
         <v>504</v>
-      </c>
-      <c r="H179" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="180" spans="3:8">
       <c r="H180" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="3:8">
       <c r="H181" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="182" spans="3:8">
       <c r="C182" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H182" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="3:8">
       <c r="C183" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H183" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="3:8">
       <c r="H184" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="185" spans="3:8">
       <c r="C185" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H185" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="186" spans="3:8">
       <c r="C186" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H186" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="187" spans="3:8">
       <c r="C187" t="s">
+        <v>512</v>
+      </c>
+      <c r="H187" t="s">
         <v>513</v>
-      </c>
-      <c r="H187" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="188" spans="3:8">
       <c r="C188" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H188" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="189" spans="3:8">
       <c r="C189" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H189" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="190" spans="3:8">
       <c r="C190" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H190" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="191" spans="3:8">
       <c r="C191" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H191" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="192" spans="3:8">
       <c r="C192" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H192" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="193" spans="3:8">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="193" spans="3:16">
       <c r="C193" t="s">
+        <v>523</v>
+      </c>
+      <c r="H193" t="s">
         <v>524</v>
       </c>
-      <c r="H193" t="s">
+    </row>
+    <row r="194" spans="3:16">
+      <c r="C194" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="194" spans="3:8">
-      <c r="C194" t="s">
+      <c r="H194" t="s">
         <v>526</v>
       </c>
-      <c r="H194" t="s">
+    </row>
+    <row r="195" spans="3:16">
+      <c r="C195" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="195" spans="3:8">
-      <c r="C195" t="s">
+      <c r="H195" t="s">
+        <v>543</v>
+      </c>
+      <c r="P195" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="196" spans="3:16">
+      <c r="C196" t="s">
         <v>528</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="197" spans="3:16">
+      <c r="H197" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="198" spans="3:16">
+      <c r="H198" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="196" spans="3:8">
-      <c r="C196" t="s">
-        <v>529</v>
-      </c>
-      <c r="H196" t="s">
-        <v>530</v>
+      <c r="N198" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="199" spans="3:16">
+      <c r="H199" t="s">
+        <v>547</v>
+      </c>
+      <c r="N199" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="200" spans="3:16">
+      <c r="H200" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="201" spans="3:16">
+      <c r="H201" t="s">
+        <v>549</v>
+      </c>
+      <c r="N201" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="202" spans="3:16">
+      <c r="H202" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="203" spans="3:16">
+      <c r="H203" t="s">
+        <v>551</v>
+      </c>
+      <c r="N203" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="204" spans="3:16">
+      <c r="H204" t="s">
+        <v>553</v>
+      </c>
+      <c r="N204" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="205" spans="3:16">
+      <c r="H205" t="s">
+        <v>554</v>
+      </c>
+      <c r="N205" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="206" spans="3:16">
+      <c r="H206" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="207" spans="3:16">
+      <c r="H207" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="208" spans="3:16">
+      <c r="H208" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="209" spans="8:14">
+      <c r="H209" t="s">
+        <v>558</v>
+      </c>
+      <c r="N209" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="210" spans="8:14">
+      <c r="H210" t="s">
+        <v>559</v>
+      </c>
+      <c r="M210" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="211" spans="8:14">
+      <c r="H211" t="s">
+        <v>560</v>
+      </c>
+      <c r="N211" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="212" spans="8:14">
+      <c r="H212" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="213" spans="8:14">
+      <c r="H213" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="214" spans="8:14">
+      <c r="H214" t="s">
+        <v>563</v>
+      </c>
+      <c r="N214" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="215" spans="8:14">
+      <c r="H215" t="s">
+        <v>564</v>
+      </c>
+      <c r="N215" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="216" spans="8:14">
+      <c r="H216" t="s">
+        <v>566</v>
+      </c>
+      <c r="N216" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="217" spans="8:14">
+      <c r="H217" t="s">
+        <v>567</v>
+      </c>
+      <c r="N217" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="218" spans="8:14">
+      <c r="H218" t="s">
+        <v>568</v>
+      </c>
+      <c r="N218" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="219" spans="8:14">
+      <c r="H219" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="220" spans="8:14">
+      <c r="H220" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="221" spans="8:14">
+      <c r="H221" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="222" spans="8:14">
+      <c r="H222" t="s">
+        <v>572</v>
+      </c>
+      <c r="N222" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="223" spans="8:14">
+      <c r="H223" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="224" spans="8:14">
+      <c r="H224" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="225" spans="8:14">
+      <c r="H225" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="226" spans="8:14">
+      <c r="H226" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="227" spans="8:14">
+      <c r="H227" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="228" spans="8:14">
+      <c r="H228" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="229" spans="8:14">
+      <c r="H229" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="230" spans="8:14">
+      <c r="H230" t="s">
+        <v>580</v>
+      </c>
+      <c r="N230" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="231" spans="8:14">
+      <c r="H231" t="s">
+        <v>582</v>
+      </c>
+      <c r="N231" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="232" spans="8:14">
+      <c r="H232" t="s">
+        <v>583</v>
+      </c>
+      <c r="N232" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="233" spans="8:14">
+      <c r="H233" t="s">
+        <v>584</v>
+      </c>
+      <c r="N233" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="234" spans="8:14">
+      <c r="H234" t="s">
+        <v>585</v>
+      </c>
+      <c r="N234" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="235" spans="8:14">
+      <c r="H235" t="s">
+        <v>586</v>
+      </c>
+      <c r="N235" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="236" spans="8:14">
+      <c r="H236" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="237" spans="8:14">
+      <c r="H237" t="s">
+        <v>588</v>
+      </c>
+      <c r="N237" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="238" spans="8:14">
+      <c r="H238" t="s">
+        <v>590</v>
+      </c>
+      <c r="N238" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="239" spans="8:14">
+      <c r="H239" t="s">
+        <v>592</v>
+      </c>
+      <c r="N239" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="240" spans="8:14">
+      <c r="H240" t="s">
+        <v>594</v>
+      </c>
+      <c r="N240" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="241" spans="8:14">
+      <c r="H241" t="s">
+        <v>597</v>
+      </c>
+      <c r="M241" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="242" spans="8:14">
+      <c r="H242" t="s">
+        <v>599</v>
+      </c>
+      <c r="N242" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="243" spans="8:14">
+      <c r="H243" t="s">
+        <v>600</v>
+      </c>
+      <c r="N243" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="244" spans="8:14">
+      <c r="H244" t="s">
+        <v>601</v>
+      </c>
+      <c r="N244" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="245" spans="8:14">
+      <c r="H245" t="s">
+        <v>602</v>
+      </c>
+      <c r="N245" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="246" spans="8:14">
+      <c r="H246" t="s">
+        <v>603</v>
+      </c>
+      <c r="N246" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="247" spans="8:14">
+      <c r="H247" t="s">
+        <v>604</v>
+      </c>
+      <c r="N247" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="248" spans="8:14">
+      <c r="H248" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="249" spans="8:14">
+      <c r="H249" t="s">
+        <v>606</v>
+      </c>
+      <c r="N249" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="250" spans="8:14">
+      <c r="H250" t="s">
+        <v>607</v>
+      </c>
+      <c r="N250" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="251" spans="8:14">
+      <c r="H251" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="252" spans="8:14">
+      <c r="H252" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="253" spans="8:14">
+      <c r="H253" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="254" spans="8:14">
+      <c r="H254" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="255" spans="8:14">
+      <c r="H255" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="256" spans="8:14">
+      <c r="H256" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="257" spans="3:16">
+      <c r="H257" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="258" spans="3:16">
+      <c r="H258" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="259" spans="3:16">
+      <c r="H259" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="260" spans="3:16">
+      <c r="H260" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="261" spans="3:16">
+      <c r="H261" t="s">
+        <v>619</v>
+      </c>
+      <c r="N261" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="262" spans="3:16">
+      <c r="H262" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="263" spans="3:16">
+      <c r="H263" t="s">
+        <v>622</v>
+      </c>
+      <c r="N263" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="264" spans="3:16">
+      <c r="H264" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="265" spans="3:16">
+      <c r="H265" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="266" spans="3:16">
+      <c r="H266" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="267" spans="3:16">
+      <c r="H267" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="268" spans="3:16">
+      <c r="C268" t="s">
+        <v>628</v>
+      </c>
+      <c r="H268" t="s">
+        <v>630</v>
+      </c>
+      <c r="P268" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -5074,118 +5808,118 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
         <v>280</v>
       </c>
-      <c r="C1" t="s">
-        <v>281</v>
-      </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -5211,610 +5945,610 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>244</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
         <v>245</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>293</v>
       </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
         <v>257</v>
-      </c>
-      <c r="C17" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" t="s">
         <v>259</v>
-      </c>
-      <c r="C20" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>328</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" t="s">
         <v>262</v>
-      </c>
-      <c r="C26" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
         <v>264</v>
-      </c>
-      <c r="C27" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" t="s">
         <v>266</v>
-      </c>
-      <c r="C28" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" t="s">
         <v>268</v>
-      </c>
-      <c r="C30" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>366</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" t="s">
         <v>271</v>
-      </c>
-      <c r="C38" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" t="s">
         <v>273</v>
-      </c>
-      <c r="C39" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>373</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" t="s">
         <v>275</v>
-      </c>
-      <c r="C46" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" t="s">
         <v>278</v>
-      </c>
-      <c r="C49" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" t="s">
         <v>487</v>
-      </c>
-      <c r="C55" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5840,258 +6574,258 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="N2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="C9" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:16">
       <c r="C10" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="C11" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="C21" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E21" t="s">
+        <v>488</v>
+      </c>
+      <c r="M21" t="s">
+        <v>490</v>
+      </c>
+      <c r="N21" t="s">
         <v>489</v>
-      </c>
-      <c r="M21" t="s">
-        <v>491</v>
-      </c>
-      <c r="N21" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -6099,10 +6833,10 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\terms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7351DD1D-AAAF-4B11-BC79-65BCC970F80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F7DBBC-61EC-8C46-8EA1-51016C8E34E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -80,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="630">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -571,12 +569,6 @@
     <t>S.9; B10</t>
   </si>
   <si>
-    <t>C.PL; S.10; B11</t>
-  </si>
-  <si>
-    <t>C.LUTR; S.11; B.12</t>
-  </si>
-  <si>
     <t>S.12</t>
   </si>
   <si>
@@ -631,9 +623,6 @@
     <t>Churchill and Boessenecker (2016)</t>
   </si>
   <si>
-    <t>Churchill and Boessenecker (2016); Siversten (1954); Brunner (2004)</t>
-  </si>
-  <si>
     <t>Condylobasal length</t>
   </si>
   <si>
@@ -674,12 +663,6 @@
   </si>
   <si>
     <t>Palatal length</t>
-  </si>
-  <si>
-    <t>Upper left tooth row</t>
-  </si>
-  <si>
-    <t>Upper right tooth row</t>
   </si>
   <si>
     <t>Width of skull at canines</t>
@@ -1265,9 +1248,6 @@
     <t>upper cheek teeth length (9)</t>
   </si>
   <si>
-    <t>palatal length (2)</t>
-  </si>
-  <si>
     <t>palatal breadth (13)</t>
   </si>
   <si>
@@ -1295,15 +1275,6 @@
     <t>orbital diameter perpendicular to antero-posterior orbital diameter (29)</t>
   </si>
   <si>
-    <t>palatal length (18 - horse)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">von den Driesch and Eisenman not the same measurement, just the name </t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
     <t>greatest neurocranium breadth (38 - horse)</t>
   </si>
   <si>
@@ -1628,9 +1599,6 @@
     <t>cheektooth row length</t>
   </si>
   <si>
-    <t xml:space="preserve">length of the cheektooth row </t>
-  </si>
-  <si>
     <t>frontal minimal breadth</t>
   </si>
   <si>
@@ -1974,6 +1942,33 @@
   </si>
   <si>
     <t>palatal breadth (19 - lepus)</t>
+  </si>
+  <si>
+    <t>18a</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Eisenman goes to diastema; which bones are these?</t>
+  </si>
+  <si>
+    <t>VDD goes to incisors; which bones are these?</t>
+  </si>
+  <si>
+    <t>C.PL</t>
+  </si>
+  <si>
+    <t>S.10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>palatal length</t>
+  </si>
+  <si>
+    <t>palatal length AP</t>
   </si>
 </sst>
 </file>
@@ -2055,6 +2050,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2077,12 +2073,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2090,6 +2080,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2107,7 +2103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2116,13 +2112,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2132,9 +2127,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2450,16 +2449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
-  <dimension ref="A1:Q268"/>
+  <dimension ref="A1:T275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G272" sqref="G272"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2491,86 +2490,90 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>148</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" t="s">
-        <v>381</v>
-      </c>
-      <c r="P1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q1" t="s">
+        <v>376</v>
+      </c>
+      <c r="S1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="22" customFormat="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="I2" s="22">
+        <v>2</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="22" customFormat="1">
+      <c r="E3" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>596</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" t="s">
-        <v>565</v>
+      <c r="H4" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2580,21 +2583,26 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>393</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2603,19 +2611,26 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>586</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" t="s">
+        <v>555</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2624,19 +2639,22 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2647,20 +2665,21 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2670,19 +2689,22 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>520</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2693,18 +2715,23 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2714,23 +2741,24 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>384</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2739,13 +2767,16 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2760,19 +2791,26 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2781,23 +2819,22 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>385</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2806,23 +2843,22 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>386</v>
-      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2831,19 +2867,26 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2852,19 +2895,26 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2873,13 +2923,16 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2894,13 +2947,16 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>387</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2915,13 +2971,16 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>388</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2936,13 +2995,16 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2957,817 +3019,897 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="F22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="K22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="K23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2</v>
-      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3" t="s">
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="N24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>9</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="K25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L25" s="3">
-        <v>10</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="O25" s="3">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1"/>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="M26" s="1"/>
+      <c r="N26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>9</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="N27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>10</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>106</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="H28" t="s">
-        <v>536</v>
-      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="M28" s="1"/>
+      <c r="N28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" s="3">
-        <v>35</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" t="s">
+        <v>526</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L30" s="3">
-        <v>36</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N31" s="3"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O31" s="3">
+        <v>35</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>12</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="O32" s="3">
+        <v>36</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>17</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="O34" s="3">
+        <v>12</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>17</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="3"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>491</v>
-      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L36" s="3">
-        <v>13</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>383</v>
-      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L37" s="3">
-        <v>18</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:17">
+        <v>482</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O38" s="3">
+        <v>13</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O39" s="3">
+        <v>18</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="M40" s="1"/>
+      <c r="N40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="C41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>6</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>47</v>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="P41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N42" s="3"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="3"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="M43" s="1"/>
+      <c r="N43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>6</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="O45" s="1"/>
+      <c r="P45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="3"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L47" s="1">
-        <v>7</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="3"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="N48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L49" s="3">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="O49" s="1">
+        <v>7</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="D50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="D51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O51" s="3">
+        <v>5</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>11</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="3"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L53" s="1">
-        <v>27</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L54" s="1">
-        <v>28</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N54" s="3"/>
-      <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1"/>
+      <c r="O54" s="3">
+        <v>11</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L55" s="1">
-        <v>29</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N55" s="3"/>
-      <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="O55" s="1">
+        <v>27</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L56" s="1">
-        <v>14</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N56" s="3"/>
+      <c r="O56" s="1">
+        <v>28</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L57" s="1">
-        <v>15</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N57" s="3"/>
+      <c r="O57" s="1">
+        <v>29</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="3"/>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L58" s="1">
-        <v>16</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="O58" s="1">
+        <v>14</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q58" s="3"/>
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D59" s="1"/>
       <c r="H59" s="1"/>
@@ -3776,775 +3918,765 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="1"/>
+      <c r="N59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O59" s="1">
+        <v>15</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O60" s="1">
+        <v>16</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="3"/>
+    <row r="61" spans="1:20">
+      <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="P61" s="3"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
       <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61" s="3"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L62" s="1"/>
-      <c r="M62" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N62" s="1"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="O62" s="1"/>
+      <c r="P62" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R62" s="1"/>
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="3" t="s">
+      <c r="I63" s="1"/>
+      <c r="N63" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1"/>
+      <c r="P63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L64" s="1">
-        <v>37</v>
-      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1"/>
+      <c r="N64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="J65" s="1"/>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L65" s="1"/>
-      <c r="M65" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N65" s="3"/>
+      <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="3"/>
-    </row>
-    <row r="66" spans="1:17">
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="J66" s="1"/>
-      <c r="K66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O66" s="1">
+        <v>37</v>
+      </c>
       <c r="P66" s="1"/>
-      <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="C67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="N67" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="3"/>
+      <c r="P67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q67" s="3"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="C68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="N68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="3"/>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>393</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="3"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>393</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I71" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="O71" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="3" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="1">
-        <v>20</v>
-      </c>
+      <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="O72" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="C73" s="1"/>
       <c r="D73" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>397</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="1">
-        <v>20</v>
-      </c>
+      <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="3"/>
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I74" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="1">
-        <v>23</v>
-      </c>
+      <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="O74" s="1">
+        <v>20</v>
+      </c>
       <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="3"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I75" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="1">
-        <v>23</v>
-      </c>
+      <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+      <c r="O75" s="1">
+        <v>20</v>
+      </c>
       <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
-      <c r="C76" t="s">
-        <v>185</v>
-      </c>
-      <c r="F76" t="s">
-        <v>178</v>
-      </c>
-      <c r="G76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="C76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1">
+        <v>23</v>
+      </c>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
-      <c r="C77" t="s">
-        <v>186</v>
-      </c>
-      <c r="F77" t="s">
-        <v>179</v>
-      </c>
-      <c r="G77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="C77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1">
+        <v>23</v>
+      </c>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G79" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F80" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F81" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G82" t="s">
-        <v>158</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G83" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:17">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G84" t="s">
-        <v>160</v>
-      </c>
-      <c r="H84" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+        <v>158</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G85" t="s">
-        <v>161</v>
-      </c>
-      <c r="H85" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+        <v>159</v>
+      </c>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G86" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="1:17">
+        <v>160</v>
+      </c>
+      <c r="H86" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G87" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+        <v>161</v>
+      </c>
+      <c r="H87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F88" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G88" t="s">
-        <v>163</v>
-      </c>
-      <c r="I88" t="s">
-        <v>394</v>
-      </c>
-      <c r="P88" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
+        <v>162</v>
+      </c>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F89" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G89" t="s">
-        <v>164</v>
-      </c>
-      <c r="H89" t="s">
-        <v>515</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="3"/>
-      <c r="B90" s="1"/>
-      <c r="C90" t="s">
-        <v>199</v>
-      </c>
-      <c r="F90" t="s">
-        <v>183</v>
-      </c>
-      <c r="G90" t="s">
-        <v>164</v>
-      </c>
-      <c r="H90" t="s">
-        <v>515</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="3"/>
-      <c r="B91" s="1"/>
-      <c r="C91" t="s">
-        <v>200</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
-      </c>
-      <c r="G91" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="3"/>
-      <c r="B92" s="1"/>
-      <c r="C92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" t="s">
-        <v>179</v>
-      </c>
-      <c r="G92" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F94" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G94" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G95" t="s">
-        <v>168</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="I95" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" s="3"/>
+      <c r="B97" s="1"/>
+      <c r="C97" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97" t="s">
+        <v>180</v>
+      </c>
+      <c r="G97" t="s">
+        <v>166</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I97" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" s="3"/>
+      <c r="B98" s="1"/>
+      <c r="C98" t="s">
+        <v>200</v>
+      </c>
+      <c r="F98" t="s">
+        <v>179</v>
+      </c>
+      <c r="G98" t="s">
+        <v>167</v>
+      </c>
+      <c r="H98" t="s">
+        <v>579</v>
+      </c>
+      <c r="I98" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="C99" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" t="s">
+        <v>180</v>
+      </c>
+      <c r="G99" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="C100" t="s">
+        <v>202</v>
+      </c>
+      <c r="F100" t="s">
+        <v>180</v>
+      </c>
+      <c r="G100" t="s">
         <v>169</v>
       </c>
-      <c r="H96" t="s">
-        <v>589</v>
-      </c>
-      <c r="I96" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="C97" t="s">
-        <v>206</v>
-      </c>
-      <c r="F97" t="s">
-        <v>182</v>
-      </c>
-      <c r="G97" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="C98" t="s">
-        <v>207</v>
-      </c>
-      <c r="F98" t="s">
-        <v>182</v>
-      </c>
-      <c r="G98" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" t="s">
-        <v>208</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="1"/>
-      <c r="F99" t="s">
-        <v>182</v>
-      </c>
-      <c r="G99" t="s">
-        <v>172</v>
-      </c>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" t="s">
-        <v>209</v>
-      </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="1"/>
-      <c r="F100" t="s">
-        <v>178</v>
-      </c>
-      <c r="G100" t="s">
-        <v>173</v>
-      </c>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-    </row>
-    <row r="101" spans="1:17">
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G101" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="I101" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4553,1239 +4685,1272 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="A102" s="3"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" t="s">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="1"/>
       <c r="F102" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G102" t="s">
-        <v>175</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="A103" s="3"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" t="s">
-        <v>212</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="1"/>
       <c r="F103" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G103" t="s">
-        <v>176</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
       <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G104" t="s">
-        <v>177</v>
-      </c>
-      <c r="P104" s="1"/>
-    </row>
-    <row r="105" spans="1:17">
+        <v>173</v>
+      </c>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G105" t="s">
+        <v>174</v>
+      </c>
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106" s="3"/>
+      <c r="B106" s="1"/>
+      <c r="C106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
+        <v>180</v>
+      </c>
+      <c r="G106" t="s">
+        <v>175</v>
+      </c>
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107" s="3"/>
+      <c r="B107" s="1"/>
+      <c r="C107" t="s">
+        <v>209</v>
+      </c>
+      <c r="F107" t="s">
+        <v>180</v>
+      </c>
+      <c r="G107" t="s">
+        <v>175</v>
+      </c>
+      <c r="S107" s="3"/>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="C108" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="C109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="C110" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="C111" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="C112" t="s">
         <v>214</v>
       </c>
-      <c r="F105" t="s">
-        <v>182</v>
-      </c>
-      <c r="G105" t="s">
-        <v>177</v>
-      </c>
-      <c r="P105" s="3"/>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="C106" t="s">
+      <c r="H112" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9">
+      <c r="C113" t="s">
         <v>215</v>
       </c>
-      <c r="H106" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
-      <c r="C107" t="s">
+    </row>
+    <row r="114" spans="3:9">
+      <c r="C114" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
-      <c r="C108" t="s">
+    <row r="115" spans="3:9">
+      <c r="C115" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
-      <c r="C109" t="s">
+    <row r="116" spans="3:9">
+      <c r="C116" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
-      <c r="C110" t="s">
+    <row r="117" spans="3:9">
+      <c r="C117" t="s">
         <v>219</v>
       </c>
-      <c r="H110" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="C111" t="s">
+    </row>
+    <row r="118" spans="3:9">
+      <c r="C118" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
-      <c r="C112" t="s">
+    <row r="119" spans="3:9">
+      <c r="C119" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="3:16">
-      <c r="C113" t="s">
+    <row r="120" spans="3:9">
+      <c r="C120" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="3:16">
-      <c r="C114" t="s">
+    <row r="121" spans="3:9">
+      <c r="C121" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="115" spans="3:16">
-      <c r="C115" t="s">
+      <c r="H121" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I121" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9">
+      <c r="C122" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="116" spans="3:16">
-      <c r="C116" t="s">
+      <c r="H122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I122" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9">
+      <c r="C123" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="117" spans="3:16">
-      <c r="C117" t="s">
+      <c r="H123" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I123" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9">
+      <c r="C124" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="118" spans="3:16">
-      <c r="C118" t="s">
+      <c r="H124" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I124" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9">
+      <c r="C125" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="119" spans="3:16">
-      <c r="C119" t="s">
+    <row r="126" spans="3:9">
+      <c r="C126" t="s">
         <v>228</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I119" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="120" spans="3:16">
-      <c r="C120" t="s">
+    </row>
+    <row r="127" spans="3:9">
+      <c r="C127" t="s">
         <v>229</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I120" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="121" spans="3:16">
-      <c r="C121" t="s">
+      <c r="H127" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I127" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9">
+      <c r="C128" t="s">
         <v>230</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I121" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="122" spans="3:16">
-      <c r="C122" t="s">
-        <v>231</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I122" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="123" spans="3:16">
-      <c r="C123" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="124" spans="3:16">
-      <c r="C124" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="125" spans="3:16">
-      <c r="C125" t="s">
-        <v>234</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I125" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="126" spans="3:16">
-      <c r="C126" t="s">
-        <v>235</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I126" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="127" spans="3:16">
-      <c r="C127" t="s">
-        <v>236</v>
-      </c>
-      <c r="H127" t="s">
-        <v>404</v>
-      </c>
-      <c r="I127" t="s">
-        <v>394</v>
-      </c>
-      <c r="P127" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="128" spans="3:16">
-      <c r="C128" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="129" spans="3:9">
-      <c r="C129" t="s">
-        <v>238</v>
+      <c r="H128" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I128" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="3:9">
-      <c r="C130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="131" spans="3:9">
-      <c r="C131" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="132" spans="3:9">
-      <c r="C132" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="C130" s="23"/>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" t="s">
-        <v>281</v>
-      </c>
-      <c r="I133" t="s">
-        <v>396</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="3:9">
-      <c r="C134" t="s">
-        <v>409</v>
-      </c>
-      <c r="I134" t="s">
-        <v>433</v>
+      <c r="C134" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="3:9">
       <c r="C135" t="s">
-        <v>410</v>
+        <v>276</v>
       </c>
       <c r="I135" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="3:9">
       <c r="C136" t="s">
-        <v>411</v>
-      </c>
-      <c r="H136" t="s">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="I136" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="3:9">
       <c r="C137" t="s">
-        <v>412</v>
-      </c>
-      <c r="H137" t="s">
-        <v>493</v>
+        <v>401</v>
       </c>
       <c r="I137" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="3:9">
       <c r="C138" t="s">
-        <v>249</v>
+        <v>402</v>
       </c>
       <c r="H138" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="I138" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="3:9">
       <c r="C139" t="s">
-        <v>413</v>
+        <v>403</v>
+      </c>
+      <c r="H139" t="s">
+        <v>484</v>
       </c>
       <c r="I139" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="3:9">
       <c r="C140" t="s">
+        <v>244</v>
+      </c>
+      <c r="H140" t="s">
+        <v>485</v>
+      </c>
+      <c r="I140" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9">
+      <c r="C141" t="s">
+        <v>404</v>
+      </c>
+      <c r="I141" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9">
+      <c r="C142" t="s">
+        <v>405</v>
+      </c>
+      <c r="I142" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9">
+      <c r="C143" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="I143" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9">
+      <c r="C144" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="I144" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9">
+      <c r="C145" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="I145" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9">
+      <c r="C146" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="I146" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9">
+      <c r="C147" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="I147" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9">
+      <c r="C148" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="H148" t="s">
+        <v>529</v>
+      </c>
+      <c r="I148" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9">
+      <c r="C149" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="I149" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9">
+      <c r="C150" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="I150" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9">
+      <c r="C151" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I151" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="141" spans="3:9">
-      <c r="C141" s="19" t="s">
+    <row r="152" spans="3:9">
+      <c r="C152" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I152" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="3:9">
-      <c r="C142" s="19" t="s">
+    <row r="153" spans="3:9">
+      <c r="C153" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I153" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="3:9">
-      <c r="C143" s="19" t="s">
+    <row r="154" spans="3:9">
+      <c r="C154" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I154" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="144" spans="3:9">
-      <c r="C144" s="19" t="s">
+    <row r="155" spans="3:9">
+      <c r="C155" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I155" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="3:9">
-      <c r="C145" s="19" t="s">
+    <row r="156" spans="3:9">
+      <c r="C156" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I156" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="146" spans="3:9">
-      <c r="C146" s="19" t="s">
+    <row r="157" spans="3:9">
+      <c r="C157" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="H146" t="s">
-        <v>539</v>
-      </c>
-      <c r="I146" t="s">
+      <c r="I157" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="147" spans="3:9">
-      <c r="C147" s="19" t="s">
+    <row r="158" spans="3:9">
+      <c r="C158" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I158" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9">
+      <c r="C159" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="I159" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="3:9">
-      <c r="C148" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="I148" t="s">
+    <row r="160" spans="3:9">
+      <c r="C160" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="I160" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="149" spans="3:9">
-      <c r="C149" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="I149" t="s">
+    <row r="161" spans="3:9">
+      <c r="C161" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I161" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9">
+      <c r="C162" s="18" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="150" spans="3:9">
-      <c r="C150" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="I162" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9">
+      <c r="C163" s="18" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="151" spans="3:9">
-      <c r="C151" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="I151" t="s">
+      <c r="I163" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9">
+      <c r="C164" s="18" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="152" spans="3:9">
-      <c r="C152" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="I152" t="s">
+      <c r="I164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9">
+      <c r="C165" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="I165" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9">
+      <c r="C166" s="18" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="153" spans="3:9">
-      <c r="C153" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="I153" t="s">
+      <c r="I166" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9">
+      <c r="C167" s="18" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="154" spans="3:9">
-      <c r="C154" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="I167" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9">
+      <c r="C168" s="18" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="155" spans="3:9">
-      <c r="C155" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="I155" t="s">
+      <c r="I168" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9">
+      <c r="C169" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="I169" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9">
+      <c r="C170" s="18" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="156" spans="3:9">
-      <c r="C156" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="I156" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="157" spans="3:9">
-      <c r="C157" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="I157" t="s">
+      <c r="I170" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9">
+      <c r="C171" s="18" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="158" spans="3:9">
-      <c r="C158" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="I158" t="s">
+      <c r="I171" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="172" spans="3:9">
+      <c r="C172" s="18" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="159" spans="3:9">
-      <c r="C159" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I159" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="160" spans="3:9">
-      <c r="C160" s="19" t="s">
+      <c r="I172" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9">
+      <c r="C173" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="I160" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="161" spans="3:9">
-      <c r="C161" s="19" t="s">
+      <c r="I173" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9">
+      <c r="C174" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="I161" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="162" spans="3:9">
-      <c r="C162" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="I162" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="163" spans="3:9">
-      <c r="C163" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="I163" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="164" spans="3:9">
-      <c r="C164" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="I164" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="165" spans="3:9">
-      <c r="C165" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="I165" t="s">
+      <c r="I174" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="3:9">
-      <c r="C166" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="I166" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="167" spans="3:9">
-      <c r="C167" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="I167" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="168" spans="3:9">
-      <c r="C168" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="I168" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="169" spans="3:9">
-      <c r="C169" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="I169" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="170" spans="3:9">
-      <c r="C170" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="I170" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="171" spans="3:9">
-      <c r="C171" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="I171" t="s">
+    <row r="175" spans="3:9">
+      <c r="C175" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H175" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="176" spans="3:9">
+      <c r="C176" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H176" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8">
+      <c r="C177" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="H177" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8">
+      <c r="C178" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="H178" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="3:9">
-      <c r="C172" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="I172" t="s">
+    <row r="179" spans="3:8">
+      <c r="C179" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H179" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8">
+      <c r="C180" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="H180" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8">
+      <c r="C181" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="H181" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8">
+      <c r="H182" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8">
+      <c r="H183" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8">
+      <c r="C184" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="H184" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8">
+      <c r="C185" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H185" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8">
+      <c r="H186" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="173" spans="3:9">
-      <c r="C173" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="H173" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="174" spans="3:9">
-      <c r="C174" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="H174" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="175" spans="3:9">
-      <c r="C175" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="H175" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="176" spans="3:9">
-      <c r="C176" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="H176" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="177" spans="3:8">
-      <c r="C177" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="H177" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="178" spans="3:8">
-      <c r="C178" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="H178" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="179" spans="3:8">
-      <c r="C179" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="H179" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="180" spans="3:8">
-      <c r="H180" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="181" spans="3:8">
-      <c r="H181" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="182" spans="3:8">
-      <c r="C182" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="H182" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="183" spans="3:8">
-      <c r="C183" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="H183" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="184" spans="3:8">
-      <c r="H184" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="185" spans="3:8">
-      <c r="C185" t="s">
-        <v>510</v>
-      </c>
-      <c r="H185" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="186" spans="3:8">
-      <c r="C186" t="s">
-        <v>511</v>
-      </c>
-      <c r="H186" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="187" spans="3:8">
       <c r="C187" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="H187" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="188" spans="3:8">
       <c r="C188" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H188" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="189" spans="3:8">
       <c r="C189" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="H189" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
     </row>
     <row r="190" spans="3:8">
       <c r="C190" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="H190" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="191" spans="3:8">
       <c r="C191" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="H191" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="192" spans="3:8">
       <c r="C192" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="H192" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="193" spans="3:16">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="193" spans="3:19">
       <c r="C193" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="H193" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="194" spans="3:16">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="194" spans="3:19">
       <c r="C194" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="H194" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="195" spans="3:16">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="195" spans="3:19">
       <c r="C195" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H195" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="196" spans="3:19">
+      <c r="C196" t="s">
+        <v>515</v>
+      </c>
+      <c r="H196" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="197" spans="3:19">
+      <c r="C197" t="s">
+        <v>517</v>
+      </c>
+      <c r="H197" t="s">
+        <v>533</v>
+      </c>
+      <c r="S197" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="198" spans="3:19">
+      <c r="C198" t="s">
+        <v>518</v>
+      </c>
+      <c r="H198" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="199" spans="3:19">
+      <c r="H199" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="200" spans="3:19">
+      <c r="H200" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="201" spans="3:19">
+      <c r="H201" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="203" spans="3:19">
+      <c r="H203" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="204" spans="3:19">
+      <c r="H204" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="205" spans="3:19">
+      <c r="H205" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="206" spans="3:19">
+      <c r="H206" t="s">
         <v>543</v>
       </c>
-      <c r="P195" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="196" spans="3:16">
-      <c r="C196" t="s">
-        <v>528</v>
-      </c>
-      <c r="H196" t="s">
+      <c r="Q206" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="207" spans="3:19">
+      <c r="H207" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="208" spans="3:19">
+      <c r="H208" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="209" spans="8:17">
+      <c r="H209" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="210" spans="8:17">
+      <c r="H210" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="211" spans="8:17">
+      <c r="H211" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="212" spans="8:17">
+      <c r="H212" t="s">
+        <v>549</v>
+      </c>
+      <c r="P212" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="213" spans="8:17">
+      <c r="H213" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="214" spans="8:17">
+      <c r="H214" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="215" spans="8:17">
+      <c r="H215" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="216" spans="8:17">
+      <c r="H216" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="217" spans="8:17">
+      <c r="H217" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="218" spans="8:17">
+      <c r="H218" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="219" spans="8:17">
+      <c r="H219" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="220" spans="8:17">
+      <c r="H220" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="221" spans="8:17">
+      <c r="H221" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="223" spans="8:17">
+      <c r="H223" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="224" spans="8:17">
+      <c r="H224" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="225" spans="8:17">
+      <c r="H225" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="226" spans="8:17">
+      <c r="H226" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="227" spans="8:17">
+      <c r="H227" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="228" spans="8:17">
+      <c r="H228" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="229" spans="8:17">
+      <c r="H229" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="230" spans="8:17">
+      <c r="H230" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="231" spans="8:17">
+      <c r="H231" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="232" spans="8:17">
+      <c r="H232" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="233" spans="8:17">
+      <c r="H233" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="234" spans="8:17">
+      <c r="H234" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="235" spans="8:17">
+      <c r="H235" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="236" spans="8:17">
+      <c r="H236" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="237" spans="8:17">
+      <c r="H237" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="238" spans="8:17">
+      <c r="H238" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="239" spans="8:17">
+      <c r="H239" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="240" spans="8:17">
+      <c r="H240" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="241" spans="8:17">
+      <c r="H241" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="242" spans="8:17">
+      <c r="H242" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="243" spans="8:17">
+      <c r="H243" t="s">
+        <v>587</v>
+      </c>
+      <c r="P243" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="244" spans="8:17">
+      <c r="H244" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="245" spans="8:17">
+      <c r="H245" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="246" spans="8:17">
+      <c r="H246" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="247" spans="8:17">
+      <c r="H247" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="248" spans="8:17">
+      <c r="H248" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="249" spans="8:17">
+      <c r="H249" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="250" spans="8:17">
+      <c r="H250" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="251" spans="8:17">
+      <c r="H251" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="252" spans="8:17">
+      <c r="H252" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="253" spans="8:17">
+      <c r="H253" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="254" spans="8:17">
+      <c r="H254" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="255" spans="8:17">
+      <c r="H255" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="256" spans="8:17">
+      <c r="H256" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="257" spans="3:19">
+      <c r="H257" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="258" spans="3:19">
+      <c r="H258" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="259" spans="3:19">
+      <c r="H259" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="260" spans="3:19">
+      <c r="H260" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="261" spans="3:19">
+      <c r="H261" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="262" spans="3:19">
+      <c r="H262" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="263" spans="3:19">
+      <c r="H263" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="264" spans="3:19">
+      <c r="H264" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="265" spans="3:19">
+      <c r="H265" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="266" spans="3:19">
+      <c r="H266" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="267" spans="3:19">
+      <c r="H267" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="268" spans="3:19">
+      <c r="H268" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="269" spans="3:19">
+      <c r="H269" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="197" spans="3:16">
-      <c r="H197" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="198" spans="3:16">
-      <c r="H198" t="s">
-        <v>545</v>
-      </c>
-      <c r="N198" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="199" spans="3:16">
-      <c r="H199" t="s">
-        <v>547</v>
-      </c>
-      <c r="N199" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="200" spans="3:16">
-      <c r="H200" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="201" spans="3:16">
-      <c r="H201" t="s">
-        <v>549</v>
-      </c>
-      <c r="N201" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="202" spans="3:16">
-      <c r="H202" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="203" spans="3:16">
-      <c r="H203" t="s">
-        <v>551</v>
-      </c>
-      <c r="N203" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="204" spans="3:16">
-      <c r="H204" t="s">
-        <v>553</v>
-      </c>
-      <c r="N204" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="205" spans="3:16">
-      <c r="H205" t="s">
-        <v>554</v>
-      </c>
-      <c r="N205" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="206" spans="3:16">
-      <c r="H206" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="207" spans="3:16">
-      <c r="H207" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="208" spans="3:16">
-      <c r="H208" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="209" spans="8:14">
-      <c r="H209" t="s">
-        <v>558</v>
-      </c>
-      <c r="N209" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="210" spans="8:14">
-      <c r="H210" t="s">
-        <v>559</v>
-      </c>
-      <c r="M210" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="211" spans="8:14">
-      <c r="H211" t="s">
+    <row r="270" spans="3:19">
+      <c r="C270" t="s">
+        <v>618</v>
+      </c>
+      <c r="H270" t="s">
+        <v>620</v>
+      </c>
+      <c r="S270" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="274" spans="8:8" s="22" customFormat="1">
+      <c r="H274" s="22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="275" spans="8:8" s="22" customFormat="1">
+      <c r="H275" s="22" t="s">
         <v>560</v>
-      </c>
-      <c r="N211" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="212" spans="8:14">
-      <c r="H212" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="213" spans="8:14">
-      <c r="H213" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="214" spans="8:14">
-      <c r="H214" t="s">
-        <v>563</v>
-      </c>
-      <c r="N214" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="215" spans="8:14">
-      <c r="H215" t="s">
-        <v>564</v>
-      </c>
-      <c r="N215" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="216" spans="8:14">
-      <c r="H216" t="s">
-        <v>566</v>
-      </c>
-      <c r="N216" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="217" spans="8:14">
-      <c r="H217" t="s">
-        <v>567</v>
-      </c>
-      <c r="N217" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="218" spans="8:14">
-      <c r="H218" t="s">
-        <v>568</v>
-      </c>
-      <c r="N218" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="219" spans="8:14">
-      <c r="H219" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="220" spans="8:14">
-      <c r="H220" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="221" spans="8:14">
-      <c r="H221" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="222" spans="8:14">
-      <c r="H222" t="s">
-        <v>572</v>
-      </c>
-      <c r="N222" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="223" spans="8:14">
-      <c r="H223" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="224" spans="8:14">
-      <c r="H224" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="225" spans="8:14">
-      <c r="H225" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="226" spans="8:14">
-      <c r="H226" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="227" spans="8:14">
-      <c r="H227" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="228" spans="8:14">
-      <c r="H228" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="229" spans="8:14">
-      <c r="H229" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="230" spans="8:14">
-      <c r="H230" t="s">
-        <v>580</v>
-      </c>
-      <c r="N230" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="231" spans="8:14">
-      <c r="H231" t="s">
-        <v>582</v>
-      </c>
-      <c r="N231" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="232" spans="8:14">
-      <c r="H232" t="s">
-        <v>583</v>
-      </c>
-      <c r="N232" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="233" spans="8:14">
-      <c r="H233" t="s">
-        <v>584</v>
-      </c>
-      <c r="N233" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="234" spans="8:14">
-      <c r="H234" t="s">
-        <v>585</v>
-      </c>
-      <c r="N234" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="235" spans="8:14">
-      <c r="H235" t="s">
-        <v>586</v>
-      </c>
-      <c r="N235" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="236" spans="8:14">
-      <c r="H236" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="237" spans="8:14">
-      <c r="H237" t="s">
-        <v>588</v>
-      </c>
-      <c r="N237" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="238" spans="8:14">
-      <c r="H238" t="s">
-        <v>590</v>
-      </c>
-      <c r="N238" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="239" spans="8:14">
-      <c r="H239" t="s">
-        <v>592</v>
-      </c>
-      <c r="N239" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="240" spans="8:14">
-      <c r="H240" t="s">
-        <v>594</v>
-      </c>
-      <c r="N240" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="241" spans="8:14">
-      <c r="H241" t="s">
-        <v>597</v>
-      </c>
-      <c r="M241" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="242" spans="8:14">
-      <c r="H242" t="s">
-        <v>599</v>
-      </c>
-      <c r="N242" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="243" spans="8:14">
-      <c r="H243" t="s">
-        <v>600</v>
-      </c>
-      <c r="N243" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="244" spans="8:14">
-      <c r="H244" t="s">
-        <v>601</v>
-      </c>
-      <c r="N244" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="245" spans="8:14">
-      <c r="H245" t="s">
-        <v>602</v>
-      </c>
-      <c r="N245" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="246" spans="8:14">
-      <c r="H246" t="s">
-        <v>603</v>
-      </c>
-      <c r="N246" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="247" spans="8:14">
-      <c r="H247" t="s">
-        <v>604</v>
-      </c>
-      <c r="N247" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="248" spans="8:14">
-      <c r="H248" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="249" spans="8:14">
-      <c r="H249" t="s">
-        <v>606</v>
-      </c>
-      <c r="N249" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="250" spans="8:14">
-      <c r="H250" t="s">
-        <v>607</v>
-      </c>
-      <c r="N250" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="251" spans="8:14">
-      <c r="H251" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="252" spans="8:14">
-      <c r="H252" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="253" spans="8:14">
-      <c r="H253" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="254" spans="8:14">
-      <c r="H254" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="255" spans="8:14">
-      <c r="H255" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="256" spans="8:14">
-      <c r="H256" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="257" spans="3:16">
-      <c r="H257" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="258" spans="3:16">
-      <c r="H258" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="259" spans="3:16">
-      <c r="H259" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="260" spans="3:16">
-      <c r="H260" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="261" spans="3:16">
-      <c r="H261" t="s">
-        <v>619</v>
-      </c>
-      <c r="N261" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="262" spans="3:16">
-      <c r="H262" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="263" spans="3:16">
-      <c r="H263" t="s">
-        <v>622</v>
-      </c>
-      <c r="N263" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="264" spans="3:16">
-      <c r="H264" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="265" spans="3:16">
-      <c r="H265" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="266" spans="3:16">
-      <c r="H266" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="267" spans="3:16">
-      <c r="H267" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="268" spans="3:16">
-      <c r="C268" t="s">
-        <v>628</v>
-      </c>
-      <c r="H268" t="s">
-        <v>630</v>
-      </c>
-      <c r="P268" t="s">
-        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -5801,130 +5966,130 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
         <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="B10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G10" s="10"/>
+        <v>279</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5941,620 +6106,620 @@
       <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
         <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>305</v>
+        <v>185</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>361</v>
+        <v>186</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11" t="s">
-        <v>190</v>
+      <c r="A10" s="10" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
-        <v>192</v>
+      <c r="A12" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>307</v>
+        <v>190</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>319</v>
+        <v>307</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>321</v>
+        <v>308</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18" t="s">
-        <v>200</v>
+      <c r="A20" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>324</v>
+      <c r="A21" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="F22" s="10"/>
+        <v>197</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>328</v>
+        <v>198</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>315</v>
+        <v>199</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+        <v>200</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="11" t="s">
-        <v>206</v>
+      <c r="A26" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" t="s">
         <v>261</v>
-      </c>
-      <c r="C26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>301</v>
+        <v>204</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
-        <v>210</v>
+      <c r="A30" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>330</v>
+        <v>206</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>362</v>
+      <c r="A32" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
-      </c>
-      <c r="G32" s="10"/>
+        <v>264</v>
+      </c>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>364</v>
+        <v>208</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B40" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="10" t="s">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C44" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" t="s">
         <v>270</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" t="s">
         <v>272</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C49" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="15" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B49" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>378</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>319</v>
+        <v>373</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>379</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>321</v>
+        <v>374</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>486</v>
+      <c r="A55" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="C55" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6570,7 +6735,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -6619,21 +6784,21 @@
         <v>97</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>101</v>
@@ -6641,18 +6806,18 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -6661,17 +6826,17 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -6680,163 +6845,163 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>333</v>
+        <v>311</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="C9" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:16">
       <c r="C10" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="C11" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" t="s">
         <v>346</v>
       </c>
-      <c r="B17" t="s">
-        <v>351</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="C21" s="3" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E21" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="M21" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="N21" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F7DBBC-61EC-8C46-8EA1-51016C8E34E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A1572-9172-4ED9-9210-5E503C5A9884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="628">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>orbit of skull length</t>
-  </si>
-  <si>
-    <t>width of the skull at the center of the orbits</t>
   </si>
   <si>
     <t>palatine length</t>
@@ -1681,9 +1678,6 @@
   </si>
   <si>
     <t>greatest palatal breadth</t>
-  </si>
-  <si>
-    <t>greatest breadth of the premaxilla (greatest breadth across the premaxilla 38 -ovis+capra; 36 - cervus; 28 - camel)</t>
   </si>
   <si>
     <t>height of the horizontal part of the maxilla ( 31 - camel)</t>
@@ -1975,9 +1969,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2021,13 +2022,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -2045,11 +2039,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -2101,20 +2090,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2129,11 +2115,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2449,14 +2436,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
-  <dimension ref="A1:T275"/>
+  <dimension ref="A1:T300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
@@ -2475,10 +2462,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" t="s">
-        <v>150</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -2490,275 +2477,152 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" t="s">
         <v>176</v>
       </c>
-      <c r="M1" t="s">
-        <v>177</v>
-      </c>
       <c r="N1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" t="s">
         <v>147</v>
       </c>
-      <c r="O1" t="s">
-        <v>148</v>
-      </c>
       <c r="P1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="20" customFormat="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="I2" s="20">
+        <v>2</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="20" customFormat="1">
+      <c r="E3" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="22" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="I2" s="22">
-        <v>2</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="22" customFormat="1">
-      <c r="E3" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+    <row r="4" spans="1:20" s="20" customFormat="1">
+      <c r="H4" s="20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="20" customFormat="1">
+      <c r="H5" s="20" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" t="s">
+        <v>616</v>
+      </c>
       <c r="H6" t="s">
-        <v>555</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+        <v>618</v>
+      </c>
+      <c r="S6" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="H7" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="C8" t="s">
+        <v>516</v>
+      </c>
+      <c r="H8" t="s">
+        <v>532</v>
+      </c>
+      <c r="S8" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2774,13 +2638,17 @@
     <row r="12" spans="1:20">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2796,96 +2664,41 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="C13" t="s">
+        <v>402</v>
+      </c>
+      <c r="H13" t="s">
+        <v>483</v>
+      </c>
+      <c r="I13" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="H14" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="H15" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2902,472 +2715,275 @@
     <row r="17" spans="1:20">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>524</v>
+        <v>393</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="N17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="3">
+        <v>18</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I19" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="P20" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="N21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="C22" t="s">
+        <v>505</v>
+      </c>
+      <c r="H22" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="H23" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="F24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="H24" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="N25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O25" s="3">
-        <v>2</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="H25" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="1"/>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>9</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="S26" s="1"/>
+      <c r="C26" t="s">
+        <v>399</v>
+      </c>
+      <c r="I26" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="N27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>10</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="I28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1" t="s">
-        <v>377</v>
-      </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="3"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="H30" t="s">
-        <v>526</v>
-      </c>
-      <c r="I30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="N30" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O31" s="3">
-        <v>35</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q31" s="3"/>
-      <c r="T31" s="1"/>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>36</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q32" s="3"/>
-      <c r="T32" s="1"/>
+      <c r="C32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q33" s="3"/>
-      <c r="T33" s="1"/>
+      <c r="C33" t="s">
+        <v>501</v>
+      </c>
+      <c r="H33" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O34" s="3">
-        <v>12</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>114</v>
+      <c r="H34" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O35" s="3">
-        <v>17</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -3376,373 +2992,270 @@
     <row r="36" spans="1:20">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" t="s">
+        <v>553</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="H37" t="s">
+        <v>547</v>
+      </c>
+      <c r="P37" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O38" s="3">
-        <v>13</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>118</v>
+      <c r="H38" t="s">
+        <v>585</v>
+      </c>
+      <c r="P38" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O39" s="3">
-        <v>18</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
+      <c r="H39" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>386</v>
-      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O40" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="O40" s="1">
+        <v>27</v>
+      </c>
       <c r="P40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O41" s="1"/>
-      <c r="P41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="T41" s="1"/>
+      <c r="C41" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I41" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>385</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="1"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>6</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="3"/>
+      <c r="B44" s="1"/>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" t="s">
+        <v>161</v>
+      </c>
+      <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q45" s="3"/>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="3" t="s">
-        <v>124</v>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" t="s">
+        <v>174</v>
       </c>
       <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="3"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" t="s">
+        <v>174</v>
+      </c>
+      <c r="S47" s="3"/>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O49" s="1">
-        <v>7</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="P50" s="1"/>
+      <c r="H50" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O51" s="3">
-        <v>5</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="3"/>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1"/>
       <c r="H52" s="1"/>
@@ -3752,20 +3265,24 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="O52" s="1">
+        <v>14</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="T52" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="Q52" s="3"/>
+      <c r="T52" s="3"/>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3773,19 +3290,22 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="O53" s="1">
+        <v>15</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q53" s="3"/>
+      <c r="T53" s="3"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="1"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D54" s="1"/>
       <c r="H54" s="1"/>
@@ -3795,96 +3315,60 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="O54" s="1">
+        <v>16</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="3"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O55" s="1">
-        <v>27</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>132</v>
+      <c r="H55" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O56" s="1">
-        <v>28</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q56" s="3"/>
-      <c r="T56" s="3"/>
+      <c r="H56" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O57" s="1">
-        <v>29</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="1"/>
       <c r="H58" s="1"/>
@@ -3894,13 +3378,13 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O58" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="T58" s="3"/>
@@ -3908,33 +3392,34 @@
     <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O59" s="1">
-        <v>15</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="3"/>
+      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D60" s="1"/>
       <c r="H60" s="1"/>
@@ -3944,21 +3429,22 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O60" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q60" s="3"/>
+      <c r="T60" s="3"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1"/>
       <c r="H61" s="1"/>
@@ -3967,19 +3453,24 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
+      <c r="N61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O61" s="3">
+        <v>11</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="3"/>
+      <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="3"/>
+      <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1"/>
       <c r="H62" s="1"/>
@@ -3989,1694 +3480,1800 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O62" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="O62" s="3">
+        <v>11</v>
+      </c>
       <c r="P62" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="R62" s="1"/>
-      <c r="T62" s="3"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="N63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
+      <c r="C63" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" t="s">
+        <v>165</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I63" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="3"/>
+      <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20">
-      <c r="A65" s="3"/>
+      <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O66" s="1">
-        <v>37</v>
-      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
+      <c r="F67" t="s">
+        <v>175</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="I67" s="3"/>
       <c r="N67" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O67" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="O67" s="3">
+        <v>1</v>
+      </c>
       <c r="P67" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q67" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-      <c r="T67" s="3"/>
+      <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="3"/>
+      <c r="C68" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="H68" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="C69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
+      <c r="N69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O69" s="3">
+        <v>9</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:20">
-      <c r="A70" s="3"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
+      <c r="A70" s="1"/>
+      <c r="C70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="N70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O70" s="3">
+        <v>10</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="71" spans="1:20">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1">
-        <v>21</v>
+      <c r="C71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1">
-        <v>22</v>
+      <c r="C72" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:20">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="C73" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="74" spans="1:20">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1">
-        <v>20</v>
-      </c>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
+      <c r="C74" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1">
-        <v>20</v>
-      </c>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O75" s="3">
+        <v>12</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="76" spans="1:20">
-      <c r="A76" s="3"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1">
-        <v>23</v>
-      </c>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
+      <c r="C76" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="H76" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="77" spans="1:20">
-      <c r="A77" s="3"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1">
-        <v>23</v>
-      </c>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
+      <c r="C77" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="H77" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="3"/>
-      <c r="B78" s="1"/>
       <c r="C78" t="s">
-        <v>182</v>
-      </c>
-      <c r="F78" t="s">
-        <v>176</v>
-      </c>
-      <c r="G78" t="s">
-        <v>152</v>
+        <v>508</v>
+      </c>
+      <c r="H78" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:20">
-      <c r="A79" s="3"/>
-      <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>183</v>
-      </c>
-      <c r="F79" t="s">
-        <v>177</v>
-      </c>
-      <c r="G79" t="s">
-        <v>153</v>
+        <v>512</v>
+      </c>
+      <c r="H79" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="3"/>
-      <c r="B80" s="1"/>
-      <c r="C80" t="s">
-        <v>184</v>
-      </c>
-      <c r="F80" t="s">
-        <v>177</v>
-      </c>
-      <c r="G80" t="s">
-        <v>154</v>
+      <c r="C80" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="I80" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:20">
-      <c r="A81" s="3"/>
-      <c r="B81" s="1"/>
       <c r="C81" t="s">
-        <v>185</v>
-      </c>
-      <c r="F81" t="s">
-        <v>178</v>
-      </c>
-      <c r="G81" t="s">
-        <v>155</v>
+        <v>517</v>
+      </c>
+      <c r="H81" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:20">
-      <c r="A82" s="3"/>
+      <c r="A82" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="B82" s="1"/>
-      <c r="C82" t="s">
-        <v>186</v>
-      </c>
-      <c r="F82" t="s">
-        <v>179</v>
-      </c>
-      <c r="G82" t="s">
-        <v>156</v>
-      </c>
+      <c r="C82" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="H82" t="s">
+        <v>525</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F83" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G83" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:20">
-      <c r="A84" s="3"/>
-      <c r="B84" s="1"/>
-      <c r="C84" t="s">
-        <v>188</v>
-      </c>
-      <c r="F84" t="s">
-        <v>179</v>
-      </c>
-      <c r="G84" t="s">
-        <v>158</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>378</v>
+      <c r="H84" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:20">
-      <c r="A85" s="3"/>
+      <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" t="s">
-        <v>189</v>
-      </c>
-      <c r="F85" t="s">
-        <v>180</v>
-      </c>
-      <c r="G85" t="s">
-        <v>159</v>
-      </c>
+      <c r="C85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O85" s="3">
+        <v>35</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q85" s="3"/>
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20">
-      <c r="A86" s="3"/>
-      <c r="B86" s="1"/>
       <c r="C86" t="s">
-        <v>190</v>
-      </c>
-      <c r="F86" t="s">
-        <v>179</v>
-      </c>
-      <c r="G86" t="s">
-        <v>160</v>
-      </c>
-      <c r="H86" t="s">
-        <v>398</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="3"/>
+      <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" t="s">
-        <v>191</v>
-      </c>
-      <c r="F87" t="s">
-        <v>180</v>
-      </c>
-      <c r="G87" t="s">
-        <v>161</v>
-      </c>
-      <c r="H87" t="s">
-        <v>527</v>
-      </c>
+      <c r="C87" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O87" s="3">
+        <v>36</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q87" s="3"/>
+      <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="3"/>
-      <c r="B88" s="1"/>
       <c r="C88" t="s">
-        <v>192</v>
-      </c>
-      <c r="F88" t="s">
-        <v>179</v>
-      </c>
-      <c r="G88" t="s">
-        <v>162</v>
-      </c>
-      <c r="T88" s="1"/>
+        <v>215</v>
+      </c>
     </row>
     <row r="89" spans="1:20">
-      <c r="A89" s="3"/>
+      <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" t="s">
-        <v>179</v>
-      </c>
-      <c r="G89" t="s">
-        <v>162</v>
-      </c>
+      <c r="C89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O89" s="1"/>
+      <c r="P89" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q89" s="3"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="C90" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="H91" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
     </row>
     <row r="93" spans="1:20">
-      <c r="A93" s="3"/>
-      <c r="B93" s="1"/>
       <c r="C93" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" t="s">
-        <v>176</v>
-      </c>
-      <c r="G93" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:20">
-      <c r="A94" s="3"/>
+      <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" t="s">
-        <v>177</v>
-      </c>
-      <c r="G94" t="s">
-        <v>164</v>
-      </c>
+      <c r="C94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="3"/>
-      <c r="B95" s="1"/>
       <c r="C95" t="s">
-        <v>197</v>
-      </c>
-      <c r="F95" t="s">
-        <v>179</v>
-      </c>
-      <c r="G95" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
-      <c r="C96" t="s">
-        <v>198</v>
-      </c>
-      <c r="F96" t="s">
-        <v>179</v>
-      </c>
-      <c r="G96" t="s">
-        <v>165</v>
-      </c>
+      <c r="C96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T96" s="1"/>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G97" t="s">
-        <v>166</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I97" t="s">
-        <v>379</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G98" t="s">
-        <v>167</v>
-      </c>
-      <c r="H98" t="s">
-        <v>579</v>
-      </c>
-      <c r="I98" t="s">
-        <v>387</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:20">
-      <c r="C99" t="s">
-        <v>201</v>
-      </c>
-      <c r="F99" t="s">
-        <v>180</v>
-      </c>
-      <c r="G99" t="s">
-        <v>168</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O99" s="1"/>
+      <c r="P99" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q99" s="3"/>
     </row>
     <row r="100" spans="1:20">
-      <c r="C100" t="s">
-        <v>202</v>
-      </c>
-      <c r="F100" t="s">
-        <v>180</v>
-      </c>
-      <c r="G100" t="s">
-        <v>169</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O100" s="3">
+        <v>17</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
     </row>
     <row r="101" spans="1:20">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
       <c r="C101" t="s">
-        <v>203</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="1"/>
-      <c r="F101" t="s">
-        <v>180</v>
-      </c>
-      <c r="G101" t="s">
-        <v>170</v>
-      </c>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
+        <v>218</v>
+      </c>
     </row>
     <row r="102" spans="1:20">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" t="s">
-        <v>204</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="1"/>
-      <c r="F102" t="s">
-        <v>176</v>
-      </c>
-      <c r="G102" t="s">
-        <v>171</v>
-      </c>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
+      <c r="C102" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="H102" t="s">
+        <v>528</v>
+      </c>
+      <c r="I102" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="103" spans="1:20">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="1"/>
-      <c r="F103" t="s">
-        <v>180</v>
-      </c>
-      <c r="G103" t="s">
-        <v>172</v>
-      </c>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
+      <c r="C103" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I103" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
-      <c r="C104" t="s">
-        <v>206</v>
-      </c>
-      <c r="F104" t="s">
-        <v>180</v>
-      </c>
-      <c r="G104" t="s">
-        <v>173</v>
-      </c>
-      <c r="S104" s="1"/>
+      <c r="C104" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="H104" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O104" s="3">
+        <v>13</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F105" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G105" t="s">
-        <v>174</v>
-      </c>
-      <c r="S105" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="H105" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="106" spans="1:20">
-      <c r="A106" s="3"/>
-      <c r="B106" s="1"/>
       <c r="C106" t="s">
-        <v>208</v>
-      </c>
-      <c r="F106" t="s">
-        <v>180</v>
-      </c>
-      <c r="G106" t="s">
-        <v>175</v>
-      </c>
-      <c r="S106" s="1"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="3"/>
       <c r="B107" s="1"/>
-      <c r="C107" t="s">
-        <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>180</v>
-      </c>
-      <c r="G107" t="s">
-        <v>175</v>
-      </c>
-      <c r="S107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O107" s="1"/>
+      <c r="P107" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
     </row>
     <row r="108" spans="1:20">
-      <c r="C108" t="s">
-        <v>210</v>
-      </c>
-      <c r="H108" t="s">
-        <v>528</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O108" s="1"/>
+      <c r="P108" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="T108" s="1"/>
     </row>
     <row r="109" spans="1:20">
       <c r="C109" t="s">
-        <v>211</v>
+        <v>507</v>
+      </c>
+      <c r="H109" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="1:20">
-      <c r="C110" t="s">
-        <v>212</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="H110" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O110" s="1"/>
+      <c r="P110" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="T110" s="1"/>
     </row>
     <row r="111" spans="1:20">
       <c r="C111" t="s">
-        <v>213</v>
+        <v>222</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="C112" t="s">
-        <v>214</v>
-      </c>
-      <c r="H112" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9">
+        <v>224</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I112" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="C113" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9">
+        <v>225</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I113" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="C114" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="C115" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
       <c r="C116" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9">
+        <v>228</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I116" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="C117" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="118" spans="3:9">
-      <c r="C118" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9">
+        <v>229</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I117" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O118" s="1"/>
+      <c r="P118" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119" spans="1:20">
       <c r="C119" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120" s="3"/>
+      <c r="B120" s="1"/>
       <c r="C120" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="121" spans="3:9">
+        <v>188</v>
+      </c>
+      <c r="F120" t="s">
+        <v>179</v>
+      </c>
+      <c r="G120" t="s">
+        <v>158</v>
+      </c>
+      <c r="T120" s="1"/>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121" s="3"/>
+      <c r="B121" s="1"/>
       <c r="C121" t="s">
-        <v>223</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I121" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9">
-      <c r="C122" t="s">
-        <v>224</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I122" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9">
-      <c r="C123" t="s">
-        <v>225</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I123" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9">
-      <c r="C124" t="s">
-        <v>226</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I124" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="125" spans="3:9">
-      <c r="C125" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="126" spans="3:9">
+        <v>194</v>
+      </c>
+      <c r="F121" t="s">
+        <v>175</v>
+      </c>
+      <c r="G121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O122" s="1">
+        <v>7</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="H123" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="H124" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O125" s="3">
+        <v>5</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126" s="3"/>
+      <c r="B126" s="1"/>
       <c r="C126" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="127" spans="3:9">
+        <v>199</v>
+      </c>
+      <c r="F126" t="s">
+        <v>178</v>
+      </c>
+      <c r="G126" t="s">
+        <v>166</v>
+      </c>
+      <c r="H126" t="s">
+        <v>577</v>
+      </c>
+      <c r="I126" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
+      <c r="A127" s="3"/>
+      <c r="B127" s="1"/>
       <c r="C127" t="s">
-        <v>229</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I127" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9">
-      <c r="C128" t="s">
-        <v>230</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I128" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="130" spans="3:9">
-      <c r="C130" s="23"/>
-    </row>
-    <row r="133" spans="3:9">
-      <c r="C133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F127" t="s">
+        <v>178</v>
+      </c>
+      <c r="G127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
+      <c r="H128" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
+      <c r="H129" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
+      <c r="A130" s="3"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P130" s="1"/>
+    </row>
+    <row r="131" spans="1:20">
+      <c r="C131" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="I131" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
+      <c r="H132" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
+      <c r="C133" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="I133" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
+      <c r="C134" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="I134" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
+      <c r="C135" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I135" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
+      <c r="C136" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="I136" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
+      <c r="C137" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="I137" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
+      <c r="C138" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="I138" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+    </row>
+    <row r="140" spans="1:20">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="3"/>
+    </row>
+    <row r="141" spans="1:20">
+      <c r="A141" s="3"/>
+      <c r="B141" s="1"/>
+      <c r="C141" t="s">
+        <v>185</v>
+      </c>
+      <c r="F141" t="s">
+        <v>178</v>
+      </c>
+      <c r="G141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
+      <c r="A142" s="3"/>
+      <c r="B142" s="1"/>
+      <c r="C142" t="s">
+        <v>186</v>
+      </c>
+      <c r="F142" t="s">
+        <v>178</v>
+      </c>
+      <c r="G142" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
+      <c r="A143" s="3"/>
+      <c r="B143" s="1"/>
+      <c r="C143" t="s">
+        <v>181</v>
+      </c>
+      <c r="F143" t="s">
+        <v>175</v>
+      </c>
+      <c r="G143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
+      <c r="A144" s="3"/>
+      <c r="B144" s="1"/>
+      <c r="C144" t="s">
+        <v>195</v>
+      </c>
+      <c r="F144" t="s">
+        <v>176</v>
+      </c>
+      <c r="G144" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
+      <c r="C145" t="s">
+        <v>400</v>
+      </c>
+      <c r="I145" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
+      <c r="C146" t="s">
+        <v>401</v>
+      </c>
+      <c r="H146" t="s">
+        <v>482</v>
+      </c>
+      <c r="I146" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
+      <c r="A151" s="3"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="155" spans="1:20">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+    </row>
+    <row r="156" spans="1:20">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+    </row>
+    <row r="158" spans="1:20">
+      <c r="A158" s="3"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O158" s="1"/>
+      <c r="P158" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="R158" s="1"/>
+      <c r="T158" s="3"/>
+    </row>
+    <row r="159" spans="1:20">
+      <c r="A159" s="3"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="N159" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P159" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+    </row>
+    <row r="160" spans="1:20">
+      <c r="A160" s="3"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O160" s="1"/>
+      <c r="P160" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q160" s="1"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+    </row>
+    <row r="161" spans="1:20">
+      <c r="A161" s="3"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+    </row>
+    <row r="162" spans="1:20">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O162" s="1">
+        <v>37</v>
+      </c>
+      <c r="P162" s="1"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+    </row>
+    <row r="163" spans="1:20">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O163" s="1"/>
+      <c r="P163" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q163" s="3"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="3"/>
+    </row>
+    <row r="164" spans="1:20">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="3"/>
+    </row>
+    <row r="165" spans="1:20">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+    </row>
+    <row r="166" spans="1:20">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+    </row>
+    <row r="167" spans="1:20">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" t="s">
+        <v>203</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="1"/>
+      <c r="F167" t="s">
+        <v>175</v>
+      </c>
+      <c r="G167" t="s">
+        <v>170</v>
+      </c>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+    </row>
+    <row r="168" spans="1:20">
+      <c r="A168" s="3"/>
+      <c r="B168" s="1"/>
+      <c r="C168" t="s">
+        <v>205</v>
+      </c>
+      <c r="F168" t="s">
+        <v>179</v>
+      </c>
+      <c r="G168" t="s">
+        <v>172</v>
+      </c>
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169" spans="1:20">
+      <c r="A169" s="3"/>
+      <c r="B169" s="1"/>
+      <c r="C169" t="s">
+        <v>206</v>
+      </c>
+      <c r="F169" t="s">
+        <v>179</v>
+      </c>
+      <c r="G169" t="s">
+        <v>173</v>
+      </c>
+      <c r="S169" s="1"/>
+    </row>
+    <row r="171" spans="1:20">
+      <c r="C171" s="21" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="3:9">
-      <c r="C134" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="135" spans="3:9">
-      <c r="C135" t="s">
-        <v>276</v>
-      </c>
-      <c r="I135" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="136" spans="3:9">
-      <c r="C136" t="s">
-        <v>400</v>
-      </c>
-      <c r="I136" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="137" spans="3:9">
-      <c r="C137" t="s">
-        <v>401</v>
-      </c>
-      <c r="I137" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="138" spans="3:9">
-      <c r="C138" t="s">
-        <v>402</v>
-      </c>
-      <c r="H138" t="s">
+    <row r="172" spans="1:20">
+      <c r="C172" t="s">
+        <v>275</v>
+      </c>
+      <c r="I172" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
+      <c r="C174" t="s">
+        <v>243</v>
+      </c>
+      <c r="H174" t="s">
+        <v>484</v>
+      </c>
+      <c r="I174" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
+      <c r="C175" t="s">
+        <v>403</v>
+      </c>
+      <c r="I175" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
+      <c r="C176" t="s">
+        <v>404</v>
+      </c>
+      <c r="I176" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="177" spans="3:9">
+      <c r="C177" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="I177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="179" spans="3:9">
+      <c r="C179" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="I179" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="180" spans="3:9">
+      <c r="C180" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="I180" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="183" spans="3:9">
+      <c r="C183" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="I183" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="184" spans="3:9">
+      <c r="C184" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="I184" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="185" spans="3:9">
+      <c r="C185" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="I185" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="187" spans="3:9">
+      <c r="C187" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="H187" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="188" spans="3:9">
+      <c r="C188" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="H188" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="189" spans="3:9">
+      <c r="C189" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="H189" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="190" spans="3:9">
+      <c r="C190" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="H190" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="191" spans="3:9">
+      <c r="C191" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="H191" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="192" spans="3:9">
+      <c r="C192" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="H192" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="193" spans="3:17">
+      <c r="H193" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="194" spans="3:17">
+      <c r="H194" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="195" spans="3:17">
+      <c r="H195" t="s">
         <v>483</v>
       </c>
-      <c r="I138" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="139" spans="3:9">
-      <c r="C139" t="s">
-        <v>403</v>
-      </c>
-      <c r="H139" t="s">
-        <v>484</v>
-      </c>
-      <c r="I139" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="140" spans="3:9">
-      <c r="C140" t="s">
-        <v>244</v>
-      </c>
-      <c r="H140" t="s">
-        <v>485</v>
-      </c>
-      <c r="I140" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="141" spans="3:9">
-      <c r="C141" t="s">
-        <v>404</v>
-      </c>
-      <c r="I141" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="142" spans="3:9">
-      <c r="C142" t="s">
-        <v>405</v>
-      </c>
-      <c r="I142" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="143" spans="3:9">
-      <c r="C143" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="I143" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="144" spans="3:9">
-      <c r="C144" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="I144" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="145" spans="3:9">
-      <c r="C145" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="I145" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="146" spans="3:9">
-      <c r="C146" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="I146" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="147" spans="3:9">
-      <c r="C147" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="I147" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="148" spans="3:9">
-      <c r="C148" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="H148" t="s">
-        <v>529</v>
-      </c>
-      <c r="I148" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="149" spans="3:9">
-      <c r="C149" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="I149" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="150" spans="3:9">
-      <c r="C150" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="I150" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="151" spans="3:9">
-      <c r="C151" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="I151" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="152" spans="3:9">
-      <c r="C152" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="I152" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="153" spans="3:9">
-      <c r="C153" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="I153" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="154" spans="3:9">
-      <c r="C154" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="I154" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="155" spans="3:9">
-      <c r="C155" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="I155" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="156" spans="3:9">
-      <c r="C156" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="I156" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="157" spans="3:9">
-      <c r="C157" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="I157" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="158" spans="3:9">
-      <c r="C158" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="I158" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="159" spans="3:9">
-      <c r="C159" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="I159" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="160" spans="3:9">
-      <c r="C160" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="I160" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="161" spans="3:9">
-      <c r="C161" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I161" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="162" spans="3:9">
-      <c r="C162" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="I162" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="163" spans="3:9">
-      <c r="C163" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="I163" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="164" spans="3:9">
-      <c r="C164" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="I164" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="165" spans="3:9">
-      <c r="C165" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="I165" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="166" spans="3:9">
-      <c r="C166" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="I166" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="167" spans="3:9">
-      <c r="C167" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="I167" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="168" spans="3:9">
-      <c r="C168" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="I168" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="169" spans="3:9">
-      <c r="C169" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="I169" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="170" spans="3:9">
-      <c r="C170" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="I170" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="171" spans="3:9">
-      <c r="C171" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="I171" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="172" spans="3:9">
-      <c r="C172" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="I172" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="173" spans="3:9">
-      <c r="C173" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="I173" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="174" spans="3:9">
-      <c r="C174" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="I174" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="175" spans="3:9">
-      <c r="C175" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="H175" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="176" spans="3:9">
-      <c r="C176" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="H176" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="177" spans="3:8">
-      <c r="C177" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="H177" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="178" spans="3:8">
-      <c r="C178" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="H178" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="179" spans="3:8">
-      <c r="C179" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="H179" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="180" spans="3:8">
-      <c r="C180" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="H180" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="181" spans="3:8">
-      <c r="C181" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="H181" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="182" spans="3:8">
-      <c r="H182" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="183" spans="3:8">
-      <c r="H183" t="s">
+    </row>
+    <row r="196" spans="3:17">
+      <c r="C196" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="184" spans="3:8">
-      <c r="C184" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="H184" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="185" spans="3:8">
-      <c r="C185" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="H185" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="186" spans="3:8">
-      <c r="H186" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="187" spans="3:8">
-      <c r="C187" t="s">
-        <v>501</v>
-      </c>
-      <c r="H187" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="188" spans="3:8">
-      <c r="C188" t="s">
+      <c r="H196" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="198" spans="3:17">
+      <c r="C198" t="s">
         <v>502</v>
       </c>
-      <c r="H188" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="189" spans="3:8">
-      <c r="C189" t="s">
+      <c r="H198" t="s">
         <v>503</v>
       </c>
-      <c r="H189" t="s">
+    </row>
+    <row r="199" spans="3:17">
+      <c r="C199" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="190" spans="3:8">
-      <c r="C190" t="s">
-        <v>505</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="H199" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="201" spans="3:17">
+      <c r="C201" t="s">
+        <v>506</v>
+      </c>
+      <c r="H201" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="191" spans="3:8">
-      <c r="C191" t="s">
-        <v>506</v>
-      </c>
-      <c r="H191" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="192" spans="3:8">
-      <c r="C192" t="s">
-        <v>507</v>
-      </c>
-      <c r="H192" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="193" spans="3:19">
-      <c r="C193" t="s">
-        <v>508</v>
-      </c>
-      <c r="H193" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="194" spans="3:19">
-      <c r="C194" t="s">
-        <v>509</v>
-      </c>
-      <c r="H194" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="195" spans="3:19">
-      <c r="C195" t="s">
-        <v>513</v>
-      </c>
-      <c r="H195" t="s">
+    <row r="202" spans="3:17">
+      <c r="C202" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="196" spans="3:19">
-      <c r="C196" t="s">
+      <c r="H202" t="s">
         <v>515</v>
       </c>
-      <c r="H196" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="197" spans="3:19">
-      <c r="C197" t="s">
-        <v>517</v>
-      </c>
-      <c r="H197" t="s">
+    </row>
+    <row r="203" spans="3:17">
+      <c r="H203" t="s">
         <v>533</v>
       </c>
-      <c r="S197" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="198" spans="3:19">
-      <c r="C198" t="s">
-        <v>518</v>
-      </c>
-      <c r="H198" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="199" spans="3:19">
-      <c r="H199" t="s">
+      <c r="Q203" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="200" spans="3:19">
-      <c r="H200" t="s">
+    <row r="204" spans="3:17">
+      <c r="H204" t="s">
         <v>535</v>
       </c>
-      <c r="Q200" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="201" spans="3:19">
-      <c r="H201" t="s">
+      <c r="Q204" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="206" spans="3:17">
+      <c r="H206" t="s">
         <v>537</v>
       </c>
-      <c r="Q201" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="203" spans="3:19">
-      <c r="H203" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q203" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="204" spans="3:19">
-      <c r="H204" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="205" spans="3:19">
-      <c r="H205" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q205" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="206" spans="3:19">
-      <c r="H206" t="s">
-        <v>543</v>
-      </c>
       <c r="Q206" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="207" spans="3:19">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="207" spans="3:17">
       <c r="H207" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q207" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="208" spans="3:19">
-      <c r="H208" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="209" spans="8:17">
       <c r="H209" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="210" spans="8:17">
-      <c r="H210" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="211" spans="8:17">
-      <c r="H211" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>542</v>
+        <v>541</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="212" spans="8:17">
       <c r="H212" t="s">
-        <v>549</v>
-      </c>
-      <c r="P212" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="213" spans="8:17">
-      <c r="H213" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="214" spans="8:17">
       <c r="H214" t="s">
-        <v>551</v>
+        <v>548</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="215" spans="8:17">
       <c r="H215" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="216" spans="8:17">
       <c r="H216" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" spans="8:17">
       <c r="H217" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="Q217" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="218" spans="8:17">
       <c r="H218" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Q218" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="219" spans="8:17">
       <c r="H219" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q219" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="220" spans="8:17">
       <c r="H220" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Q220" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="221" spans="8:17">
-      <c r="H221" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
     </row>
     <row r="223" spans="8:17">
       <c r="H223" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="224" spans="8:17">
       <c r="H224" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q224" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="225" spans="8:17">
       <c r="H225" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="226" spans="8:17">
       <c r="H226" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="227" spans="8:17">
       <c r="H227" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="228" spans="8:17">
       <c r="H228" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="229" spans="8:17">
-      <c r="H229" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="230" spans="8:17">
       <c r="H230" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="231" spans="8:17">
-      <c r="H231" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="8:17">
@@ -5684,52 +5281,52 @@
         <v>570</v>
       </c>
       <c r="Q232" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="8:17">
       <c r="H233" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q233" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="8:17">
       <c r="H234" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Q234" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="8:17">
       <c r="H235" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q235" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="236" spans="8:17">
       <c r="H236" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q236" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="237" spans="8:17">
       <c r="H237" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q237" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="8:17">
       <c r="H238" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="239" spans="8:17">
@@ -5737,7 +5334,7 @@
         <v>578</v>
       </c>
       <c r="Q239" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="8:17">
@@ -5745,7 +5342,7 @@
         <v>580</v>
       </c>
       <c r="Q240" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="241" spans="8:17">
@@ -5753,23 +5350,23 @@
         <v>582</v>
       </c>
       <c r="Q241" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="8:17">
       <c r="H242" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="Q242" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="8:17">
       <c r="H243" t="s">
-        <v>587</v>
-      </c>
-      <c r="P243" t="s">
         <v>588</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="8:17">
@@ -5777,7 +5374,7 @@
         <v>589</v>
       </c>
       <c r="Q244" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="8:17">
@@ -5785,7 +5382,7 @@
         <v>590</v>
       </c>
       <c r="Q245" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="8:17">
@@ -5793,7 +5390,7 @@
         <v>591</v>
       </c>
       <c r="Q246" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="8:17">
@@ -5801,157 +5398,550 @@
         <v>592</v>
       </c>
       <c r="Q247" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="248" spans="8:17">
-      <c r="H248" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q248" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="8:17">
       <c r="H249" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q249" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="8:17">
       <c r="H250" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="251" spans="8:17">
       <c r="H251" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q251" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
     </row>
     <row r="252" spans="8:17">
       <c r="H252" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q252" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
     </row>
     <row r="253" spans="8:17">
       <c r="H253" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="254" spans="8:17">
       <c r="H254" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="255" spans="8:17">
-      <c r="H255" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="256" spans="8:17">
       <c r="H256" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="257" spans="3:19">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="257" spans="3:17">
       <c r="H257" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="258" spans="3:19">
+        <v>607</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="258" spans="3:17">
       <c r="H258" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="259" spans="3:19">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="259" spans="3:17">
       <c r="H259" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="260" spans="3:19">
-      <c r="H260" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="261" spans="3:19">
+        <v>610</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="261" spans="3:17">
       <c r="H261" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="262" spans="3:19">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="262" spans="3:17">
       <c r="H262" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="263" spans="3:19">
-      <c r="H263" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q263" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="264" spans="3:19">
-      <c r="H264" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="265" spans="3:19">
-      <c r="H265" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q265" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="266" spans="3:19">
-      <c r="H266" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="267" spans="3:19">
-      <c r="H267" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="268" spans="3:19">
-      <c r="H268" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="269" spans="3:19">
-      <c r="H269" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="270" spans="3:19">
-      <c r="C270" t="s">
-        <v>618</v>
-      </c>
-      <c r="H270" t="s">
-        <v>620</v>
-      </c>
-      <c r="S270" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="274" spans="8:8" s="22" customFormat="1">
-      <c r="H274" s="22" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="275" spans="8:8" s="22" customFormat="1">
-      <c r="H275" s="22" t="s">
-        <v>560</v>
-      </c>
+    <row r="271" spans="3:17">
+      <c r="C271" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I271" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="272" spans="3:17">
+      <c r="C272" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="I272" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18">
+      <c r="C273" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I273" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18">
+      <c r="C274" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="I274" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18">
+      <c r="C275" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="I275" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18">
+      <c r="C276" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="I276" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18">
+      <c r="C277" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="I277" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18">
+      <c r="C278" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I278" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18">
+      <c r="C279" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="I279" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18">
+      <c r="C280" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="I280" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18">
+      <c r="C281" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="I281" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18">
+      <c r="C282" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="I282" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18">
+      <c r="C283" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="I283" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18">
+      <c r="C284" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="I284" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18">
+      <c r="A286" s="3"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="1"/>
+      <c r="R286" s="1"/>
+    </row>
+    <row r="287" spans="1:18">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="1"/>
+      <c r="Q289" s="1"/>
+    </row>
+    <row r="290" spans="1:20">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1">
+        <v>20</v>
+      </c>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="S290" s="1"/>
+    </row>
+    <row r="291" spans="1:20">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1">
+        <v>20</v>
+      </c>
+      <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
+      <c r="R291" s="1"/>
+      <c r="S291" s="1"/>
+    </row>
+    <row r="292" spans="1:20">
+      <c r="A292" s="3"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1">
+        <v>23</v>
+      </c>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
+      <c r="R292" s="1"/>
+      <c r="S292" s="1"/>
+    </row>
+    <row r="293" spans="1:20">
+      <c r="A293" s="3"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1">
+        <v>23</v>
+      </c>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
+      <c r="R293" s="1"/>
+      <c r="S293" s="1"/>
+    </row>
+    <row r="295" spans="1:20">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="1"/>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="1"/>
+    </row>
+    <row r="296" spans="1:20">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="1"/>
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="1"/>
+      <c r="Q296" s="1"/>
+      <c r="R296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="T296" s="1"/>
+    </row>
+    <row r="297" spans="1:20">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="1"/>
+      <c r="Q297" s="1"/>
+      <c r="R297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="T297" s="1"/>
+    </row>
+    <row r="298" spans="1:20">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+      <c r="L298" s="1"/>
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="P298" s="1"/>
+      <c r="Q298" s="1"/>
+      <c r="R298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="T298" s="1"/>
+    </row>
+    <row r="299" spans="1:20">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="1"/>
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="P299" s="1"/>
+      <c r="Q299" s="1"/>
+      <c r="R299" s="1"/>
+      <c r="S299" s="1"/>
+      <c r="T299" s="1"/>
+    </row>
+    <row r="300" spans="1:20">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+      <c r="Q300" s="1"/>
+      <c r="R300" s="1"/>
+      <c r="S300" s="1"/>
+      <c r="T300" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5966,130 +5956,130 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" t="s">
         <v>274</v>
       </c>
-      <c r="C1" t="s">
-        <v>275</v>
-      </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C9" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6106,620 +6096,620 @@
       <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s">
         <v>237</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>238</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
         <v>239</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" t="s">
-        <v>249</v>
-      </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>251</v>
-      </c>
-      <c r="C17" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10" t="s">
+      <c r="B26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="10" t="s">
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B27" t="s">
-        <v>258</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>260</v>
-      </c>
-      <c r="C28" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="B30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" t="s">
         <v>262</v>
-      </c>
-      <c r="C30" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>357</v>
+      <c r="B32" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" s="9"/>
+        <v>263</v>
+      </c>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B36" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="14" t="s">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="14" t="s">
+      <c r="C37" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="B38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" t="s">
-        <v>267</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C41" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="11" t="s">
+      <c r="C46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B46" t="s">
-        <v>269</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="11" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B47" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="11" t="s">
+      <c r="C49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B49" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C50" s="9" t="s">
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="14" t="s">
+      <c r="C51" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>373</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>314</v>
+        <v>372</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>374</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>316</v>
+        <v>373</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C55" t="s">
         <v>477</v>
       </c>
-      <c r="C55" t="s">
-        <v>478</v>
-      </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6735,89 +6725,89 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -6826,17 +6816,17 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -6845,163 +6835,163 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>328</v>
+        <v>310</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="C9" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:16">
       <c r="C10" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="C11" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C14" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="C21" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E21" t="s">
+        <v>478</v>
+      </c>
+      <c r="M21" t="s">
+        <v>480</v>
+      </c>
+      <c r="N21" t="s">
         <v>479</v>
       </c>
-      <c r="M21" t="s">
-        <v>481</v>
-      </c>
-      <c r="N21" t="s">
-        <v>480</v>
-      </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="C22" s="9"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\terms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A1572-9172-4ED9-9210-5E503C5A9884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3B3272-CECE-3A45-A903-2F0E2B86EC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="629">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1963,6 +1963,9 @@
   </si>
   <si>
     <t>palatal length AP</t>
+  </si>
+  <si>
+    <t>ALREADY in UBERON as UBERON:3000467, preobrital process of the pars facialis of the  maxillla</t>
   </si>
 </sst>
 </file>
@@ -2438,12 +2441,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
   <dimension ref="A1:T300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
@@ -5956,9 +5959,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6096,7 +6099,7 @@
       <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -6115,7 +6118,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>240</v>
       </c>
@@ -6721,11 +6724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -6874,7 +6877,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>628</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>310</v>

--- a/terms/skullTerms.xlsx
+++ b/terms/skullTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3B3272-CECE-3A45-A903-2F0E2B86EC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7DEE34-6850-43BE-B345-CAD4049E094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{E38D1147-306F-C442-8001-8D18F9A28679}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="651">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -221,13 +221,7 @@
     <t>orbit of skull length</t>
   </si>
   <si>
-    <t>palatine length</t>
-  </si>
-  <si>
     <t>pair of nares width</t>
-  </si>
-  <si>
-    <t>left frontal width</t>
   </si>
   <si>
     <t>right frontal width</t>
@@ -1287,9 +1281,6 @@
     <t>post vomerine length</t>
   </si>
   <si>
-    <t>post palatal length</t>
-  </si>
-  <si>
     <t>choanal length</t>
   </si>
   <si>
@@ -1629,9 +1620,6 @@
     <t>least breadth in the region of the diastema (47 - horse)</t>
   </si>
   <si>
-    <t>palatal maximal breadth</t>
-  </si>
-  <si>
     <t>basion height</t>
   </si>
   <si>
@@ -1929,9 +1917,6 @@
     <t>measured across the outer borders of the alveoli</t>
   </si>
   <si>
-    <t>palatal minimal breadth</t>
-  </si>
-  <si>
     <t>measured between the inner borders of the alveoli</t>
   </si>
   <si>
@@ -1966,6 +1951,87 @@
   </si>
   <si>
     <t>ALREADY in UBERON as UBERON:3000467, preobrital process of the pars facialis of the  maxillla</t>
+  </si>
+  <si>
+    <t>PARENT TERM</t>
+  </si>
+  <si>
+    <t>palatine bone length</t>
+  </si>
+  <si>
+    <t>palatine bone morphology trait</t>
+  </si>
+  <si>
+    <t>palatine bone minimal breadth</t>
+  </si>
+  <si>
+    <t>palatine bone maximal breadth</t>
+  </si>
+  <si>
+    <t>palatine bone median length</t>
+  </si>
+  <si>
+    <t>palatine bone oral length</t>
+  </si>
+  <si>
+    <t>palatine bone transverse width between P3 and P4</t>
+  </si>
+  <si>
+    <t>palatine bone transverse width between P4 and M1</t>
+  </si>
+  <si>
+    <t>palatine bone depth</t>
+  </si>
+  <si>
+    <t>post palatine bone length</t>
+  </si>
+  <si>
+    <t>palatine bone horizontal part length</t>
+  </si>
+  <si>
+    <t>palantine bone horizontal part length corresponding to M13a</t>
+  </si>
+  <si>
+    <t>tetrapod frontal bone breadth</t>
+  </si>
+  <si>
+    <t>tetrapod frontal bone length</t>
+  </si>
+  <si>
+    <t>palatine bone transverse width between P2 and P3</t>
+  </si>
+  <si>
+    <t>left tetrapod frontal bone width</t>
+  </si>
+  <si>
+    <t>right tetrapod frontal bone width</t>
+  </si>
+  <si>
+    <t>tetrapod frontal bone minimal breadth</t>
+  </si>
+  <si>
+    <t>tetrapod frontal bone greatest length</t>
+  </si>
+  <si>
+    <t>tetrapod frontal bone median length</t>
+  </si>
+  <si>
+    <t>premaxillary bone morphology trait</t>
+  </si>
+  <si>
+    <t>premaxilla maximum width</t>
+  </si>
+  <si>
+    <t>premaxilla minimal width</t>
+  </si>
+  <si>
+    <t>premaxilla dorsal maximum width</t>
+  </si>
+  <si>
+    <t>occipial bone morphology trait</t>
+  </si>
+  <si>
+    <t>occipital bone width</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2124,6 +2190,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2439,16 +2508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD1B0C-460E-164A-B70B-2EC8726236AE}">
-  <dimension ref="A1:T300"/>
+  <dimension ref="A1:U300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2456,177 +2525,221 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
-        <v>179</v>
-      </c>
       <c r="L1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P1" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="Q1" t="s">
-        <v>375</v>
-      </c>
-      <c r="S1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="20" customFormat="1">
+        <v>84</v>
+      </c>
+      <c r="R1" t="s">
+        <v>373</v>
+      </c>
+      <c r="T1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="20" customFormat="1">
       <c r="A2" s="19"/>
       <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="J2" s="20">
+        <v>2</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="20" customFormat="1">
+      <c r="C3" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="20" customFormat="1">
+      <c r="C4" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="20" customFormat="1">
+      <c r="C5" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="C6" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="I6" t="s">
+        <v>613</v>
+      </c>
+      <c r="T6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="C7" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="I2" s="20">
-        <v>2</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="20" customFormat="1">
-      <c r="E3" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="20" customFormat="1">
-      <c r="H4" s="20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="20" customFormat="1">
-      <c r="H5" s="20" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="C6" t="s">
-        <v>616</v>
-      </c>
-      <c r="H6" t="s">
-        <v>618</v>
-      </c>
-      <c r="S6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="H7" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="C8" t="s">
-        <v>516</v>
-      </c>
-      <c r="H8" t="s">
-        <v>532</v>
-      </c>
-      <c r="S8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="C9" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" t="s">
-        <v>179</v>
+      <c r="D7" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="I7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="C8" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D8" t="s">
+        <v>628</v>
+      </c>
+      <c r="I8" t="s">
+        <v>528</v>
+      </c>
+      <c r="T8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="C9" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D9" t="s">
+        <v>639</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="C10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="H9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="C10" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D10" t="s">
+        <v>631</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>177</v>
+      </c>
+      <c r="H10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="F11" t="s">
-        <v>179</v>
-      </c>
+      <c r="C11" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
       <c r="G11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="H11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2637,22 +2750,25 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="F12" t="s">
-        <v>179</v>
-      </c>
+      <c r="C12" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D12" t="s">
+        <v>633</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="H12" t="s">
+        <v>169</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2665,45 +2781,63 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="C13" t="s">
-        <v>402</v>
-      </c>
-      <c r="H13" t="s">
-        <v>483</v>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="C13" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D13" t="s">
+        <v>634</v>
       </c>
       <c r="I13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="H14" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="H15" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>480</v>
+      </c>
+      <c r="J13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="C14" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D14" t="s">
+        <v>635</v>
+      </c>
+      <c r="I14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="C15" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D15" t="s">
+        <v>636</v>
+      </c>
+      <c r="I15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>581</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J16" s="1"/>
+        <v>577</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2714,160 +2848,190 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>391</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="N17" s="1"/>
+      <c r="O17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="3">
         <v>18</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
-      <c r="C18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" t="s">
-        <v>178</v>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E18" t="s">
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>393</v>
+        <v>176</v>
+      </c>
+      <c r="H18" t="s">
+        <v>155</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="C19" t="s">
-        <v>223</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>391</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="D19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>640</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="S20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="C22" t="s">
-        <v>505</v>
-      </c>
-      <c r="H22" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="H23" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="H24" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="H25" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="C26" t="s">
-        <v>399</v>
-      </c>
-      <c r="I26" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="N21" s="1"/>
+      <c r="O21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="D22" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E22" t="s">
+        <v>502</v>
+      </c>
+      <c r="I22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="D23" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="I23" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="D24" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I24" t="s">
+        <v>542</v>
+      </c>
+      <c r="R24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="D25" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="E26" t="s">
+        <v>397</v>
+      </c>
+      <c r="J26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J27" s="1"/>
+        <v>390</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2878,137 +3042,166 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="C28" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="I28" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="C28" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="J28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="3" t="s">
+      <c r="N29" s="1"/>
+      <c r="O29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q29" s="3"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q30" s="3"/>
-      <c r="S30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R30" s="3"/>
       <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="C31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="C32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="C33" t="s">
-        <v>501</v>
-      </c>
-      <c r="H33" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="H34" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="E31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="C32" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E32" t="s">
+        <v>211</v>
+      </c>
+      <c r="I32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="C33" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D33" t="s">
+        <v>498</v>
+      </c>
+      <c r="E33" t="s">
+        <v>498</v>
+      </c>
+      <c r="I33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="C34" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="I34" t="s">
+        <v>535</v>
+      </c>
+      <c r="R34" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="E35" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="3"/>
-      <c r="N35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="J35" s="3"/>
+      <c r="O35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" s="3">
         <v>2</v>
       </c>
-      <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2" t="s">
+        <v>580</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" t="s">
-        <v>553</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>549</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -3019,76 +3212,82 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="H37" t="s">
-        <v>547</v>
-      </c>
-      <c r="P37" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="H38" t="s">
-        <v>585</v>
-      </c>
-      <c r="P38" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="H39" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="I37" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="I38" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="I39" t="s">
+        <v>551</v>
+      </c>
+      <c r="R39" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="3"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D40" t="s">
+        <v>650</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O40" s="1">
+      <c r="N40" s="1"/>
+      <c r="O40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" s="1">
         <v>27</v>
       </c>
-      <c r="P40" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="C41" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="I41" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="Q40" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="E41" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="J41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3100,86 +3299,92 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="3"/>
       <c r="B43" s="1"/>
-      <c r="C43" t="s">
-        <v>190</v>
-      </c>
-      <c r="F43" t="s">
-        <v>179</v>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>188</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H43" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>158</v>
+      </c>
+      <c r="I43" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="3"/>
       <c r="B44" s="1"/>
-      <c r="C44" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" t="s">
-        <v>178</v>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>189</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
-      </c>
-      <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:20">
+        <v>176</v>
+      </c>
+      <c r="H44" t="s">
+        <v>159</v>
+      </c>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
-      <c r="C45" t="s">
-        <v>192</v>
-      </c>
-      <c r="F45" t="s">
-        <v>178</v>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>190</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>176</v>
+      </c>
+      <c r="H45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="3"/>
       <c r="B46" s="1"/>
-      <c r="C46" t="s">
-        <v>207</v>
-      </c>
-      <c r="F46" t="s">
-        <v>179</v>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>205</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
-      </c>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:20">
+        <v>177</v>
+      </c>
+      <c r="H46" t="s">
+        <v>172</v>
+      </c>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="3"/>
       <c r="B47" s="1"/>
-      <c r="C47" t="s">
-        <v>208</v>
-      </c>
-      <c r="F47" t="s">
-        <v>179</v>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>206</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
-      </c>
-      <c r="S47" s="3"/>
-    </row>
-    <row r="48" spans="1:20">
+        <v>177</v>
+      </c>
+      <c r="H47" t="s">
+        <v>172</v>
+      </c>
+      <c r="T47" s="3"/>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1"/>
+      <c r="E48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -3195,15 +3400,16 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1"/>
+      <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3219,29 +3425,30 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="H50" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="I50" t="s">
+        <v>564</v>
+      </c>
+      <c r="R50" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1"/>
+      <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3253,108 +3460,112 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O52" s="1">
+      <c r="N52" s="1"/>
+      <c r="O52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" s="1">
         <v>14</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q52" s="3"/>
-      <c r="T52" s="3"/>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="Q52" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R52" s="3"/>
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O53" s="1">
+      <c r="N53" s="1"/>
+      <c r="O53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P53" s="1">
         <v>15</v>
       </c>
-      <c r="P53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q53" s="3"/>
-      <c r="T53" s="3"/>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="Q53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R53" s="3"/>
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="3"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O54" s="1">
+      <c r="N54" s="1"/>
+      <c r="O54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" s="1">
         <v>16</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="H55" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="H56" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="Q54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="I55" t="s">
+        <v>538</v>
+      </c>
+      <c r="R55" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="I56" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1"/>
+      <c r="E57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3366,46 +3577,48 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O58" s="1">
+      <c r="N58" s="1"/>
+      <c r="O58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P58" s="1">
         <v>29</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q58" s="3"/>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="Q58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R58" s="3"/>
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1"/>
+      <c r="E59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3417,120 +3630,125 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O60" s="1">
+      <c r="N60" s="1"/>
+      <c r="O60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P60" s="1">
         <v>28</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q60" s="3"/>
-      <c r="T60" s="3"/>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="Q60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R60" s="3"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="N61" s="1"/>
+      <c r="O61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" s="3">
         <v>11</v>
       </c>
-      <c r="P61" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="R61" s="1"/>
+      <c r="Q61" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="N62" s="1"/>
+      <c r="O62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P62" s="3">
         <v>11</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="R62" s="1"/>
+      <c r="Q62" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
-      <c r="C63" t="s">
-        <v>198</v>
-      </c>
-      <c r="F63" t="s">
-        <v>179</v>
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
+        <v>196</v>
       </c>
       <c r="G63" t="s">
-        <v>165</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I63" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>177</v>
+      </c>
+      <c r="H63" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1"/>
+      <c r="E64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J64" s="1"/>
+        <v>517</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3541,15 +3759,16 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1"/>
+      <c r="E65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -3565,15 +3784,16 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -3589,970 +3809,999 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1"/>
+      <c r="D67" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="F67" t="s">
-        <v>175</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="N67" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O67" s="3">
+      <c r="E67" s="1"/>
+      <c r="G67" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="O67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P67" s="3">
         <v>1</v>
       </c>
-      <c r="P67" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q67" s="1"/>
+      <c r="Q67" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="C68" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="H68" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="D68" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="I68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="1"/>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="E69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O69" s="3">
+      <c r="N69" s="1"/>
+      <c r="O69" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P69" s="3">
         <v>9</v>
       </c>
-      <c r="P69" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S69" s="1"/>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="Q69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="1"/>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="H70" s="3"/>
+      <c r="E70" s="1"/>
       <c r="I70" s="3"/>
-      <c r="N70" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O70" s="3">
+      <c r="J70" s="3"/>
+      <c r="O70" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P70" s="3">
         <v>10</v>
       </c>
-      <c r="P70" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
-      <c r="C71" t="s">
+      <c r="Q70" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="D71" t="s">
+        <v>207</v>
+      </c>
+      <c r="I71" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="D73" t="s">
         <v>209</v>
       </c>
-      <c r="H71" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="C72" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="C73" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="C74" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+    </row>
+    <row r="74" spans="1:21">
+      <c r="D74" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="H75" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I75" s="3"/>
+      <c r="E75" s="1"/>
+      <c r="I75" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O75" s="3">
+      <c r="N75" s="3"/>
+      <c r="O75" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P75" s="3">
         <v>12</v>
       </c>
-      <c r="P75" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="C76" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="H76" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="C77" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="H77" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="C78" t="s">
-        <v>508</v>
-      </c>
-      <c r="H78" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="C79" t="s">
-        <v>512</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="Q75" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="D76" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="I76" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="D77" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="I77" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="D78" t="s">
+        <v>505</v>
+      </c>
+      <c r="I78" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="D79" t="s">
+        <v>509</v>
+      </c>
+      <c r="I79" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="D80" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="J80" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="D81" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="C80" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="I80" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
-      <c r="C81" t="s">
-        <v>517</v>
-      </c>
-      <c r="H81" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="I81" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1"/>
+      <c r="D82" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="H82" t="s">
-        <v>525</v>
-      </c>
-      <c r="I82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="I82" t="s">
+        <v>521</v>
+      </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q82" s="3"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-      <c r="T82" s="1"/>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="T82" s="3"/>
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
-      <c r="C83" t="s">
-        <v>183</v>
-      </c>
-      <c r="F83" t="s">
-        <v>176</v>
+      <c r="C83" s="1"/>
+      <c r="D83" t="s">
+        <v>181</v>
       </c>
       <c r="G83" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
-      <c r="H84" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20">
+        <v>174</v>
+      </c>
+      <c r="H83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="I84" t="s">
+        <v>590</v>
+      </c>
+      <c r="R84" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="1"/>
+      <c r="D85" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-      <c r="N85" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O85" s="3">
+      <c r="N85" s="1"/>
+      <c r="O85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P85" s="3">
         <v>35</v>
       </c>
-      <c r="P85" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q85" s="3"/>
-      <c r="T85" s="1"/>
-    </row>
-    <row r="86" spans="1:20">
-      <c r="C86" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="Q85" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R85" s="3"/>
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="D86" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1"/>
+      <c r="D87" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="E87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-      <c r="N87" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O87" s="3">
+      <c r="N87" s="1"/>
+      <c r="O87" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P87" s="3">
         <v>36</v>
       </c>
-      <c r="P87" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q87" s="3"/>
-      <c r="T87" s="1"/>
-    </row>
-    <row r="88" spans="1:20">
-      <c r="C88" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="Q87" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R87" s="3"/>
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="D88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1"/>
+      <c r="D89" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="E89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
-      <c r="N89" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O89" s="1"/>
-      <c r="P89" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q89" s="3"/>
-      <c r="T89" s="1"/>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="C90" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
-      <c r="H91" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="N89" s="1"/>
+      <c r="O89" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R89" s="3"/>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="D90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="I91" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1"/>
+      <c r="D92" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="E92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="1"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
-      <c r="N92" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P92" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q92" s="1"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="C93" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="D93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1"/>
+      <c r="D94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="E94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-      <c r="N94" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
-    </row>
-    <row r="95" spans="1:20">
-      <c r="C95" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="U94" s="1"/>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="D95" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
-      <c r="N96" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P96" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T96" s="1"/>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="N96" s="1"/>
+      <c r="O96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
-      <c r="C97" t="s">
-        <v>182</v>
-      </c>
-      <c r="F97" t="s">
-        <v>176</v>
+      <c r="C97" s="1"/>
+      <c r="D97" t="s">
+        <v>180</v>
       </c>
       <c r="G97" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20">
+        <v>174</v>
+      </c>
+      <c r="H97" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
-      <c r="C98" t="s">
-        <v>184</v>
-      </c>
-      <c r="F98" t="s">
-        <v>177</v>
+      <c r="C98" s="1"/>
+      <c r="D98" t="s">
+        <v>182</v>
       </c>
       <c r="G98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
+        <v>175</v>
+      </c>
+      <c r="H98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-      <c r="N99" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O99" s="1"/>
-      <c r="P99" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q99" s="3"/>
-    </row>
-    <row r="100" spans="1:20">
+      <c r="N99" s="1"/>
+      <c r="O99" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R99" s="3"/>
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="1"/>
+      <c r="D100" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="3"/>
+      <c r="E100" s="1"/>
+      <c r="I100" s="1"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
-      <c r="N100" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3"/>
+      <c r="O100" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P100" s="3">
         <v>17</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q100" s="1"/>
+      <c r="Q100" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
-    </row>
-    <row r="101" spans="1:20">
-      <c r="C101" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20">
-      <c r="C102" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="H102" t="s">
-        <v>528</v>
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="D101" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="D102" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="I102" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20">
-      <c r="C103" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="I103" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20">
+        <v>524</v>
+      </c>
+      <c r="J102" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="D103" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="J103" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="1"/>
+      <c r="D104" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="H104" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="3"/>
+      <c r="E104" s="1"/>
+      <c r="I104" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J104" s="1"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
-      <c r="N104" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O104" s="3">
+      <c r="N104" s="3"/>
+      <c r="O104" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P104" s="3">
         <v>13</v>
       </c>
-      <c r="P104" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20">
+      <c r="Q104" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
-      <c r="C105" t="s">
-        <v>189</v>
-      </c>
-      <c r="F105" t="s">
-        <v>178</v>
+      <c r="C105" s="1"/>
+      <c r="D105" t="s">
+        <v>187</v>
       </c>
       <c r="G105" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H105" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20">
-      <c r="C106" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20">
+        <v>157</v>
+      </c>
+      <c r="I105" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="D106" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="3"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="1"/>
+      <c r="D107" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D107" s="1"/>
-      <c r="H107" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="E107" s="1"/>
       <c r="I107" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J107" s="1"/>
+        <v>393</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
-      <c r="N107" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O107" s="1"/>
-      <c r="P107" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q107" s="3"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="R107" s="3"/>
-    </row>
-    <row r="108" spans="1:20">
+      <c r="S107" s="3"/>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="1"/>
+      <c r="D108" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="E108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
-      <c r="N108" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O108" s="1"/>
-      <c r="P108" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q108" s="3"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="R108" s="3"/>
-      <c r="T108" s="1"/>
-    </row>
-    <row r="109" spans="1:20">
-      <c r="C109" t="s">
-        <v>507</v>
-      </c>
-      <c r="H109" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20">
+      <c r="S108" s="3"/>
+      <c r="U108" s="1"/>
+    </row>
+    <row r="109" spans="1:21">
+      <c r="D109" t="s">
+        <v>504</v>
+      </c>
+      <c r="I109" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="1"/>
+      <c r="D110" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D110" s="1"/>
-      <c r="H110" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="E110" s="1"/>
       <c r="I110" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J110" s="1"/>
+        <v>392</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
-      <c r="N110" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O110" s="1"/>
-      <c r="P110" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q110" s="3"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="R110" s="3"/>
-      <c r="T110" s="1"/>
-    </row>
-    <row r="111" spans="1:20">
-      <c r="C111" t="s">
+      <c r="S110" s="3"/>
+      <c r="U110" s="1"/>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="D111" t="s">
+        <v>220</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J111" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="D112" t="s">
         <v>222</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I112" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J112" t="s">
         <v>394</v>
       </c>
-      <c r="I111" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20">
-      <c r="C112" t="s">
+    </row>
+    <row r="113" spans="1:21">
+      <c r="D113" t="s">
+        <v>223</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J113" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
+      <c r="D114" t="s">
         <v>224</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I112" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20">
-      <c r="C113" t="s">
+    </row>
+    <row r="115" spans="1:21">
+      <c r="D115" t="s">
         <v>225</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I113" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20">
-      <c r="C114" t="s">
+    </row>
+    <row r="116" spans="1:21">
+      <c r="D116" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="115" spans="1:20">
-      <c r="C115" t="s">
+      <c r="I116" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J116" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
+      <c r="D117" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="116" spans="1:20">
-      <c r="C116" t="s">
-        <v>228</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I116" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20">
-      <c r="C117" t="s">
-        <v>229</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I117" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20">
+      <c r="I117" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J117" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D118" s="1"/>
-      <c r="H118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
-      <c r="N118" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O118" s="1"/>
-      <c r="P118" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="T118" s="1"/>
-    </row>
-    <row r="119" spans="1:20">
-      <c r="C119" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20">
+      <c r="U118" s="1"/>
+    </row>
+    <row r="119" spans="1:21">
+      <c r="D119" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="3"/>
       <c r="B120" s="1"/>
-      <c r="C120" t="s">
-        <v>188</v>
-      </c>
-      <c r="F120" t="s">
-        <v>179</v>
+      <c r="C120" s="1"/>
+      <c r="D120" t="s">
+        <v>186</v>
       </c>
       <c r="G120" t="s">
-        <v>158</v>
-      </c>
-      <c r="T120" s="1"/>
-    </row>
-    <row r="121" spans="1:20">
+        <v>177</v>
+      </c>
+      <c r="H120" t="s">
+        <v>156</v>
+      </c>
+      <c r="U120" s="1"/>
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="3"/>
       <c r="B121" s="1"/>
-      <c r="C121" t="s">
-        <v>194</v>
-      </c>
-      <c r="F121" t="s">
-        <v>175</v>
+      <c r="C121" s="1"/>
+      <c r="D121" t="s">
+        <v>192</v>
       </c>
       <c r="G121" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20">
+        <v>173</v>
+      </c>
+      <c r="H121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="H122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
-      <c r="N122" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O122" s="1">
+      <c r="N122" s="1"/>
+      <c r="O122" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P122" s="1">
         <v>7</v>
       </c>
-      <c r="P122" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="S122" s="1"/>
+      <c r="Q122" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="T122" s="1"/>
-    </row>
-    <row r="123" spans="1:20">
-      <c r="H123" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20">
-      <c r="H124" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20">
+      <c r="U122" s="1"/>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="I123" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="I124" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="J125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
-      <c r="N125" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O125" s="3">
+      <c r="N125" s="1"/>
+      <c r="O125" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P125" s="3">
         <v>5</v>
       </c>
-      <c r="P125" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R125" s="1"/>
+      <c r="Q125" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
-    </row>
-    <row r="126" spans="1:20">
+      <c r="U125" s="1"/>
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="3"/>
       <c r="B126" s="1"/>
-      <c r="C126" t="s">
-        <v>199</v>
-      </c>
-      <c r="F126" t="s">
-        <v>178</v>
+      <c r="C126" s="1"/>
+      <c r="D126" t="s">
+        <v>197</v>
       </c>
       <c r="G126" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H126" t="s">
-        <v>577</v>
+        <v>164</v>
       </c>
       <c r="I126" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20">
+        <v>573</v>
+      </c>
+      <c r="J126" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" s="3"/>
       <c r="B127" s="1"/>
-      <c r="C127" t="s">
-        <v>197</v>
-      </c>
-      <c r="F127" t="s">
-        <v>178</v>
+      <c r="C127" s="1"/>
+      <c r="D127" t="s">
+        <v>195</v>
       </c>
       <c r="G127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20">
-      <c r="H128" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20">
-      <c r="H129" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20">
+        <v>176</v>
+      </c>
+      <c r="H127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="I128" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="I129" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" s="3"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
-      <c r="N130" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P130" s="1"/>
-    </row>
-    <row r="131" spans="1:20">
-      <c r="C131" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="I131" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20">
-      <c r="H132" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20">
-      <c r="C133" s="17" t="s">
+      <c r="N130" s="1"/>
+      <c r="O130" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="D131" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="J131" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="I132" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="D133" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="J133" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="D134" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="J134" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="D135" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="J135" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="D136" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J136" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="D137" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="J137" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
-      <c r="C134" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="I134" t="s">
+    <row r="138" spans="1:21">
+      <c r="D138" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="J138" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
-      <c r="C135" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="I135" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20">
-      <c r="C136" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="I136" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20">
-      <c r="C137" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="I137" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20">
-      <c r="C138" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="I138" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:21">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D139" s="3"/>
-      <c r="H139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" s="3"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
-      <c r="N139" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P139" s="3"/>
-      <c r="Q139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q139" s="3"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
-    </row>
-    <row r="140" spans="1:20">
+      <c r="U139" s="1"/>
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="H140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -4561,103 +4810,109 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
-      <c r="Q140" s="3"/>
+      <c r="Q140" s="1"/>
       <c r="R140" s="3"/>
-      <c r="S140" s="1"/>
-      <c r="T140" s="3"/>
-    </row>
-    <row r="141" spans="1:20">
+      <c r="S140" s="3"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="3"/>
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" s="3"/>
       <c r="B141" s="1"/>
-      <c r="C141" t="s">
-        <v>185</v>
-      </c>
-      <c r="F141" t="s">
-        <v>178</v>
+      <c r="C141" s="1"/>
+      <c r="D141" t="s">
+        <v>183</v>
       </c>
       <c r="G141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20">
+        <v>176</v>
+      </c>
+      <c r="H141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" s="3"/>
       <c r="B142" s="1"/>
-      <c r="C142" t="s">
-        <v>186</v>
-      </c>
-      <c r="F142" t="s">
-        <v>178</v>
+      <c r="C142" s="1"/>
+      <c r="D142" t="s">
+        <v>184</v>
       </c>
       <c r="G142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20">
+        <v>176</v>
+      </c>
+      <c r="H142" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" s="3"/>
       <c r="B143" s="1"/>
-      <c r="C143" t="s">
-        <v>181</v>
-      </c>
-      <c r="F143" t="s">
-        <v>175</v>
+      <c r="C143" s="1"/>
+      <c r="D143" t="s">
+        <v>179</v>
       </c>
       <c r="G143" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20">
+        <v>173</v>
+      </c>
+      <c r="H143" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" s="3"/>
       <c r="B144" s="1"/>
-      <c r="C144" t="s">
-        <v>195</v>
-      </c>
-      <c r="F144" t="s">
-        <v>176</v>
+      <c r="C144" s="1"/>
+      <c r="D144" t="s">
+        <v>193</v>
       </c>
       <c r="G144" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20">
-      <c r="C145" t="s">
-        <v>400</v>
-      </c>
-      <c r="I145" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20">
-      <c r="C146" t="s">
-        <v>401</v>
-      </c>
-      <c r="H146" t="s">
-        <v>482</v>
+        <v>174</v>
+      </c>
+      <c r="H144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="D145" t="s">
+        <v>398</v>
+      </c>
+      <c r="J145" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
+      <c r="D146" t="s">
+        <v>399</v>
       </c>
       <c r="I146" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20">
+        <v>479</v>
+      </c>
+      <c r="J146" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" s="3"/>
       <c r="B151" s="1"/>
-    </row>
-    <row r="155" spans="1:20">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="1"/>
+      <c r="E155" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="1" t="s">
-        <v>522</v>
-      </c>
+      <c r="H155" s="1"/>
       <c r="I155" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="J155" s="1"/>
+        <v>518</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -4668,24 +4923,25 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
-    </row>
-    <row r="156" spans="1:20">
+      <c r="U155" s="1"/>
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="1"/>
+      <c r="E156" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="1" t="s">
-        <v>523</v>
-      </c>
+      <c r="H156" s="1"/>
       <c r="I156" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J156" s="1"/>
+        <v>519</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -4696,182 +4952,190 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
-    </row>
-    <row r="158" spans="1:20">
+      <c r="U156" s="1"/>
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" s="3"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D158" s="1"/>
-      <c r="H158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
-      <c r="N158" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O158" s="1"/>
-      <c r="P158" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R158" s="1"/>
-      <c r="T158" s="3"/>
-    </row>
-    <row r="159" spans="1:20">
+      <c r="N158" s="1"/>
+      <c r="O158" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="S158" s="1"/>
+      <c r="U158" s="3"/>
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" s="3"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D159" s="1"/>
-      <c r="H159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="N159" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P159" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="S159" s="3"/>
+      <c r="J159" s="1"/>
+      <c r="O159" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q159" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="T159" s="3"/>
-    </row>
-    <row r="160" spans="1:20">
+      <c r="U159" s="3"/>
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" s="3"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D160" s="1"/>
-      <c r="H160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
-      <c r="N160" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O160" s="1"/>
-      <c r="P160" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q160" s="1"/>
-      <c r="S160" s="3"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="R160" s="1"/>
       <c r="T160" s="3"/>
-    </row>
-    <row r="161" spans="1:20">
+      <c r="U160" s="3"/>
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" s="3"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
-      <c r="N161" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="P161" s="1"/>
-    </row>
-    <row r="162" spans="1:20">
+      <c r="Q161" s="1"/>
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
-      <c r="N162" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O162" s="1">
+      <c r="N162" s="1"/>
+      <c r="O162" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P162" s="1">
         <v>37</v>
       </c>
-      <c r="P162" s="1"/>
-      <c r="S162" s="3"/>
+      <c r="Q162" s="1"/>
       <c r="T162" s="3"/>
-    </row>
-    <row r="163" spans="1:20">
+      <c r="U162" s="3"/>
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D163" s="1"/>
-      <c r="E163" s="3"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="1"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
-      <c r="I163" s="1"/>
+      <c r="I163" s="3"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
-      <c r="N163" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O163" s="1"/>
-      <c r="P163" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q163" s="3"/>
-      <c r="S163" s="1"/>
-      <c r="T163" s="3"/>
-    </row>
-    <row r="164" spans="1:20">
+      <c r="N163" s="1"/>
+      <c r="O163" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R163" s="3"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="3"/>
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D164" s="1"/>
-      <c r="H164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
-      <c r="N164" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P164" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="R164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="S164" s="1"/>
-      <c r="T164" s="3"/>
-    </row>
-    <row r="165" spans="1:20">
+      <c r="T164" s="1"/>
+      <c r="U164" s="3"/>
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -4881,17 +5145,18 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
-    </row>
-    <row r="166" spans="1:20">
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="3"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="3"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -4901,22 +5166,23 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
-    </row>
-    <row r="167" spans="1:20">
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" t="s">
-        <v>203</v>
-      </c>
-      <c r="D167" s="3"/>
-      <c r="E167" s="1"/>
-      <c r="F167" t="s">
-        <v>175</v>
-      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" t="s">
+        <v>201</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="1"/>
       <c r="G167" t="s">
-        <v>170</v>
-      </c>
-      <c r="H167" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="H167" t="s">
+        <v>168</v>
+      </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -4929,676 +5195,679 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
-    </row>
-    <row r="168" spans="1:20">
+      <c r="U167" s="1"/>
+    </row>
+    <row r="168" spans="1:21">
       <c r="A168" s="3"/>
       <c r="B168" s="1"/>
-      <c r="C168" t="s">
-        <v>205</v>
-      </c>
-      <c r="F168" t="s">
-        <v>179</v>
+      <c r="C168" s="1"/>
+      <c r="D168" t="s">
+        <v>203</v>
       </c>
       <c r="G168" t="s">
-        <v>172</v>
-      </c>
-      <c r="S168" s="1"/>
-    </row>
-    <row r="169" spans="1:20">
+        <v>177</v>
+      </c>
+      <c r="H168" t="s">
+        <v>170</v>
+      </c>
+      <c r="T168" s="1"/>
+    </row>
+    <row r="169" spans="1:21">
       <c r="A169" s="3"/>
       <c r="B169" s="1"/>
-      <c r="C169" t="s">
-        <v>206</v>
-      </c>
-      <c r="F169" t="s">
-        <v>179</v>
+      <c r="C169" s="1"/>
+      <c r="D169" t="s">
+        <v>204</v>
       </c>
       <c r="G169" t="s">
-        <v>173</v>
-      </c>
-      <c r="S169" s="1"/>
-    </row>
-    <row r="171" spans="1:20">
-      <c r="C171" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20">
-      <c r="C172" t="s">
-        <v>275</v>
-      </c>
-      <c r="I172" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20">
-      <c r="C174" t="s">
-        <v>243</v>
-      </c>
-      <c r="H174" t="s">
-        <v>484</v>
+        <v>177</v>
+      </c>
+      <c r="H169" t="s">
+        <v>171</v>
+      </c>
+      <c r="T169" s="1"/>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="D171" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="D172" t="s">
+        <v>273</v>
+      </c>
+      <c r="J172" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="D174" t="s">
+        <v>241</v>
       </c>
       <c r="I174" t="s">
+        <v>481</v>
+      </c>
+      <c r="J174" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="D175" t="s">
+        <v>400</v>
+      </c>
+      <c r="J175" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="D176" t="s">
+        <v>401</v>
+      </c>
+      <c r="J176" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="177" spans="4:10">
+      <c r="D177" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
-      <c r="C175" t="s">
-        <v>403</v>
-      </c>
-      <c r="I175" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20">
-      <c r="C176" t="s">
+    <row r="179" spans="4:10">
+      <c r="D179" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J179" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="177" spans="3:9">
-      <c r="C177" s="17" t="s">
+    <row r="180" spans="4:10">
+      <c r="D180" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J180" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="179" spans="3:9">
-      <c r="C179" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="I179" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="180" spans="3:9">
-      <c r="C180" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="I180" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="183" spans="3:9">
-      <c r="C183" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="I183" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="184" spans="3:9">
-      <c r="C184" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="I184" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="185" spans="3:9">
-      <c r="C185" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="I185" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="187" spans="3:9">
-      <c r="C187" s="17" t="s">
+    <row r="183" spans="4:10">
+      <c r="D183" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="J183" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="184" spans="4:10">
+      <c r="D184" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="J184" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="185" spans="4:10">
+      <c r="D185" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="J185" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="187" spans="4:10">
+      <c r="D187" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="I187" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="188" spans="4:10">
+      <c r="D188" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="I188" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="189" spans="4:10">
+      <c r="D189" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="I189" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="190" spans="4:10">
+      <c r="D190" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="I190" t="s">
         <v>488</v>
       </c>
-      <c r="H187" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="188" spans="3:9">
-      <c r="C188" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="H188" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="189" spans="3:9">
-      <c r="C189" s="17" t="s">
+    </row>
+    <row r="191" spans="4:10">
+      <c r="D191" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="H189" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="190" spans="3:9">
-      <c r="C190" s="17" t="s">
+      <c r="I191" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="192" spans="4:10">
+      <c r="D192" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I192" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="191" spans="3:9">
-      <c r="C191" s="17" t="s">
+    <row r="193" spans="4:18">
+      <c r="I193" t="s">
         <v>492</v>
       </c>
-      <c r="H191" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="192" spans="3:9">
-      <c r="C192" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="H192" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="193" spans="3:17">
-      <c r="H193" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="194" spans="3:17">
-      <c r="H194" t="s">
+    </row>
+    <row r="194" spans="4:18">
+      <c r="I194" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="195" spans="4:18">
+      <c r="I195" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="196" spans="4:18">
+      <c r="D196" t="s">
+        <v>497</v>
+      </c>
+      <c r="I196" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="198" spans="4:18">
+      <c r="D198" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="195" spans="3:17">
-      <c r="H195" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="196" spans="3:17">
-      <c r="C196" t="s">
+      <c r="I198" t="s">
         <v>500</v>
       </c>
-      <c r="H196" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="198" spans="3:17">
-      <c r="C198" t="s">
-        <v>502</v>
-      </c>
-      <c r="H198" t="s">
+    </row>
+    <row r="199" spans="4:18">
+      <c r="D199" t="s">
+        <v>501</v>
+      </c>
+      <c r="I199" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="201" spans="4:18">
+      <c r="D201" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="199" spans="3:17">
-      <c r="C199" t="s">
-        <v>504</v>
-      </c>
-      <c r="H199" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="201" spans="3:17">
-      <c r="C201" t="s">
-        <v>506</v>
-      </c>
-      <c r="H201" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="202" spans="3:17">
-      <c r="C202" t="s">
-        <v>514</v>
-      </c>
-      <c r="H202" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="203" spans="3:17">
-      <c r="H203" t="s">
+      <c r="I201" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="202" spans="4:18">
+      <c r="D202" t="s">
+        <v>511</v>
+      </c>
+      <c r="I202" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="203" spans="4:18">
+      <c r="I203" t="s">
+        <v>529</v>
+      </c>
+      <c r="R203" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="204" spans="4:18">
+      <c r="I204" t="s">
+        <v>531</v>
+      </c>
+      <c r="R204" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="206" spans="4:18">
+      <c r="I206" t="s">
         <v>533</v>
       </c>
-      <c r="Q203" t="s">
+      <c r="R206" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="207" spans="4:18">
+      <c r="I207" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="204" spans="3:17">
-      <c r="H204" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="206" spans="3:17">
-      <c r="H206" t="s">
+    <row r="209" spans="9:18">
+      <c r="I209" t="s">
         <v>537</v>
       </c>
-      <c r="Q206" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="207" spans="3:17">
-      <c r="H207" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="209" spans="8:17">
-      <c r="H209" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q209" t="s">
+      <c r="R209" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="212" spans="9:18">
+      <c r="I212" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="212" spans="8:17">
-      <c r="H212" t="s">
+    <row r="214" spans="9:18">
+      <c r="I214" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="214" spans="8:17">
-      <c r="H214" t="s">
+      <c r="R214" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="215" spans="9:18">
+      <c r="I215" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="216" spans="9:18">
+      <c r="I216" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="217" spans="9:18">
+      <c r="I217" t="s">
+        <v>547</v>
+      </c>
+      <c r="R217" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="218" spans="9:18">
+      <c r="I218" t="s">
         <v>548</v>
       </c>
-      <c r="Q214" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="215" spans="8:17">
-      <c r="H215" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="216" spans="8:17">
-      <c r="H216" t="s">
+      <c r="R218" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="219" spans="9:18">
+      <c r="I219" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="217" spans="8:17">
-      <c r="H217" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="218" spans="8:17">
-      <c r="H218" t="s">
+      <c r="R219" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="220" spans="9:18">
+      <c r="I220" t="s">
         <v>552</v>
       </c>
-      <c r="Q218" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="219" spans="8:17">
-      <c r="H219" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q219" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="220" spans="8:17">
-      <c r="H220" t="s">
+      <c r="R220" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="223" spans="9:18">
+      <c r="I223" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="224" spans="9:18">
+      <c r="I224" t="s">
         <v>556</v>
       </c>
-      <c r="Q220" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="223" spans="8:17">
-      <c r="H223" t="s">
+      <c r="R224" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="225" spans="9:18">
+      <c r="I225" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="226" spans="9:18">
+      <c r="I226" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="224" spans="8:17">
-      <c r="H224" t="s">
+    <row r="227" spans="9:18">
+      <c r="I227" t="s">
         <v>560</v>
       </c>
-      <c r="Q224" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="225" spans="8:17">
-      <c r="H225" t="s">
+    </row>
+    <row r="228" spans="9:18">
+      <c r="I228" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="226" spans="8:17">
-      <c r="H226" t="s">
+    <row r="230" spans="9:18">
+      <c r="I230" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="227" spans="8:17">
-      <c r="H227" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="228" spans="8:17">
-      <c r="H228" t="s">
+    <row r="232" spans="9:18">
+      <c r="I232" t="s">
+        <v>566</v>
+      </c>
+      <c r="R232" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="230" spans="8:17">
-      <c r="H230" t="s">
+    <row r="233" spans="9:18">
+      <c r="I233" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="232" spans="8:17">
-      <c r="H232" t="s">
+      <c r="R233" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="234" spans="9:18">
+      <c r="I234" t="s">
+        <v>568</v>
+      </c>
+      <c r="R234" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="235" spans="9:18">
+      <c r="I235" t="s">
+        <v>569</v>
+      </c>
+      <c r="R235" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="236" spans="9:18">
+      <c r="I236" t="s">
         <v>570</v>
       </c>
-      <c r="Q232" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="233" spans="8:17">
-      <c r="H233" t="s">
+      <c r="R236" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="237" spans="9:18">
+      <c r="I237" t="s">
         <v>571</v>
       </c>
-      <c r="Q233" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="234" spans="8:17">
-      <c r="H234" t="s">
+    </row>
+    <row r="238" spans="9:18">
+      <c r="I238" t="s">
         <v>572</v>
       </c>
-      <c r="Q234" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="235" spans="8:17">
-      <c r="H235" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="236" spans="8:17">
-      <c r="H236" t="s">
+      <c r="R238" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="239" spans="9:18">
+      <c r="I239" t="s">
         <v>574</v>
       </c>
-      <c r="Q236" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="237" spans="8:17">
-      <c r="H237" t="s">
+      <c r="R239" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="238" spans="8:17">
-      <c r="H238" t="s">
+    <row r="240" spans="9:18">
+      <c r="I240" t="s">
         <v>576</v>
       </c>
-      <c r="Q238" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="239" spans="8:17">
-      <c r="H239" t="s">
+      <c r="R240" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="241" spans="9:18">
+      <c r="I241" t="s">
         <v>578</v>
       </c>
-      <c r="Q239" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="240" spans="8:17">
-      <c r="H240" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q240" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="241" spans="8:17">
-      <c r="H241" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q241" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="242" spans="8:17">
-      <c r="H242" t="s">
+      <c r="R241" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="242" spans="9:18">
+      <c r="I242" t="s">
+        <v>583</v>
+      </c>
+      <c r="R242" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="243" spans="9:18">
+      <c r="I243" t="s">
+        <v>584</v>
+      </c>
+      <c r="R243" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="244" spans="9:18">
+      <c r="I244" t="s">
+        <v>585</v>
+      </c>
+      <c r="R244" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="245" spans="9:18">
+      <c r="I245" t="s">
+        <v>586</v>
+      </c>
+      <c r="R245" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="246" spans="9:18">
+      <c r="I246" t="s">
         <v>587</v>
       </c>
-      <c r="Q242" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="243" spans="8:17">
-      <c r="H243" t="s">
+      <c r="R246" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="247" spans="9:18">
+      <c r="I247" t="s">
         <v>588</v>
       </c>
-      <c r="Q243" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="244" spans="8:17">
-      <c r="H244" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q244" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="245" spans="8:17">
-      <c r="H245" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="246" spans="8:17">
-      <c r="H246" t="s">
+      <c r="R247" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="249" spans="9:18">
+      <c r="I249" t="s">
         <v>591</v>
       </c>
-      <c r="Q246" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="247" spans="8:17">
-      <c r="H247" t="s">
+      <c r="R249" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="250" spans="9:18">
+      <c r="I250" t="s">
         <v>592</v>
       </c>
-      <c r="Q247" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="249" spans="8:17">
-      <c r="H249" t="s">
+    </row>
+    <row r="251" spans="9:18">
+      <c r="I251" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="252" spans="9:18">
+      <c r="I252" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="253" spans="9:18">
+      <c r="I253" t="s">
         <v>595</v>
       </c>
-      <c r="Q249" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="250" spans="8:17">
-      <c r="H250" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="251" spans="8:17">
-      <c r="H251" t="s">
+    </row>
+    <row r="254" spans="9:18">
+      <c r="I254" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="252" spans="8:17">
-      <c r="H252" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="253" spans="8:17">
-      <c r="H253" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="254" spans="8:17">
-      <c r="H254" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="256" spans="8:17">
-      <c r="H256" t="s">
+    <row r="256" spans="9:18">
+      <c r="I256" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="257" spans="4:18">
+      <c r="I257" t="s">
+        <v>603</v>
+      </c>
+      <c r="R257" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="258" spans="4:18">
+      <c r="I258" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="259" spans="4:18">
+      <c r="I259" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="257" spans="3:17">
-      <c r="H257" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q257" t="s">
+      <c r="R259" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="261" spans="4:18">
+      <c r="I261" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="258" spans="3:17">
-      <c r="H258" t="s">
+    <row r="262" spans="4:18">
+      <c r="I262" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="259" spans="3:17">
-      <c r="H259" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q259" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="261" spans="3:17">
-      <c r="H261" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="262" spans="3:17">
-      <c r="H262" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="271" spans="3:17">
-      <c r="C271" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I271" t="s">
+    <row r="271" spans="4:18">
+      <c r="D271" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J271" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="272" spans="4:18">
+      <c r="D272" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J272" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19">
+      <c r="D273" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="J273" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19">
+      <c r="D274" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="J274" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="272" spans="3:17">
-      <c r="C272" s="17" t="s">
+    <row r="275" spans="1:19">
+      <c r="D275" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="J275" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19">
+      <c r="D276" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="I272" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18">
-      <c r="C273" s="17" t="s">
+      <c r="J276" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19">
+      <c r="D277" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="I273" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18">
-      <c r="C274" s="17" t="s">
+      <c r="J277" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19">
+      <c r="D278" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="I274" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18">
-      <c r="C275" s="17" t="s">
+      <c r="J278" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19">
+      <c r="D279" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="J279" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19">
+      <c r="D280" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="J280" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19">
+      <c r="D281" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="J281" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19">
+      <c r="D282" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="J282" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19">
+      <c r="D283" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="J283" t="s">
         <v>470</v>
       </c>
-      <c r="I275" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18">
-      <c r="C276" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="I276" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18">
-      <c r="C277" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="I277" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18">
-      <c r="C278" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="I278" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18">
-      <c r="C279" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="I279" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18">
-      <c r="C280" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="I280" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18">
-      <c r="C281" s="17" t="s">
+    </row>
+    <row r="284" spans="1:19">
+      <c r="D284" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="I281" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="282" spans="1:18">
-      <c r="C282" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="I282" t="s">
+      <c r="J284" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
-      <c r="C283" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="I283" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18">
-      <c r="C284" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="I284" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:19">
       <c r="A286" s="3"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
-      <c r="D286" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
-      <c r="H286" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
@@ -5608,71 +5877,74 @@
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
-    </row>
-    <row r="287" spans="1:18">
+      <c r="S286" s="1"/>
+    </row>
+    <row r="287" spans="1:19">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
-      <c r="D287" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
-      <c r="H287" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I287" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
-      <c r="O287" s="1">
+      <c r="O287" s="1"/>
+      <c r="P287" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:19">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
-      <c r="D288" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
-      <c r="H288" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I288" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
-      <c r="O288" s="1">
+      <c r="O288" s="1"/>
+      <c r="P288" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:20">
+    <row r="289" spans="1:21">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
-      <c r="D289" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
-      <c r="H289" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
@@ -5681,135 +5953,140 @@
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
-    </row>
-    <row r="290" spans="1:20">
+      <c r="R289" s="1"/>
+    </row>
+    <row r="290" spans="1:21">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
-      <c r="C290" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="C290" s="1"/>
       <c r="D290" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E290" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-      <c r="H290" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I290" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
-      <c r="O290" s="1">
+      <c r="O290" s="1"/>
+      <c r="P290" s="1">
         <v>20</v>
       </c>
-      <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
-    </row>
-    <row r="291" spans="1:20">
+      <c r="T290" s="1"/>
+    </row>
+    <row r="291" spans="1:21">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="1"/>
+      <c r="D291" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E291" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D291" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
-      <c r="H291" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
-      <c r="O291" s="1">
+      <c r="O291" s="1"/>
+      <c r="P291" s="1">
         <v>20</v>
       </c>
-      <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
-    </row>
-    <row r="292" spans="1:20">
+      <c r="T291" s="1"/>
+    </row>
+    <row r="292" spans="1:21">
       <c r="A292" s="3"/>
       <c r="B292" s="1"/>
-      <c r="C292" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="C292" s="1"/>
       <c r="D292" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E292" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-      <c r="H292" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
-      <c r="O292" s="1">
+      <c r="O292" s="1"/>
+      <c r="P292" s="1">
         <v>23</v>
       </c>
-      <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
-    </row>
-    <row r="293" spans="1:20">
+      <c r="T292" s="1"/>
+    </row>
+    <row r="293" spans="1:21">
       <c r="A293" s="3"/>
       <c r="B293" s="1"/>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="1"/>
+      <c r="D293" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E293" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D293" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-      <c r="H293" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
-      <c r="O293" s="1">
+      <c r="O293" s="1"/>
+      <c r="P293" s="1">
         <v>23</v>
       </c>
-      <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
-    </row>
-    <row r="295" spans="1:20">
+      <c r="T293" s="1"/>
+    </row>
+    <row r="295" spans="1:21">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
-      <c r="D295" s="2" t="s">
+      <c r="D295" s="1"/>
+      <c r="E295" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -5825,15 +6102,16 @@
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
       <c r="T295" s="1"/>
-    </row>
-    <row r="296" spans="1:20">
+      <c r="U295" s="1"/>
+    </row>
+    <row r="296" spans="1:21">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
-      <c r="D296" s="2" t="s">
+      <c r="D296" s="1"/>
+      <c r="E296" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -5849,15 +6127,16 @@
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
-    </row>
-    <row r="297" spans="1:20">
+      <c r="U296" s="1"/>
+    </row>
+    <row r="297" spans="1:21">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
-      <c r="D297" s="2" t="s">
+      <c r="D297" s="1"/>
+      <c r="E297" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -5873,15 +6152,16 @@
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
       <c r="T297" s="1"/>
-    </row>
-    <row r="298" spans="1:20">
+      <c r="U297" s="1"/>
+    </row>
+    <row r="298" spans="1:21">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
-      <c r="D298" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -5897,15 +6177,16 @@
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
       <c r="T298" s="1"/>
-    </row>
-    <row r="299" spans="1:20">
+      <c r="U298" s="1"/>
+    </row>
+    <row r="299" spans="1:21">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
-      <c r="D299" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -5921,15 +6202,16 @@
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
       <c r="T299" s="1"/>
-    </row>
-    <row r="300" spans="1:20">
+      <c r="U299" s="1"/>
+    </row>
+    <row r="300" spans="1:21">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
-      <c r="D300" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
@@ -5945,6 +6227,7 @@
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
       <c r="T300" s="1"/>
+      <c r="U300" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5959,125 +6242,125 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -6099,614 +6382,614 @@
       <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" t="s">
         <v>236</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
         <v>237</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" t="s">
         <v>268</v>
-      </c>
-      <c r="C47" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C55" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6724,93 +7007,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6A50E-5517-0B4F-B6AB-1E94580FA579}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -6819,17 +7102,17 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -6838,81 +7121,81 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="C9" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:16">
       <c r="C10" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="C11" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
@@ -6920,70 +7203,70 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="C21" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" t="s">
+        <v>475</v>
+      </c>
+      <c r="M21" t="s">
+        <v>477</v>
+      </c>
+      <c r="N21" t="s">
         <v>476</v>
-      </c>
-      <c r="E21" t="s">
-        <v>478</v>
-      </c>
-      <c r="M21" t="s">
-        <v>480</v>
-      </c>
-      <c r="N21" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -6991,10 +7274,10 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
